--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="20230115" sheetId="5" r:id="rId2"/>
+    <sheet name="20230205" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -38,6 +37,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Hi, How are you on this </t>
     </r>
     <r>
@@ -60,6 +64,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hēi ，nǐ hǎo ，duō me </t>
     </r>
     <r>
@@ -94,6 +103,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: it sure is </t>
     </r>
     <r>
@@ -116,6 +130,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> jīn tiān zǎo shàng hěn </t>
     </r>
     <r>
@@ -138,6 +157,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i </t>
     </r>
     <r>
@@ -160,6 +184,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ </t>
     </r>
     <r>
@@ -194,6 +223,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Did you catch the </t>
     </r>
     <r>
@@ -219,6 +253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i heard that there was a </t>
     </r>
     <r>
@@ -241,6 +280,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ kàn zǎo shàng de </t>
     </r>
     <r>
@@ -263,6 +307,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">le </t>
     </r>
     <r>
@@ -289,6 +338,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Did you happen to watch the </t>
     </r>
     <r>
@@ -311,6 +365,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ zuó wǎn yǒu méi yǒu kàn zú qiú </t>
     </r>
     <r>
@@ -351,6 +410,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Oh. </t>
     </r>
     <r>
@@ -376,6 +440,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">the </t>
     </r>
     <r>
@@ -398,6 +467,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>ò ，</t>
     </r>
     <r>
@@ -443,6 +517,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: she's my </t>
     </r>
     <r>
@@ -465,6 +544,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">tā shì wǒ </t>
     </r>
     <r>
@@ -484,6 +568,1149 @@
       </rPr>
       <t xml:space="preserve"> ，ò ，wǒ dào le ，hěn gāo xìng hé nǐ liáo tiān ，zài jiàn </t>
     </r>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>B: 很抱歉，我来晚了。真不好意思让你等我。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>terribly sorry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i’m late. Really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to have kept you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ lái wǎn le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bú hǎo yì sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ràng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>děng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 真没关系，你怎么会这么晚呢？</t>
+  </si>
+  <si>
+    <t>A: That’s quit alright. What made you so late.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn méi guān xì ，nǐ zěn me huì zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wǎn ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我正要出门的时候找不到门钥匙了。我记得</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Well, when I was leaving. I just couldn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to the door.</t>
+    </r>
+  </si>
+  <si>
+    <t>我把他放在桌子上了，可是就是找不到。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I remembered that I put it on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but I just couldn’t find it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhèng yào chū mén de shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bú dào mén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jì dé wǒ bǎ tā fàng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhuō zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shàng le ，kě shì jiù shì zhǎo bú dào 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 后来找到了吗？</t>
+  </si>
+  <si>
+    <t>A: Did you find it at last?</t>
+  </si>
+  <si>
+    <t>hòu lái zhǎo dào le ma ？</t>
+  </si>
+  <si>
+    <t>B: 没有，我的妻子正好回来了，我就赶紧出来了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  No, my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> just came back and I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rushed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out of the door.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi yǒu ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qī zǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhèng hǎo huí lái le ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jiù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gǎn jǐn chū lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 对我俩来说都很幸运，要不然我现在还在等着呢。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: it’s so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fortunate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for both of you and me. Otherwise, I would still be waiting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duì wǒ liǎ lái shuō dōu hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xìng yùn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>yào bú rán wǒ xiàn zài hái zài děng zhe ne 。</t>
+  </si>
+  <si>
+    <t>B: 是呀，更糟糕的是，我乘坐的那辆车半路上坏了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Definitely, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>To make it worse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, the bus I took broke down </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>halfway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì ya ，gèng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zāo gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de shì ，wǒ chéng zuò de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nà liàng chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bàn lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shàng huài le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A: 那你怎么来的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了一辆车吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  How did you come here? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to another bus?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nà nǐ zěn me lái de ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>huàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le yī liàng chē ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B:没有，我打车来的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要不然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还在路上呢。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: No. I got the taxi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Otherwise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, i’d still be on the way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi yǒu ，wǒ dǎ chē lái de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yào bú rán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hái zài lù shàng ne 。</t>
+    </r>
+  </si>
+  <si>
+    <t>Having a Barbecue</t>
+  </si>
+  <si>
+    <t>A:明天的家庭烧烤所需要的一切都准备好了吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Is everything ready for the big </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>family barbecue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tomorrow?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">míng tiān de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiā tíng shāo kǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> suǒ xū yào de yī qiē</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> dōu zhǔn bèi hǎo le ma ？</t>
+  </si>
+  <si>
+    <t>B:准备好了，牛排和肌肉都准备好了，我还买了</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yep, The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>steaks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chicken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> are ok, and i also bought hamburger </t>
+    </r>
+  </si>
+  <si>
+    <t>汉堡面包。</t>
+  </si>
+  <si>
+    <t>buns.</t>
+  </si>
+  <si>
+    <r>
+      <t>zhǔn bèi hǎo le ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>niú pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jī ròu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dōu zhǔn bèi hǎo le ，wǒ hái mǎi le </t>
+    </r>
+  </si>
+  <si>
+    <t>hàn bǎo miàn bāo</t>
+  </si>
+  <si>
+    <t>A: 我们还应该做几打热狗和烤肉串。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: We should also cook a couple of dozen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hot dogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kebabs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men hái yīng gāi zuò jǐ dǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rè gǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kǎo ròu chuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>B:是的，好主意。我们可以支起帐篷，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yeah, good idea. We can set up the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> outside so we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> form </t>
+    </r>
+  </si>
+  <si>
+    <t>这样太阳热的话，我们可以躲一下。</t>
+  </si>
+  <si>
+    <t>the sun if it gets too hot.</t>
+  </si>
+  <si>
+    <t>shì de ，hǎo zhǔ yì 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men kě yǐ zhī qǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhàng péng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè yàng tài yáng rè de huà ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>duǒ yī xià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:  棒极了！我让Grace去拿一些冰啤酒。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Great! i asked Grace to bring some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iced beers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> bàng jí le ！wǒ ràng Graceqù ná yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bīng pí jiǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 这会是一次很棒的家庭烧烤。</t>
+  </si>
+  <si>
+    <t>B: This is gonna be a great barbecue.</t>
+  </si>
+  <si>
+    <t>zhè huì shì yī cì hěn bàng de jiā tíng shāo kǎo 。</t>
+  </si>
+  <si>
+    <t>A:天哪，不要啊，下雨了。。</t>
+  </si>
+  <si>
+    <t>A: Oh, on, it's rainning.</t>
+  </si>
+  <si>
+    <t>tiān nǎ ，bú yào ā ，xià yǔ le 。</t>
   </si>
 </sst>
 </file>
@@ -496,7 +1723,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,15 +1744,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -676,6 +1926,60 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -995,158 +2299,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1497,8 +2806,8 @@
   <sheetPr/>
   <dimension ref="B1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1597,7 +2906,6 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="V18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,19 +2922,18 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="V22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +2947,6 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="V25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +2968,6 @@
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="V28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1708,12 +3013,12 @@
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1725,16 +3030,194 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C2:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24">
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="W14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23">
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="W26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="W29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1742,33 +3225,185 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C2:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24">
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="W14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24">
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="W19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="3:23">
+      <c r="C22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="W22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23">
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="W25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
     <sheet name="20230115" sheetId="5" r:id="rId2"/>
     <sheet name="20230205" sheetId="6" r:id="rId3"/>
+    <sheet name="20230212" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -1335,6 +1336,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Is everything ready for the big </t>
     </r>
     <r>
@@ -1357,6 +1363,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">míng tiān de </t>
     </r>
     <r>
@@ -1385,6 +1396,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yep, The </t>
     </r>
     <r>
@@ -1430,6 +1446,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>zhǔn bèi hǎo le ，</t>
     </r>
     <r>
@@ -1475,6 +1496,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: We should also cook a couple of dozen </t>
     </r>
     <r>
@@ -1514,6 +1540,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǒ men hái yīng gāi zuò jǐ dǎ </t>
     </r>
     <r>
@@ -1556,6 +1587,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yeah, good idea. We can set up the </t>
     </r>
     <r>
@@ -1604,6 +1640,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ men kě yǐ zhī qǐ </t>
     </r>
     <r>
@@ -1626,6 +1667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ men kě yǐ </t>
     </r>
     <r>
@@ -1652,6 +1699,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Great! i asked Grace to bring some </t>
     </r>
     <r>
@@ -1674,6 +1726,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> bàng jí le ！wǒ ràng Graceqù ná yī xiē </t>
     </r>
     <r>
@@ -1711,6 +1768,520 @@
   </si>
   <si>
     <t>tiān nǎ ，bú yào ā ，xià yǔ le 。</t>
+  </si>
+  <si>
+    <t>Shopping online</t>
+  </si>
+  <si>
+    <t>A: 你在做什么？</t>
+  </si>
+  <si>
+    <t>A: What are you doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zài zuò shen me ？ </t>
+  </si>
+  <si>
+    <t>B: 我在网上买一个漂亮的枕头。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  i'm just looking for a nice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pillow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on Ebay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> wǒ zài wǎng shàng mǎi yī gè piāo liàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhěn tóu</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你在网上买枕头，太荒唐了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  you're shopping for a pillow online? That's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>absurd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nǐ zài wǎng shàng mǎi zhěn tóu ，tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huāng táng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:为什么？我没必要离开家庭逛几十家店</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Why?i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>don't have to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> leave the house or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>browse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a dozen stores to find</t>
+    </r>
+  </si>
+  <si>
+    <t>只买个枕头。这样我只需要网上搜一下，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">what i'm looking for. This way, i just search for it online, quick and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>easy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>即快又方便。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wéi shen me ？wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi bì yào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lí kāi jiā tíng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǐ shí jiā diàn</t>
+    </r>
+  </si>
+  <si>
+    <t>zhī mǎi gè zhěn tóu 。zhè yàng wǒ zhī xū yào wǎng shàng sōu yī xià ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jí kuài yòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fāng biàn</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我明白了，可是你怎么付钱呢？你怎么知道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  i see. But how do you pay for it? How do you know you're </t>
+  </si>
+  <si>
+    <t>不会被骗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">not going to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ripped off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by the seller?</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ míng bái le ，kě shì nǐ zěn me fù qián ne ？nǐ zěn me zhī dào</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú huì bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>piàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 网站使用点数制度，如果卖家出现差错，客户</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Well, the website handles a point </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> where if the seller does </t>
+    </r>
+  </si>
+  <si>
+    <t>会给差评，那样你就知道他的店是否可靠。</t>
+  </si>
+  <si>
+    <t>something wrong, people comment negatively and then you know</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǎng zhàn shǐ yòng diǎn shù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhì dù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that he may not be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trustworthy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rú guǒ mài jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chū xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chà cuò ，kè hù </t>
+    </r>
+  </si>
+  <si>
+    <t>happened</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">huì gěi chà píng ，nà yàng nǐ jiù zhī dào tā de diàn shì fǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kě kào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 那听起来十分安全。那怎么付钱？需要信用卡吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Wow, that sounds pretty safe. So how do you pay? Do you need </t>
+  </si>
+  <si>
+    <t>nà tīng qǐ lái shí fèn ān quán 。nà zěn me fù qián ？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìn yòng kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B: 你可以用信用卡，或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借记卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:  you can use a credit card or you  card.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ yòng xìn yòng kǎ ，huò zhě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè jì kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>A:买它吧。</t>
+  </si>
+  <si>
+    <t>A: Let's do it.</t>
+  </si>
+  <si>
+    <t>mǎi tā ba 。</t>
   </si>
 </sst>
 </file>
@@ -1761,12 +2332,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1776,6 +2341,12 @@
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1935,6 +2506,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1978,18 +2561,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -3112,13 +3683,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="6"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -3138,15 +3709,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -3227,7 +3798,7 @@
   <sheetPr/>
   <dimension ref="C2:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3299,7 +3870,6 @@
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="W11" s="1" t="s">
         <v>92</v>
       </c>
@@ -3311,13 +3881,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -3342,7 +3912,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3350,7 +3920,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -3400,6 +3970,244 @@
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AH35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="V7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="V19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23">
+      <c r="D25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="D26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="V28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34">
+      <c r="D32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
     <sheet name="20230115" sheetId="5" r:id="rId2"/>
     <sheet name="20230205" sheetId="6" r:id="rId3"/>
     <sheet name="20230212" sheetId="7" r:id="rId4"/>
+    <sheet name="20230226" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="188">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -1786,6 +1787,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  i'm just looking for a nice </t>
     </r>
     <r>
@@ -1808,6 +1814,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> wǒ zài wǎng shàng mǎi yī gè piāo liàng de </t>
     </r>
     <r>
@@ -1825,6 +1837,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  you're shopping for a pillow online? That's </t>
     </r>
     <r>
@@ -1847,6 +1864,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> nǐ zài wǎng shàng mǎi zhěn tóu ，tài </t>
     </r>
     <r>
@@ -1872,6 +1894,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Why?i </t>
     </r>
     <r>
@@ -1914,6 +1941,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">what i'm looking for. This way, i just search for it online, quick and </t>
     </r>
     <r>
@@ -1939,6 +1971,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wéi shen me ？wǒ </t>
     </r>
     <r>
@@ -1981,6 +2018,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jí kuài yòu </t>
     </r>
     <r>
@@ -2004,6 +2047,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">not going to be </t>
     </r>
     <r>
@@ -2029,6 +2077,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">bú huì bèi </t>
     </r>
     <r>
@@ -2054,6 +2107,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Well, the website handles a point </t>
     </r>
     <r>
@@ -2082,6 +2140,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǎng zhàn shǐ yòng diǎn shù </t>
     </r>
     <r>
@@ -2104,6 +2167,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">that he may not be </t>
     </r>
     <r>
@@ -2126,6 +2194,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">rú guǒ mài jiā </t>
     </r>
     <r>
@@ -2151,6 +2224,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">huì gěi chà píng ，nà yàng nǐ jiù zhī dào tā de diàn shì fǒu </t>
     </r>
     <r>
@@ -2182,6 +2260,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -2204,6 +2287,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">xū yào </t>
     </r>
     <r>
@@ -2226,6 +2314,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B: 你可以用信用卡，或者</t>
     </r>
     <r>
@@ -2251,6 +2344,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ kě yǐ yòng xìn yòng kǎ ，huò zhě </t>
     </r>
     <r>
@@ -2282,6 +2380,607 @@
   </si>
   <si>
     <t>mǎi tā ba 。</t>
+  </si>
+  <si>
+    <t>A: 早上好，保罗。</t>
+  </si>
+  <si>
+    <t>A: Good morning, Paul</t>
+  </si>
+  <si>
+    <t>zǎo shàng hǎo ，bǎo luó</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 早上好，你今天怎么这么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Hi, good morning, you are so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>early</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zǎo shàng hǎo ，nǐ jīn tiān zěn me zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 是啊，今天的交通状况不错，所以我可以</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Yes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Traffic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wasn’t much today. So I made it to the office </t>
+    </r>
+  </si>
+  <si>
+    <t>早点来公司。</t>
+  </si>
+  <si>
+    <t>earlier.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shì ā ，jīn tiān de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jiāo tōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhuàng kuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bú cuò ，suǒ yǐ wǒ kě yǐ</t>
+    </r>
+  </si>
+  <si>
+    <t>zǎo diǎn lái gōng sī 。</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>B: 原来如此，你每天到公司要花多长时间。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> I see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. How long does it take you to reach the office everyday?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yuán lái rú cǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ měi tiān dào gōng sī yào huā duō chang shí jiān 。</t>
+    </r>
+  </si>
+  <si>
+    <t>adj.</t>
+  </si>
+  <si>
+    <t>A: 嗯，大约一个小时左右。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: Well, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> an hour or so.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>èn ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dà yuē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī gè xiǎo shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zuǒ yòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 很长的路程，你开车吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: That’s quite a long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>journey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, Do you drive a car?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn chang de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lù chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ kāi chē ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 不，我乘坐公共交通工具，这比较安全。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: No, I take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>public transportation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. it’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>safer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bú ，wǒ chéng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gōng gòng jiāo tōng gōng jù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhè bǐ jiào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ān quán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你说的对，但是我起床比较晚，那让我</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: You’re right. But I get up a little </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>late</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>别无选择，只能骑摩托车。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>That gives me no other option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> but to travel by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>motorcycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ shuō de duì ，dàn shì wǒ qǐ chuáng bǐ jiào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，nà ràng wǒ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bié wú xuǎn zé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhī néng qí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mó tuō chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2294,13 +2993,77 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2491,6 +3254,42 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2873,10 +3672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2885,137 +3684,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3027,6 +3826,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3383,213 +4193,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1020" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="2:22">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:23">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="2"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="4"/>
+      <c r="C37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3603,186 +4413,186 @@
   <sheetPr/>
   <dimension ref="C2:AA30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="W4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="W4" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="W7" s="1" t="s">
+      <c r="D7" s="16"/>
+      <c r="W7" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="W14" s="1" t="s">
+      <c r="D14" s="19"/>
+      <c r="W14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="W26" s="1" t="s">
+      <c r="D26" s="15"/>
+      <c r="W26" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="W29" s="1" t="s">
+      <c r="D29" s="16"/>
+      <c r="W29" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3804,172 +4614,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="W4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="W4" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="W7" s="1" t="s">
+      <c r="D7" s="16"/>
+      <c r="W7" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4"/>
-      <c r="W13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="W14" s="1" t="s">
+      <c r="D14" s="19"/>
+      <c r="W14" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="W19" s="1" t="s">
+      <c r="D19" s="18"/>
+      <c r="W19" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="3:23">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="W22" s="1" t="s">
+      <c r="D22" s="15"/>
+      <c r="W22" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="W25" s="1" t="s">
+      <c r="D25" s="15"/>
+      <c r="W25" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3983,8 +4793,244 @@
   <sheetPr/>
   <dimension ref="C2:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="V4" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="V7" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="V13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" s="13"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="V19" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="15"/>
+      <c r="D20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="D24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23">
+      <c r="D25" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="D26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="V28" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34">
+      <c r="D32" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH32" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AB29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4000,213 +5046,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="3:22">
+    <row r="4" spans="3:27">
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
-        <v>112</v>
+      <c r="AA4" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="4" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="3:22">
+    <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="V7" s="1" t="s">
-        <v>115</v>
+      <c r="AA7" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22">
+      <c r="D8" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27">
       <c r="C10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="V10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
+        <v>161</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28">
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="3:23">
-      <c r="C13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="V13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="4:23">
-      <c r="D14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>123</v>
+      <c r="D12" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="3:27">
+      <c r="C14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="AA14" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="4:27">
-      <c r="D17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA17" s="2"/>
+      <c r="D15" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="18:18">
+      <c r="R16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22">
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="V19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="3:23">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>131</v>
+      <c r="D18" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="10"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="3:27">
+      <c r="C20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="4" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="V23" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="4:23">
+        <v>178</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="4:23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
       <c r="D25" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="4:19">
-      <c r="D26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27">
+      <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="AA26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27">
       <c r="D27" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22">
-      <c r="C28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="V28" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22">
-      <c r="C31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="4:34">
-      <c r="D32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH32" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="3:22">
-      <c r="C34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="20230226" sheetId="8" r:id="rId5"/>
     <sheet name="20230305" sheetId="9" r:id="rId6"/>
     <sheet name="20230312" sheetId="10" r:id="rId7"/>
+    <sheet name="20230326" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="261">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3336,56 +3337,102 @@
     <t>i’m late</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A: I'm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>terribly sorry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> i’m late. Really </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">sory </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">to have kept you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>waiting</t>
+    <t>Decorating a house.</t>
+  </si>
+  <si>
+    <t>装修</t>
+  </si>
+  <si>
+    <t>zhuang  xiu</t>
+  </si>
+  <si>
+    <t>A:  你可以拿着卷尺的这一头吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Can you hold the end of this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tape measure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ ná zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>juàn chǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de zhè yī tóu ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好啊，你要做什么？</t>
+  </si>
+  <si>
+    <t>B: Sure, What's this for?</t>
+  </si>
+  <si>
+    <t>hǎo ā ，nǐ yào zuò shen me ？</t>
+  </si>
+  <si>
+    <t>A: 我正在测量新的窗帘的尺寸。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  I'm taking some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>measurements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>curtains</t>
     </r>
     <r>
       <rPr>
@@ -3398,436 +3445,268 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>bào qiàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ，wǒ lái wǎn le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">zhēn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bú hǎo yì sī </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ràng nǐ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>děng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> wǒ 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">zhēn méi guān xì ，nǐ zěn me huì zhè me </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>wǎn ne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B: Well, when I was leaving. I just couldn’t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>find</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> to the door.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">I remembered that I put it on a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, but I just couldn’t find it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wǒ zhèng yào chū mén de shí hòu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>zhǎo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> bú dào mén</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> yào shí </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wǒ jì dé wǒ bǎ tā fàng zài </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>zhuō zǐ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> shàng le ，kě shì jiù shì zhǎo bú dào 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B:  No, my </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wife</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> just came back and I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">rushed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>out of the door.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">méi yǒu ，wǒ de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">qī zǐ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zhèng hǎo huí lái le ，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">wǒ jiù </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">gǎn jǐn chū lái </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A: it’s so </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fortunate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for both of you and me. Otherwise, I would still be waiting.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">duì wǒ liǎ lái shuō dōu hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xìng yùn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B: Definitely, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>To make it worse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, the bus I took broke down </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>halfway</t>
+      <t xml:space="preserve">wǒ zhèng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cè liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xīn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chuāng lián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chǐ cùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 那咱们把地板和墙壁也量一量，然后</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  What about measuring the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>carpets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>换上新的地毯和新壁纸。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and the walls for new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wallpaper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nà zán men bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dì bǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hé qiáng bì yě liàng yī liàng ，rán hòu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">huàn shàng xīn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dì tǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xīn bì zhǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我觉得我们只要修一下这木地板就可以了。</t>
+  </si>
+  <si>
+    <t>A:  I thought we'll just fix up the wood floor and</t>
+  </si>
+  <si>
+    <t>然后粉刷一下墙面。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>paint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the walls.</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ jue dé wǒ men zhī yào xiū yī xià zhè mù dì bǎn jiù kě yǐ le 。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rán hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fěn shuā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià qiáng miàn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好主意。</t>
+  </si>
+  <si>
+    <t>B: Good idea.</t>
+  </si>
+  <si>
+    <t>hǎo zhǔ yì 。</t>
+  </si>
+  <si>
+    <t>A: 明天我们就去挑选窗帘和油漆吧。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Tomorrow we'll go and pick out some curtains and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>paint</t>
     </r>
     <r>
       <rPr>
@@ -3839,220 +3718,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">shì ya ，gèng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zāo gāo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> de shì ，wǒ chéng zuò de </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nà liàng chē </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF62A73B"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>bàn lù</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> shàng huài le 。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A: 那你怎么来的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>换</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了一辆车吗？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A:  How did you come here? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> to another bus?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>nà nǐ zěn me lái de ？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t>huàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> le yī liàng chē ma ？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B:没有，我打车来的，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要不然</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>还在路上呢。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B: No. I got the taxi. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Otherwise</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, i’d still be on the way.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>méi yǒu ，wǒ dǎ chē lái de ，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEF413D"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>yào bú rán</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> hái zài lù shàng ne 。</t>
-    </r>
+    <t xml:space="preserve">míng tiān wǒ men jiù qù tiāo xuǎn </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chuāng lián hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yóu qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ba 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的。</t>
+  </si>
+  <si>
+    <t>B: Okay.</t>
+  </si>
+  <si>
+    <t>hǎo de</t>
   </si>
 </sst>
 </file>
@@ -4065,7 +3762,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4103,18 +3800,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4127,49 +3812,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4329,15 +3974,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4365,51 +4028,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF72BF44"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006C3B"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4420,24 +4047,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4750,10 +4359,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4762,137 +4371,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4906,15 +4515,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5271,213 +4871,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1020" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1021" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="W19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="2:22">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:23">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="W32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="10"/>
+      <c r="X34" s="2"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V35" s="11" t="s">
+      <c r="V35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="13"/>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5497,180 +5097,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="W4" s="11" t="s">
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="W7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="W14" s="11" t="s">
+      <c r="D14" s="8"/>
+      <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="W17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="15"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="W26" s="11" t="s">
+      <c r="D26" s="4"/>
+      <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="13"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="W29" s="11" t="s">
+      <c r="D29" s="5"/>
+      <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5692,172 +5292,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="W4" s="11" t="s">
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="W7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="13"/>
-      <c r="W13" s="15"/>
+      <c r="D13" s="4"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="W14" s="11" t="s">
+      <c r="D14" s="8"/>
+      <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="W19" s="11" t="s">
+      <c r="D19" s="7"/>
+      <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="13"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="13"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="3:23">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="W22" s="11" t="s">
+      <c r="D22" s="4"/>
+      <c r="W22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="3:23">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="W25" s="11" t="s">
+      <c r="D25" s="4"/>
+      <c r="W25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="13"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="13"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="14"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5877,221 +5477,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="V4" s="11" t="s">
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="V7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="V13" s="11" t="s">
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="4:23">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="V19" s="11" t="s">
+      <c r="D19" s="7"/>
+      <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="13"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="W24" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="V28" s="11" t="s">
+      <c r="D28" s="4"/>
+      <c r="V28" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="W29" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="4:34">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AH32" s="11" t="s">
+      <c r="AH32" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6113,172 +5713,172 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:27">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="AA4" s="11" t="s">
+      <c r="D4" s="3"/>
+      <c r="AA4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="3:27">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="AA7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="3:27">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="4:28">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:27">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="AA14" s="11" t="s">
+      <c r="D14" s="8"/>
+      <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="18:18">
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AA17" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="17"/>
-      <c r="W19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:27">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AA20" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="13"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="3:27">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="3:27">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="AA26" s="11" t="s">
+      <c r="D26" s="4"/>
+      <c r="AA26" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="19" t="s">
+      <c r="AA27" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="10" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6300,2251 +5900,2251 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="11" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="11" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:1025">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11"/>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11"/>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11"/>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11"/>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11"/>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11"/>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11"/>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11"/>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11"/>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11"/>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="11"/>
-      <c r="EZ2" s="11"/>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11"/>
-      <c r="FE2" s="11"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="11"/>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11"/>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="11"/>
-      <c r="FO2" s="11"/>
-      <c r="FP2" s="11"/>
-      <c r="FQ2" s="11"/>
-      <c r="FR2" s="11"/>
-      <c r="FS2" s="11"/>
-      <c r="FT2" s="11"/>
-      <c r="FU2" s="11"/>
-      <c r="FV2" s="11"/>
-      <c r="FW2" s="11"/>
-      <c r="FX2" s="11"/>
-      <c r="FY2" s="11"/>
-      <c r="FZ2" s="11"/>
-      <c r="GA2" s="11"/>
-      <c r="GB2" s="11"/>
-      <c r="GC2" s="11"/>
-      <c r="GD2" s="11"/>
-      <c r="GE2" s="11"/>
-      <c r="GF2" s="11"/>
-      <c r="GG2" s="11"/>
-      <c r="GH2" s="11"/>
-      <c r="GI2" s="11"/>
-      <c r="GJ2" s="11"/>
-      <c r="GK2" s="11"/>
-      <c r="GL2" s="11"/>
-      <c r="GM2" s="11"/>
-      <c r="GN2" s="11"/>
-      <c r="GO2" s="11"/>
-      <c r="GP2" s="11"/>
-      <c r="GQ2" s="11"/>
-      <c r="GR2" s="11"/>
-      <c r="GS2" s="11"/>
-      <c r="GT2" s="11"/>
-      <c r="GU2" s="11"/>
-      <c r="GV2" s="11"/>
-      <c r="GW2" s="11"/>
-      <c r="GX2" s="11"/>
-      <c r="GY2" s="11"/>
-      <c r="GZ2" s="11"/>
-      <c r="HA2" s="11"/>
-      <c r="HB2" s="11"/>
-      <c r="HC2" s="11"/>
-      <c r="HD2" s="11"/>
-      <c r="HE2" s="11"/>
-      <c r="HF2" s="11"/>
-      <c r="HG2" s="11"/>
-      <c r="HH2" s="11"/>
-      <c r="HI2" s="11"/>
-      <c r="HJ2" s="11"/>
-      <c r="HK2" s="11"/>
-      <c r="HL2" s="11"/>
-      <c r="HM2" s="11"/>
-      <c r="HN2" s="11"/>
-      <c r="HO2" s="11"/>
-      <c r="HP2" s="11"/>
-      <c r="HQ2" s="11"/>
-      <c r="HR2" s="11"/>
-      <c r="HS2" s="11"/>
-      <c r="HT2" s="11"/>
-      <c r="HU2" s="11"/>
-      <c r="HV2" s="11"/>
-      <c r="HW2" s="11"/>
-      <c r="HX2" s="11"/>
-      <c r="HY2" s="11"/>
-      <c r="HZ2" s="11"/>
-      <c r="IA2" s="11"/>
-      <c r="IB2" s="11"/>
-      <c r="IC2" s="11"/>
-      <c r="ID2" s="11"/>
-      <c r="IE2" s="11"/>
-      <c r="IF2" s="11"/>
-      <c r="IG2" s="11"/>
-      <c r="IH2" s="11"/>
-      <c r="II2" s="11"/>
-      <c r="IJ2" s="11"/>
-      <c r="IK2" s="11"/>
-      <c r="IL2" s="11"/>
-      <c r="IM2" s="11"/>
-      <c r="IN2" s="11"/>
-      <c r="IO2" s="11"/>
-      <c r="IP2" s="11"/>
-      <c r="IQ2" s="11"/>
-      <c r="IR2" s="11"/>
-      <c r="IS2" s="11"/>
-      <c r="IT2" s="11"/>
-      <c r="IU2" s="11"/>
-      <c r="IV2" s="11"/>
-      <c r="IW2" s="11"/>
-      <c r="IX2" s="11"/>
-      <c r="IY2" s="11"/>
-      <c r="IZ2" s="11"/>
-      <c r="JA2" s="11"/>
-      <c r="JB2" s="11"/>
-      <c r="JC2" s="11"/>
-      <c r="JD2" s="11"/>
-      <c r="JE2" s="11"/>
-      <c r="JF2" s="11"/>
-      <c r="JG2" s="11"/>
-      <c r="JH2" s="11"/>
-      <c r="JI2" s="11"/>
-      <c r="JJ2" s="11"/>
-      <c r="JK2" s="11"/>
-      <c r="JL2" s="11"/>
-      <c r="JM2" s="11"/>
-      <c r="JN2" s="11"/>
-      <c r="JO2" s="11"/>
-      <c r="JP2" s="11"/>
-      <c r="JQ2" s="11"/>
-      <c r="JR2" s="11"/>
-      <c r="JS2" s="11"/>
-      <c r="JT2" s="11"/>
-      <c r="JU2" s="11"/>
-      <c r="JV2" s="11"/>
-      <c r="JW2" s="11"/>
-      <c r="JX2" s="11"/>
-      <c r="JY2" s="11"/>
-      <c r="JZ2" s="11"/>
-      <c r="KA2" s="11"/>
-      <c r="KB2" s="11"/>
-      <c r="KC2" s="11"/>
-      <c r="KD2" s="11"/>
-      <c r="KE2" s="11"/>
-      <c r="KF2" s="11"/>
-      <c r="KG2" s="11"/>
-      <c r="KH2" s="11"/>
-      <c r="KI2" s="11"/>
-      <c r="KJ2" s="11"/>
-      <c r="KK2" s="11"/>
-      <c r="KL2" s="11"/>
-      <c r="KM2" s="11"/>
-      <c r="KN2" s="11"/>
-      <c r="KO2" s="11"/>
-      <c r="KP2" s="11"/>
-      <c r="KQ2" s="11"/>
-      <c r="KR2" s="11"/>
-      <c r="KS2" s="11"/>
-      <c r="KT2" s="11"/>
-      <c r="KU2" s="11"/>
-      <c r="KV2" s="11"/>
-      <c r="KW2" s="11"/>
-      <c r="KX2" s="11"/>
-      <c r="KY2" s="11"/>
-      <c r="KZ2" s="11"/>
-      <c r="LA2" s="11"/>
-      <c r="LB2" s="11"/>
-      <c r="LC2" s="11"/>
-      <c r="LD2" s="11"/>
-      <c r="LE2" s="11"/>
-      <c r="LF2" s="11"/>
-      <c r="LG2" s="11"/>
-      <c r="LH2" s="11"/>
-      <c r="LI2" s="11"/>
-      <c r="LJ2" s="11"/>
-      <c r="LK2" s="11"/>
-      <c r="LL2" s="11"/>
-      <c r="LM2" s="11"/>
-      <c r="LN2" s="11"/>
-      <c r="LO2" s="11"/>
-      <c r="LP2" s="11"/>
-      <c r="LQ2" s="11"/>
-      <c r="LR2" s="11"/>
-      <c r="LS2" s="11"/>
-      <c r="LT2" s="11"/>
-      <c r="LU2" s="11"/>
-      <c r="LV2" s="11"/>
-      <c r="LW2" s="11"/>
-      <c r="LX2" s="11"/>
-      <c r="LY2" s="11"/>
-      <c r="LZ2" s="11"/>
-      <c r="MA2" s="11"/>
-      <c r="MB2" s="11"/>
-      <c r="MC2" s="11"/>
-      <c r="MD2" s="11"/>
-      <c r="ME2" s="11"/>
-      <c r="MF2" s="11"/>
-      <c r="MG2" s="11"/>
-      <c r="MH2" s="11"/>
-      <c r="MI2" s="11"/>
-      <c r="MJ2" s="11"/>
-      <c r="MK2" s="11"/>
-      <c r="ML2" s="11"/>
-      <c r="MM2" s="11"/>
-      <c r="MN2" s="11"/>
-      <c r="MO2" s="11"/>
-      <c r="MP2" s="11"/>
-      <c r="MQ2" s="11"/>
-      <c r="MR2" s="11"/>
-      <c r="MS2" s="11"/>
-      <c r="MT2" s="11"/>
-      <c r="MU2" s="11"/>
-      <c r="MV2" s="11"/>
-      <c r="MW2" s="11"/>
-      <c r="MX2" s="11"/>
-      <c r="MY2" s="11"/>
-      <c r="MZ2" s="11"/>
-      <c r="NA2" s="11"/>
-      <c r="NB2" s="11"/>
-      <c r="NC2" s="11"/>
-      <c r="ND2" s="11"/>
-      <c r="NE2" s="11"/>
-      <c r="NF2" s="11"/>
-      <c r="NG2" s="11"/>
-      <c r="NH2" s="11"/>
-      <c r="NI2" s="11"/>
-      <c r="NJ2" s="11"/>
-      <c r="NK2" s="11"/>
-      <c r="NL2" s="11"/>
-      <c r="NM2" s="11"/>
-      <c r="NN2" s="11"/>
-      <c r="NO2" s="11"/>
-      <c r="NP2" s="11"/>
-      <c r="NQ2" s="11"/>
-      <c r="NR2" s="11"/>
-      <c r="NS2" s="11"/>
-      <c r="NT2" s="11"/>
-      <c r="NU2" s="11"/>
-      <c r="NV2" s="11"/>
-      <c r="NW2" s="11"/>
-      <c r="NX2" s="11"/>
-      <c r="NY2" s="11"/>
-      <c r="NZ2" s="11"/>
-      <c r="OA2" s="11"/>
-      <c r="OB2" s="11"/>
-      <c r="OC2" s="11"/>
-      <c r="OD2" s="11"/>
-      <c r="OE2" s="11"/>
-      <c r="OF2" s="11"/>
-      <c r="OG2" s="11"/>
-      <c r="OH2" s="11"/>
-      <c r="OI2" s="11"/>
-      <c r="OJ2" s="11"/>
-      <c r="OK2" s="11"/>
-      <c r="OL2" s="11"/>
-      <c r="OM2" s="11"/>
-      <c r="ON2" s="11"/>
-      <c r="OO2" s="11"/>
-      <c r="OP2" s="11"/>
-      <c r="OQ2" s="11"/>
-      <c r="OR2" s="11"/>
-      <c r="OS2" s="11"/>
-      <c r="OT2" s="11"/>
-      <c r="OU2" s="11"/>
-      <c r="OV2" s="11"/>
-      <c r="OW2" s="11"/>
-      <c r="OX2" s="11"/>
-      <c r="OY2" s="11"/>
-      <c r="OZ2" s="11"/>
-      <c r="PA2" s="11"/>
-      <c r="PB2" s="11"/>
-      <c r="PC2" s="11"/>
-      <c r="PD2" s="11"/>
-      <c r="PE2" s="11"/>
-      <c r="PF2" s="11"/>
-      <c r="PG2" s="11"/>
-      <c r="PH2" s="11"/>
-      <c r="PI2" s="11"/>
-      <c r="PJ2" s="11"/>
-      <c r="PK2" s="11"/>
-      <c r="PL2" s="11"/>
-      <c r="PM2" s="11"/>
-      <c r="PN2" s="11"/>
-      <c r="PO2" s="11"/>
-      <c r="PP2" s="11"/>
-      <c r="PQ2" s="11"/>
-      <c r="PR2" s="11"/>
-      <c r="PS2" s="11"/>
-      <c r="PT2" s="11"/>
-      <c r="PU2" s="11"/>
-      <c r="PV2" s="11"/>
-      <c r="PW2" s="11"/>
-      <c r="PX2" s="11"/>
-      <c r="PY2" s="11"/>
-      <c r="PZ2" s="11"/>
-      <c r="QA2" s="11"/>
-      <c r="QB2" s="11"/>
-      <c r="QC2" s="11"/>
-      <c r="QD2" s="11"/>
-      <c r="QE2" s="11"/>
-      <c r="QF2" s="11"/>
-      <c r="QG2" s="11"/>
-      <c r="QH2" s="11"/>
-      <c r="QI2" s="11"/>
-      <c r="QJ2" s="11"/>
-      <c r="QK2" s="11"/>
-      <c r="QL2" s="11"/>
-      <c r="QM2" s="11"/>
-      <c r="QN2" s="11"/>
-      <c r="QO2" s="11"/>
-      <c r="QP2" s="11"/>
-      <c r="QQ2" s="11"/>
-      <c r="QR2" s="11"/>
-      <c r="QS2" s="11"/>
-      <c r="QT2" s="11"/>
-      <c r="QU2" s="11"/>
-      <c r="QV2" s="11"/>
-      <c r="QW2" s="11"/>
-      <c r="QX2" s="11"/>
-      <c r="QY2" s="11"/>
-      <c r="QZ2" s="11"/>
-      <c r="RA2" s="11"/>
-      <c r="RB2" s="11"/>
-      <c r="RC2" s="11"/>
-      <c r="RD2" s="11"/>
-      <c r="RE2" s="11"/>
-      <c r="RF2" s="11"/>
-      <c r="RG2" s="11"/>
-      <c r="RH2" s="11"/>
-      <c r="RI2" s="11"/>
-      <c r="RJ2" s="11"/>
-      <c r="RK2" s="11"/>
-      <c r="RL2" s="11"/>
-      <c r="RM2" s="11"/>
-      <c r="RN2" s="11"/>
-      <c r="RO2" s="11"/>
-      <c r="RP2" s="11"/>
-      <c r="RQ2" s="11"/>
-      <c r="RR2" s="11"/>
-      <c r="RS2" s="11"/>
-      <c r="RT2" s="11"/>
-      <c r="RU2" s="11"/>
-      <c r="RV2" s="11"/>
-      <c r="RW2" s="11"/>
-      <c r="RX2" s="11"/>
-      <c r="RY2" s="11"/>
-      <c r="RZ2" s="11"/>
-      <c r="SA2" s="11"/>
-      <c r="SB2" s="11"/>
-      <c r="SC2" s="11"/>
-      <c r="SD2" s="11"/>
-      <c r="SE2" s="11"/>
-      <c r="SF2" s="11"/>
-      <c r="SG2" s="11"/>
-      <c r="SH2" s="11"/>
-      <c r="SI2" s="11"/>
-      <c r="SJ2" s="11"/>
-      <c r="SK2" s="11"/>
-      <c r="SL2" s="11"/>
-      <c r="SM2" s="11"/>
-      <c r="SN2" s="11"/>
-      <c r="SO2" s="11"/>
-      <c r="SP2" s="11"/>
-      <c r="SQ2" s="11"/>
-      <c r="SR2" s="11"/>
-      <c r="SS2" s="11"/>
-      <c r="ST2" s="11"/>
-      <c r="SU2" s="11"/>
-      <c r="SV2" s="11"/>
-      <c r="SW2" s="11"/>
-      <c r="SX2" s="11"/>
-      <c r="SY2" s="11"/>
-      <c r="SZ2" s="11"/>
-      <c r="TA2" s="11"/>
-      <c r="TB2" s="11"/>
-      <c r="TC2" s="11"/>
-      <c r="TD2" s="11"/>
-      <c r="TE2" s="11"/>
-      <c r="TF2" s="11"/>
-      <c r="TG2" s="11"/>
-      <c r="TH2" s="11"/>
-      <c r="TI2" s="11"/>
-      <c r="TJ2" s="11"/>
-      <c r="TK2" s="11"/>
-      <c r="TL2" s="11"/>
-      <c r="TM2" s="11"/>
-      <c r="TN2" s="11"/>
-      <c r="TO2" s="11"/>
-      <c r="TP2" s="11"/>
-      <c r="TQ2" s="11"/>
-      <c r="TR2" s="11"/>
-      <c r="TS2" s="11"/>
-      <c r="TT2" s="11"/>
-      <c r="TU2" s="11"/>
-      <c r="TV2" s="11"/>
-      <c r="TW2" s="11"/>
-      <c r="TX2" s="11"/>
-      <c r="TY2" s="11"/>
-      <c r="TZ2" s="11"/>
-      <c r="UA2" s="11"/>
-      <c r="UB2" s="11"/>
-      <c r="UC2" s="11"/>
-      <c r="UD2" s="11"/>
-      <c r="UE2" s="11"/>
-      <c r="UF2" s="11"/>
-      <c r="UG2" s="11"/>
-      <c r="UH2" s="11"/>
-      <c r="UI2" s="11"/>
-      <c r="UJ2" s="11"/>
-      <c r="UK2" s="11"/>
-      <c r="UL2" s="11"/>
-      <c r="UM2" s="11"/>
-      <c r="UN2" s="11"/>
-      <c r="UO2" s="11"/>
-      <c r="UP2" s="11"/>
-      <c r="UQ2" s="11"/>
-      <c r="UR2" s="11"/>
-      <c r="US2" s="11"/>
-      <c r="UT2" s="11"/>
-      <c r="UU2" s="11"/>
-      <c r="UV2" s="11"/>
-      <c r="UW2" s="11"/>
-      <c r="UX2" s="11"/>
-      <c r="UY2" s="11"/>
-      <c r="UZ2" s="11"/>
-      <c r="VA2" s="11"/>
-      <c r="VB2" s="11"/>
-      <c r="VC2" s="11"/>
-      <c r="VD2" s="11"/>
-      <c r="VE2" s="11"/>
-      <c r="VF2" s="11"/>
-      <c r="VG2" s="11"/>
-      <c r="VH2" s="11"/>
-      <c r="VI2" s="11"/>
-      <c r="VJ2" s="11"/>
-      <c r="VK2" s="11"/>
-      <c r="VL2" s="11"/>
-      <c r="VM2" s="11"/>
-      <c r="VN2" s="11"/>
-      <c r="VO2" s="11"/>
-      <c r="VP2" s="11"/>
-      <c r="VQ2" s="11"/>
-      <c r="VR2" s="11"/>
-      <c r="VS2" s="11"/>
-      <c r="VT2" s="11"/>
-      <c r="VU2" s="11"/>
-      <c r="VV2" s="11"/>
-      <c r="VW2" s="11"/>
-      <c r="VX2" s="11"/>
-      <c r="VY2" s="11"/>
-      <c r="VZ2" s="11"/>
-      <c r="WA2" s="11"/>
-      <c r="WB2" s="11"/>
-      <c r="WC2" s="11"/>
-      <c r="WD2" s="11"/>
-      <c r="WE2" s="11"/>
-      <c r="WF2" s="11"/>
-      <c r="WG2" s="11"/>
-      <c r="WH2" s="11"/>
-      <c r="WI2" s="11"/>
-      <c r="WJ2" s="11"/>
-      <c r="WK2" s="11"/>
-      <c r="WL2" s="11"/>
-      <c r="WM2" s="11"/>
-      <c r="WN2" s="11"/>
-      <c r="WO2" s="11"/>
-      <c r="WP2" s="11"/>
-      <c r="WQ2" s="11"/>
-      <c r="WR2" s="11"/>
-      <c r="WS2" s="11"/>
-      <c r="WT2" s="11"/>
-      <c r="WU2" s="11"/>
-      <c r="WV2" s="11"/>
-      <c r="WW2" s="11"/>
-      <c r="WX2" s="11"/>
-      <c r="WY2" s="11"/>
-      <c r="WZ2" s="11"/>
-      <c r="XA2" s="11"/>
-      <c r="XB2" s="11"/>
-      <c r="XC2" s="11"/>
-      <c r="XD2" s="11"/>
-      <c r="XE2" s="11"/>
-      <c r="XF2" s="11"/>
-      <c r="XG2" s="11"/>
-      <c r="XH2" s="11"/>
-      <c r="XI2" s="11"/>
-      <c r="XJ2" s="11"/>
-      <c r="XK2" s="11"/>
-      <c r="XL2" s="11"/>
-      <c r="XM2" s="11"/>
-      <c r="XN2" s="11"/>
-      <c r="XO2" s="11"/>
-      <c r="XP2" s="11"/>
-      <c r="XQ2" s="11"/>
-      <c r="XR2" s="11"/>
-      <c r="XS2" s="11"/>
-      <c r="XT2" s="11"/>
-      <c r="XU2" s="11"/>
-      <c r="XV2" s="11"/>
-      <c r="XW2" s="11"/>
-      <c r="XX2" s="11"/>
-      <c r="XY2" s="11"/>
-      <c r="XZ2" s="11"/>
-      <c r="YA2" s="11"/>
-      <c r="YB2" s="11"/>
-      <c r="YC2" s="11"/>
-      <c r="YD2" s="11"/>
-      <c r="YE2" s="11"/>
-      <c r="YF2" s="11"/>
-      <c r="YG2" s="11"/>
-      <c r="YH2" s="11"/>
-      <c r="YI2" s="11"/>
-      <c r="YJ2" s="11"/>
-      <c r="YK2" s="11"/>
-      <c r="YL2" s="11"/>
-      <c r="YM2" s="11"/>
-      <c r="YN2" s="11"/>
-      <c r="YO2" s="11"/>
-      <c r="YP2" s="11"/>
-      <c r="YQ2" s="11"/>
-      <c r="YR2" s="11"/>
-      <c r="YS2" s="11"/>
-      <c r="YT2" s="11"/>
-      <c r="YU2" s="11"/>
-      <c r="YV2" s="11"/>
-      <c r="YW2" s="11"/>
-      <c r="YX2" s="11"/>
-      <c r="YY2" s="11"/>
-      <c r="YZ2" s="11"/>
-      <c r="ZA2" s="11"/>
-      <c r="ZB2" s="11"/>
-      <c r="ZC2" s="11"/>
-      <c r="ZD2" s="11"/>
-      <c r="ZE2" s="11"/>
-      <c r="ZF2" s="11"/>
-      <c r="ZG2" s="11"/>
-      <c r="ZH2" s="11"/>
-      <c r="ZI2" s="11"/>
-      <c r="ZJ2" s="11"/>
-      <c r="ZK2" s="11"/>
-      <c r="ZL2" s="11"/>
-      <c r="ZM2" s="11"/>
-      <c r="ZN2" s="11"/>
-      <c r="ZO2" s="11"/>
-      <c r="ZP2" s="11"/>
-      <c r="ZQ2" s="11"/>
-      <c r="ZR2" s="11"/>
-      <c r="ZS2" s="11"/>
-      <c r="ZT2" s="11"/>
-      <c r="ZU2" s="11"/>
-      <c r="ZV2" s="11"/>
-      <c r="ZW2" s="11"/>
-      <c r="ZX2" s="11"/>
-      <c r="ZY2" s="11"/>
-      <c r="ZZ2" s="11"/>
-      <c r="AAA2" s="11"/>
-      <c r="AAB2" s="11"/>
-      <c r="AAC2" s="11"/>
-      <c r="AAD2" s="11"/>
-      <c r="AAE2" s="11"/>
-      <c r="AAF2" s="11"/>
-      <c r="AAG2" s="11"/>
-      <c r="AAH2" s="11"/>
-      <c r="AAI2" s="11"/>
-      <c r="AAJ2" s="11"/>
-      <c r="AAK2" s="11"/>
-      <c r="AAL2" s="11"/>
-      <c r="AAM2" s="11"/>
-      <c r="AAN2" s="11"/>
-      <c r="AAO2" s="11"/>
-      <c r="AAP2" s="11"/>
-      <c r="AAQ2" s="11"/>
-      <c r="AAR2" s="11"/>
-      <c r="AAS2" s="11"/>
-      <c r="AAT2" s="11"/>
-      <c r="AAU2" s="11"/>
-      <c r="AAV2" s="11"/>
-      <c r="AAW2" s="11"/>
-      <c r="AAX2" s="11"/>
-      <c r="AAY2" s="11"/>
-      <c r="AAZ2" s="11"/>
-      <c r="ABA2" s="11"/>
-      <c r="ABB2" s="11"/>
-      <c r="ABC2" s="11"/>
-      <c r="ABD2" s="11"/>
-      <c r="ABE2" s="11"/>
-      <c r="ABF2" s="11"/>
-      <c r="ABG2" s="11"/>
-      <c r="ABH2" s="11"/>
-      <c r="ABI2" s="11"/>
-      <c r="ABJ2" s="11"/>
-      <c r="ABK2" s="11"/>
-      <c r="ABL2" s="11"/>
-      <c r="ABM2" s="11"/>
-      <c r="ABN2" s="11"/>
-      <c r="ABO2" s="11"/>
-      <c r="ABP2" s="11"/>
-      <c r="ABQ2" s="11"/>
-      <c r="ABR2" s="11"/>
-      <c r="ABS2" s="11"/>
-      <c r="ABT2" s="11"/>
-      <c r="ABU2" s="11"/>
-      <c r="ABV2" s="11"/>
-      <c r="ABW2" s="11"/>
-      <c r="ABX2" s="11"/>
-      <c r="ABY2" s="11"/>
-      <c r="ABZ2" s="11"/>
-      <c r="ACA2" s="11"/>
-      <c r="ACB2" s="11"/>
-      <c r="ACC2" s="11"/>
-      <c r="ACD2" s="11"/>
-      <c r="ACE2" s="11"/>
-      <c r="ACF2" s="11"/>
-      <c r="ACG2" s="11"/>
-      <c r="ACH2" s="11"/>
-      <c r="ACI2" s="11"/>
-      <c r="ACJ2" s="11"/>
-      <c r="ACK2" s="11"/>
-      <c r="ACL2" s="11"/>
-      <c r="ACM2" s="11"/>
-      <c r="ACN2" s="11"/>
-      <c r="ACO2" s="11"/>
-      <c r="ACP2" s="11"/>
-      <c r="ACQ2" s="11"/>
-      <c r="ACR2" s="11"/>
-      <c r="ACS2" s="11"/>
-      <c r="ACT2" s="11"/>
-      <c r="ACU2" s="11"/>
-      <c r="ACV2" s="11"/>
-      <c r="ACW2" s="11"/>
-      <c r="ACX2" s="11"/>
-      <c r="ACY2" s="11"/>
-      <c r="ACZ2" s="11"/>
-      <c r="ADA2" s="11"/>
-      <c r="ADB2" s="11"/>
-      <c r="ADC2" s="11"/>
-      <c r="ADD2" s="11"/>
-      <c r="ADE2" s="11"/>
-      <c r="ADF2" s="11"/>
-      <c r="ADG2" s="11"/>
-      <c r="ADH2" s="11"/>
-      <c r="ADI2" s="11"/>
-      <c r="ADJ2" s="11"/>
-      <c r="ADK2" s="11"/>
-      <c r="ADL2" s="11"/>
-      <c r="ADM2" s="11"/>
-      <c r="ADN2" s="11"/>
-      <c r="ADO2" s="11"/>
-      <c r="ADP2" s="11"/>
-      <c r="ADQ2" s="11"/>
-      <c r="ADR2" s="11"/>
-      <c r="ADS2" s="11"/>
-      <c r="ADT2" s="11"/>
-      <c r="ADU2" s="11"/>
-      <c r="ADV2" s="11"/>
-      <c r="ADW2" s="11"/>
-      <c r="ADX2" s="11"/>
-      <c r="ADY2" s="11"/>
-      <c r="ADZ2" s="11"/>
-      <c r="AEA2" s="11"/>
-      <c r="AEB2" s="11"/>
-      <c r="AEC2" s="11"/>
-      <c r="AED2" s="11"/>
-      <c r="AEE2" s="11"/>
-      <c r="AEF2" s="11"/>
-      <c r="AEG2" s="11"/>
-      <c r="AEH2" s="11"/>
-      <c r="AEI2" s="11"/>
-      <c r="AEJ2" s="11"/>
-      <c r="AEK2" s="11"/>
-      <c r="AEL2" s="11"/>
-      <c r="AEM2" s="11"/>
-      <c r="AEN2" s="11"/>
-      <c r="AEO2" s="11"/>
-      <c r="AEP2" s="11"/>
-      <c r="AEQ2" s="11"/>
-      <c r="AER2" s="11"/>
-      <c r="AES2" s="11"/>
-      <c r="AET2" s="11"/>
-      <c r="AEU2" s="11"/>
-      <c r="AEV2" s="11"/>
-      <c r="AEW2" s="11"/>
-      <c r="AEX2" s="11"/>
-      <c r="AEY2" s="11"/>
-      <c r="AEZ2" s="11"/>
-      <c r="AFA2" s="11"/>
-      <c r="AFB2" s="11"/>
-      <c r="AFC2" s="11"/>
-      <c r="AFD2" s="11"/>
-      <c r="AFE2" s="11"/>
-      <c r="AFF2" s="11"/>
-      <c r="AFG2" s="11"/>
-      <c r="AFH2" s="11"/>
-      <c r="AFI2" s="11"/>
-      <c r="AFJ2" s="11"/>
-      <c r="AFK2" s="11"/>
-      <c r="AFL2" s="11"/>
-      <c r="AFM2" s="11"/>
-      <c r="AFN2" s="11"/>
-      <c r="AFO2" s="11"/>
-      <c r="AFP2" s="11"/>
-      <c r="AFQ2" s="11"/>
-      <c r="AFR2" s="11"/>
-      <c r="AFS2" s="11"/>
-      <c r="AFT2" s="11"/>
-      <c r="AFU2" s="11"/>
-      <c r="AFV2" s="11"/>
-      <c r="AFW2" s="11"/>
-      <c r="AFX2" s="11"/>
-      <c r="AFY2" s="11"/>
-      <c r="AFZ2" s="11"/>
-      <c r="AGA2" s="11"/>
-      <c r="AGB2" s="11"/>
-      <c r="AGC2" s="11"/>
-      <c r="AGD2" s="11"/>
-      <c r="AGE2" s="11"/>
-      <c r="AGF2" s="11"/>
-      <c r="AGG2" s="11"/>
-      <c r="AGH2" s="11"/>
-      <c r="AGI2" s="11"/>
-      <c r="AGJ2" s="11"/>
-      <c r="AGK2" s="11"/>
-      <c r="AGL2" s="11"/>
-      <c r="AGM2" s="11"/>
-      <c r="AGN2" s="11"/>
-      <c r="AGO2" s="11"/>
-      <c r="AGP2" s="11"/>
-      <c r="AGQ2" s="11"/>
-      <c r="AGR2" s="11"/>
-      <c r="AGS2" s="11"/>
-      <c r="AGT2" s="11"/>
-      <c r="AGU2" s="11"/>
-      <c r="AGV2" s="11"/>
-      <c r="AGW2" s="11"/>
-      <c r="AGX2" s="11"/>
-      <c r="AGY2" s="11"/>
-      <c r="AGZ2" s="11"/>
-      <c r="AHA2" s="11"/>
-      <c r="AHB2" s="11"/>
-      <c r="AHC2" s="11"/>
-      <c r="AHD2" s="11"/>
-      <c r="AHE2" s="11"/>
-      <c r="AHF2" s="11"/>
-      <c r="AHG2" s="11"/>
-      <c r="AHH2" s="11"/>
-      <c r="AHI2" s="11"/>
-      <c r="AHJ2" s="11"/>
-      <c r="AHK2" s="11"/>
-      <c r="AHL2" s="11"/>
-      <c r="AHM2" s="11"/>
-      <c r="AHN2" s="11"/>
-      <c r="AHO2" s="11"/>
-      <c r="AHP2" s="11"/>
-      <c r="AHQ2" s="11"/>
-      <c r="AHR2" s="11"/>
-      <c r="AHS2" s="11"/>
-      <c r="AHT2" s="11"/>
-      <c r="AHU2" s="11"/>
-      <c r="AHV2" s="11"/>
-      <c r="AHW2" s="11"/>
-      <c r="AHX2" s="11"/>
-      <c r="AHY2" s="11"/>
-      <c r="AHZ2" s="11"/>
-      <c r="AIA2" s="11"/>
-      <c r="AIB2" s="11"/>
-      <c r="AIC2" s="11"/>
-      <c r="AID2" s="11"/>
-      <c r="AIE2" s="11"/>
-      <c r="AIF2" s="11"/>
-      <c r="AIG2" s="11"/>
-      <c r="AIH2" s="11"/>
-      <c r="AII2" s="11"/>
-      <c r="AIJ2" s="11"/>
-      <c r="AIK2" s="11"/>
-      <c r="AIL2" s="11"/>
-      <c r="AIM2" s="11"/>
-      <c r="AIN2" s="11"/>
-      <c r="AIO2" s="11"/>
-      <c r="AIP2" s="11"/>
-      <c r="AIQ2" s="11"/>
-      <c r="AIR2" s="11"/>
-      <c r="AIS2" s="11"/>
-      <c r="AIT2" s="11"/>
-      <c r="AIU2" s="11"/>
-      <c r="AIV2" s="11"/>
-      <c r="AIW2" s="11"/>
-      <c r="AIX2" s="11"/>
-      <c r="AIY2" s="11"/>
-      <c r="AIZ2" s="11"/>
-      <c r="AJA2" s="11"/>
-      <c r="AJB2" s="11"/>
-      <c r="AJC2" s="11"/>
-      <c r="AJD2" s="11"/>
-      <c r="AJE2" s="11"/>
-      <c r="AJF2" s="11"/>
-      <c r="AJG2" s="11"/>
-      <c r="AJH2" s="11"/>
-      <c r="AJI2" s="11"/>
-      <c r="AJJ2" s="11"/>
-      <c r="AJK2" s="11"/>
-      <c r="AJL2" s="11"/>
-      <c r="AJM2" s="11"/>
-      <c r="AJN2" s="11"/>
-      <c r="AJO2" s="11"/>
-      <c r="AJP2" s="11"/>
-      <c r="AJQ2" s="11"/>
-      <c r="AJR2" s="11"/>
-      <c r="AJS2" s="11"/>
-      <c r="AJT2" s="11"/>
-      <c r="AJU2" s="11"/>
-      <c r="AJV2" s="11"/>
-      <c r="AJW2" s="11"/>
-      <c r="AJX2" s="11"/>
-      <c r="AJY2" s="11"/>
-      <c r="AJZ2" s="11"/>
-      <c r="AKA2" s="11"/>
-      <c r="AKB2" s="11"/>
-      <c r="AKC2" s="11"/>
-      <c r="AKD2" s="11"/>
-      <c r="AKE2" s="11"/>
-      <c r="AKF2" s="11"/>
-      <c r="AKG2" s="11"/>
-      <c r="AKH2" s="11"/>
-      <c r="AKI2" s="11"/>
-      <c r="AKJ2" s="11"/>
-      <c r="AKK2" s="11"/>
-      <c r="AKL2" s="11"/>
-      <c r="AKM2" s="11"/>
-      <c r="AKN2" s="11"/>
-      <c r="AKO2" s="11"/>
-      <c r="AKP2" s="11"/>
-      <c r="AKQ2" s="11"/>
-      <c r="AKR2" s="11"/>
-      <c r="AKS2" s="11"/>
-      <c r="AKT2" s="11"/>
-      <c r="AKU2" s="11"/>
-      <c r="AKV2" s="11"/>
-      <c r="AKW2" s="11"/>
-      <c r="AKX2" s="11"/>
-      <c r="AKY2" s="11"/>
-      <c r="AKZ2" s="11"/>
-      <c r="ALA2" s="11"/>
-      <c r="ALB2" s="11"/>
-      <c r="ALC2" s="11"/>
-      <c r="ALD2" s="11"/>
-      <c r="ALE2" s="11"/>
-      <c r="ALF2" s="11"/>
-      <c r="ALG2" s="11"/>
-      <c r="ALH2" s="11"/>
-      <c r="ALI2" s="11"/>
-      <c r="ALJ2" s="11"/>
-      <c r="ALK2" s="11"/>
-      <c r="ALL2" s="11"/>
-      <c r="ALM2" s="11"/>
-      <c r="ALN2" s="11"/>
-      <c r="ALO2" s="11"/>
-      <c r="ALP2" s="11"/>
-      <c r="ALQ2" s="11"/>
-      <c r="ALR2" s="11"/>
-      <c r="ALS2" s="11"/>
-      <c r="ALT2" s="11"/>
-      <c r="ALU2" s="11"/>
-      <c r="ALV2" s="11"/>
-      <c r="ALW2" s="11"/>
-      <c r="ALX2" s="11"/>
-      <c r="ALY2" s="11"/>
-      <c r="ALZ2" s="11"/>
-      <c r="AMA2" s="11"/>
-      <c r="AMB2" s="11"/>
-      <c r="AMC2" s="11"/>
-      <c r="AMD2" s="11"/>
-      <c r="AME2" s="11"/>
-      <c r="AMF2" s="11"/>
-      <c r="AMG2" s="11"/>
-      <c r="AMH2" s="11"/>
-      <c r="AMI2" s="11"/>
-      <c r="AMJ2" s="11"/>
-      <c r="AMK2" s="11"/>
+    <row r="2" s="2" customFormat="1" spans="1:1025">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
+      <c r="EY2" s="1"/>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1"/>
+      <c r="FB2" s="1"/>
+      <c r="FC2" s="1"/>
+      <c r="FD2" s="1"/>
+      <c r="FE2" s="1"/>
+      <c r="FF2" s="1"/>
+      <c r="FG2" s="1"/>
+      <c r="FH2" s="1"/>
+      <c r="FI2" s="1"/>
+      <c r="FJ2" s="1"/>
+      <c r="FK2" s="1"/>
+      <c r="FL2" s="1"/>
+      <c r="FM2" s="1"/>
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+      <c r="FZ2" s="1"/>
+      <c r="GA2" s="1"/>
+      <c r="GB2" s="1"/>
+      <c r="GC2" s="1"/>
+      <c r="GD2" s="1"/>
+      <c r="GE2" s="1"/>
+      <c r="GF2" s="1"/>
+      <c r="GG2" s="1"/>
+      <c r="GH2" s="1"/>
+      <c r="GI2" s="1"/>
+      <c r="GJ2" s="1"/>
+      <c r="GK2" s="1"/>
+      <c r="GL2" s="1"/>
+      <c r="GM2" s="1"/>
+      <c r="GN2" s="1"/>
+      <c r="GO2" s="1"/>
+      <c r="GP2" s="1"/>
+      <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
+      <c r="HM2" s="1"/>
+      <c r="HN2" s="1"/>
+      <c r="HO2" s="1"/>
+      <c r="HP2" s="1"/>
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="1"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+      <c r="HW2" s="1"/>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="1"/>
+      <c r="HZ2" s="1"/>
+      <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
+      <c r="ID2" s="1"/>
+      <c r="IE2" s="1"/>
+      <c r="IF2" s="1"/>
+      <c r="IG2" s="1"/>
+      <c r="IH2" s="1"/>
+      <c r="II2" s="1"/>
+      <c r="IJ2" s="1"/>
+      <c r="IK2" s="1"/>
+      <c r="IL2" s="1"/>
+      <c r="IM2" s="1"/>
+      <c r="IN2" s="1"/>
+      <c r="IO2" s="1"/>
+      <c r="IP2" s="1"/>
+      <c r="IQ2" s="1"/>
+      <c r="IR2" s="1"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
+      <c r="IU2" s="1"/>
+      <c r="IV2" s="1"/>
+      <c r="IW2" s="1"/>
+      <c r="IX2" s="1"/>
+      <c r="IY2" s="1"/>
+      <c r="IZ2" s="1"/>
+      <c r="JA2" s="1"/>
+      <c r="JB2" s="1"/>
+      <c r="JC2" s="1"/>
+      <c r="JD2" s="1"/>
+      <c r="JE2" s="1"/>
+      <c r="JF2" s="1"/>
+      <c r="JG2" s="1"/>
+      <c r="JH2" s="1"/>
+      <c r="JI2" s="1"/>
+      <c r="JJ2" s="1"/>
+      <c r="JK2" s="1"/>
+      <c r="JL2" s="1"/>
+      <c r="JM2" s="1"/>
+      <c r="JN2" s="1"/>
+      <c r="JO2" s="1"/>
+      <c r="JP2" s="1"/>
+      <c r="JQ2" s="1"/>
+      <c r="JR2" s="1"/>
+      <c r="JS2" s="1"/>
+      <c r="JT2" s="1"/>
+      <c r="JU2" s="1"/>
+      <c r="JV2" s="1"/>
+      <c r="JW2" s="1"/>
+      <c r="JX2" s="1"/>
+      <c r="JY2" s="1"/>
+      <c r="JZ2" s="1"/>
+      <c r="KA2" s="1"/>
+      <c r="KB2" s="1"/>
+      <c r="KC2" s="1"/>
+      <c r="KD2" s="1"/>
+      <c r="KE2" s="1"/>
+      <c r="KF2" s="1"/>
+      <c r="KG2" s="1"/>
+      <c r="KH2" s="1"/>
+      <c r="KI2" s="1"/>
+      <c r="KJ2" s="1"/>
+      <c r="KK2" s="1"/>
+      <c r="KL2" s="1"/>
+      <c r="KM2" s="1"/>
+      <c r="KN2" s="1"/>
+      <c r="KO2" s="1"/>
+      <c r="KP2" s="1"/>
+      <c r="KQ2" s="1"/>
+      <c r="KR2" s="1"/>
+      <c r="KS2" s="1"/>
+      <c r="KT2" s="1"/>
+      <c r="KU2" s="1"/>
+      <c r="KV2" s="1"/>
+      <c r="KW2" s="1"/>
+      <c r="KX2" s="1"/>
+      <c r="KY2" s="1"/>
+      <c r="KZ2" s="1"/>
+      <c r="LA2" s="1"/>
+      <c r="LB2" s="1"/>
+      <c r="LC2" s="1"/>
+      <c r="LD2" s="1"/>
+      <c r="LE2" s="1"/>
+      <c r="LF2" s="1"/>
+      <c r="LG2" s="1"/>
+      <c r="LH2" s="1"/>
+      <c r="LI2" s="1"/>
+      <c r="LJ2" s="1"/>
+      <c r="LK2" s="1"/>
+      <c r="LL2" s="1"/>
+      <c r="LM2" s="1"/>
+      <c r="LN2" s="1"/>
+      <c r="LO2" s="1"/>
+      <c r="LP2" s="1"/>
+      <c r="LQ2" s="1"/>
+      <c r="LR2" s="1"/>
+      <c r="LS2" s="1"/>
+      <c r="LT2" s="1"/>
+      <c r="LU2" s="1"/>
+      <c r="LV2" s="1"/>
+      <c r="LW2" s="1"/>
+      <c r="LX2" s="1"/>
+      <c r="LY2" s="1"/>
+      <c r="LZ2" s="1"/>
+      <c r="MA2" s="1"/>
+      <c r="MB2" s="1"/>
+      <c r="MC2" s="1"/>
+      <c r="MD2" s="1"/>
+      <c r="ME2" s="1"/>
+      <c r="MF2" s="1"/>
+      <c r="MG2" s="1"/>
+      <c r="MH2" s="1"/>
+      <c r="MI2" s="1"/>
+      <c r="MJ2" s="1"/>
+      <c r="MK2" s="1"/>
+      <c r="ML2" s="1"/>
+      <c r="MM2" s="1"/>
+      <c r="MN2" s="1"/>
+      <c r="MO2" s="1"/>
+      <c r="MP2" s="1"/>
+      <c r="MQ2" s="1"/>
+      <c r="MR2" s="1"/>
+      <c r="MS2" s="1"/>
+      <c r="MT2" s="1"/>
+      <c r="MU2" s="1"/>
+      <c r="MV2" s="1"/>
+      <c r="MW2" s="1"/>
+      <c r="MX2" s="1"/>
+      <c r="MY2" s="1"/>
+      <c r="MZ2" s="1"/>
+      <c r="NA2" s="1"/>
+      <c r="NB2" s="1"/>
+      <c r="NC2" s="1"/>
+      <c r="ND2" s="1"/>
+      <c r="NE2" s="1"/>
+      <c r="NF2" s="1"/>
+      <c r="NG2" s="1"/>
+      <c r="NH2" s="1"/>
+      <c r="NI2" s="1"/>
+      <c r="NJ2" s="1"/>
+      <c r="NK2" s="1"/>
+      <c r="NL2" s="1"/>
+      <c r="NM2" s="1"/>
+      <c r="NN2" s="1"/>
+      <c r="NO2" s="1"/>
+      <c r="NP2" s="1"/>
+      <c r="NQ2" s="1"/>
+      <c r="NR2" s="1"/>
+      <c r="NS2" s="1"/>
+      <c r="NT2" s="1"/>
+      <c r="NU2" s="1"/>
+      <c r="NV2" s="1"/>
+      <c r="NW2" s="1"/>
+      <c r="NX2" s="1"/>
+      <c r="NY2" s="1"/>
+      <c r="NZ2" s="1"/>
+      <c r="OA2" s="1"/>
+      <c r="OB2" s="1"/>
+      <c r="OC2" s="1"/>
+      <c r="OD2" s="1"/>
+      <c r="OE2" s="1"/>
+      <c r="OF2" s="1"/>
+      <c r="OG2" s="1"/>
+      <c r="OH2" s="1"/>
+      <c r="OI2" s="1"/>
+      <c r="OJ2" s="1"/>
+      <c r="OK2" s="1"/>
+      <c r="OL2" s="1"/>
+      <c r="OM2" s="1"/>
+      <c r="ON2" s="1"/>
+      <c r="OO2" s="1"/>
+      <c r="OP2" s="1"/>
+      <c r="OQ2" s="1"/>
+      <c r="OR2" s="1"/>
+      <c r="OS2" s="1"/>
+      <c r="OT2" s="1"/>
+      <c r="OU2" s="1"/>
+      <c r="OV2" s="1"/>
+      <c r="OW2" s="1"/>
+      <c r="OX2" s="1"/>
+      <c r="OY2" s="1"/>
+      <c r="OZ2" s="1"/>
+      <c r="PA2" s="1"/>
+      <c r="PB2" s="1"/>
+      <c r="PC2" s="1"/>
+      <c r="PD2" s="1"/>
+      <c r="PE2" s="1"/>
+      <c r="PF2" s="1"/>
+      <c r="PG2" s="1"/>
+      <c r="PH2" s="1"/>
+      <c r="PI2" s="1"/>
+      <c r="PJ2" s="1"/>
+      <c r="PK2" s="1"/>
+      <c r="PL2" s="1"/>
+      <c r="PM2" s="1"/>
+      <c r="PN2" s="1"/>
+      <c r="PO2" s="1"/>
+      <c r="PP2" s="1"/>
+      <c r="PQ2" s="1"/>
+      <c r="PR2" s="1"/>
+      <c r="PS2" s="1"/>
+      <c r="PT2" s="1"/>
+      <c r="PU2" s="1"/>
+      <c r="PV2" s="1"/>
+      <c r="PW2" s="1"/>
+      <c r="PX2" s="1"/>
+      <c r="PY2" s="1"/>
+      <c r="PZ2" s="1"/>
+      <c r="QA2" s="1"/>
+      <c r="QB2" s="1"/>
+      <c r="QC2" s="1"/>
+      <c r="QD2" s="1"/>
+      <c r="QE2" s="1"/>
+      <c r="QF2" s="1"/>
+      <c r="QG2" s="1"/>
+      <c r="QH2" s="1"/>
+      <c r="QI2" s="1"/>
+      <c r="QJ2" s="1"/>
+      <c r="QK2" s="1"/>
+      <c r="QL2" s="1"/>
+      <c r="QM2" s="1"/>
+      <c r="QN2" s="1"/>
+      <c r="QO2" s="1"/>
+      <c r="QP2" s="1"/>
+      <c r="QQ2" s="1"/>
+      <c r="QR2" s="1"/>
+      <c r="QS2" s="1"/>
+      <c r="QT2" s="1"/>
+      <c r="QU2" s="1"/>
+      <c r="QV2" s="1"/>
+      <c r="QW2" s="1"/>
+      <c r="QX2" s="1"/>
+      <c r="QY2" s="1"/>
+      <c r="QZ2" s="1"/>
+      <c r="RA2" s="1"/>
+      <c r="RB2" s="1"/>
+      <c r="RC2" s="1"/>
+      <c r="RD2" s="1"/>
+      <c r="RE2" s="1"/>
+      <c r="RF2" s="1"/>
+      <c r="RG2" s="1"/>
+      <c r="RH2" s="1"/>
+      <c r="RI2" s="1"/>
+      <c r="RJ2" s="1"/>
+      <c r="RK2" s="1"/>
+      <c r="RL2" s="1"/>
+      <c r="RM2" s="1"/>
+      <c r="RN2" s="1"/>
+      <c r="RO2" s="1"/>
+      <c r="RP2" s="1"/>
+      <c r="RQ2" s="1"/>
+      <c r="RR2" s="1"/>
+      <c r="RS2" s="1"/>
+      <c r="RT2" s="1"/>
+      <c r="RU2" s="1"/>
+      <c r="RV2" s="1"/>
+      <c r="RW2" s="1"/>
+      <c r="RX2" s="1"/>
+      <c r="RY2" s="1"/>
+      <c r="RZ2" s="1"/>
+      <c r="SA2" s="1"/>
+      <c r="SB2" s="1"/>
+      <c r="SC2" s="1"/>
+      <c r="SD2" s="1"/>
+      <c r="SE2" s="1"/>
+      <c r="SF2" s="1"/>
+      <c r="SG2" s="1"/>
+      <c r="SH2" s="1"/>
+      <c r="SI2" s="1"/>
+      <c r="SJ2" s="1"/>
+      <c r="SK2" s="1"/>
+      <c r="SL2" s="1"/>
+      <c r="SM2" s="1"/>
+      <c r="SN2" s="1"/>
+      <c r="SO2" s="1"/>
+      <c r="SP2" s="1"/>
+      <c r="SQ2" s="1"/>
+      <c r="SR2" s="1"/>
+      <c r="SS2" s="1"/>
+      <c r="ST2" s="1"/>
+      <c r="SU2" s="1"/>
+      <c r="SV2" s="1"/>
+      <c r="SW2" s="1"/>
+      <c r="SX2" s="1"/>
+      <c r="SY2" s="1"/>
+      <c r="SZ2" s="1"/>
+      <c r="TA2" s="1"/>
+      <c r="TB2" s="1"/>
+      <c r="TC2" s="1"/>
+      <c r="TD2" s="1"/>
+      <c r="TE2" s="1"/>
+      <c r="TF2" s="1"/>
+      <c r="TG2" s="1"/>
+      <c r="TH2" s="1"/>
+      <c r="TI2" s="1"/>
+      <c r="TJ2" s="1"/>
+      <c r="TK2" s="1"/>
+      <c r="TL2" s="1"/>
+      <c r="TM2" s="1"/>
+      <c r="TN2" s="1"/>
+      <c r="TO2" s="1"/>
+      <c r="TP2" s="1"/>
+      <c r="TQ2" s="1"/>
+      <c r="TR2" s="1"/>
+      <c r="TS2" s="1"/>
+      <c r="TT2" s="1"/>
+      <c r="TU2" s="1"/>
+      <c r="TV2" s="1"/>
+      <c r="TW2" s="1"/>
+      <c r="TX2" s="1"/>
+      <c r="TY2" s="1"/>
+      <c r="TZ2" s="1"/>
+      <c r="UA2" s="1"/>
+      <c r="UB2" s="1"/>
+      <c r="UC2" s="1"/>
+      <c r="UD2" s="1"/>
+      <c r="UE2" s="1"/>
+      <c r="UF2" s="1"/>
+      <c r="UG2" s="1"/>
+      <c r="UH2" s="1"/>
+      <c r="UI2" s="1"/>
+      <c r="UJ2" s="1"/>
+      <c r="UK2" s="1"/>
+      <c r="UL2" s="1"/>
+      <c r="UM2" s="1"/>
+      <c r="UN2" s="1"/>
+      <c r="UO2" s="1"/>
+      <c r="UP2" s="1"/>
+      <c r="UQ2" s="1"/>
+      <c r="UR2" s="1"/>
+      <c r="US2" s="1"/>
+      <c r="UT2" s="1"/>
+      <c r="UU2" s="1"/>
+      <c r="UV2" s="1"/>
+      <c r="UW2" s="1"/>
+      <c r="UX2" s="1"/>
+      <c r="UY2" s="1"/>
+      <c r="UZ2" s="1"/>
+      <c r="VA2" s="1"/>
+      <c r="VB2" s="1"/>
+      <c r="VC2" s="1"/>
+      <c r="VD2" s="1"/>
+      <c r="VE2" s="1"/>
+      <c r="VF2" s="1"/>
+      <c r="VG2" s="1"/>
+      <c r="VH2" s="1"/>
+      <c r="VI2" s="1"/>
+      <c r="VJ2" s="1"/>
+      <c r="VK2" s="1"/>
+      <c r="VL2" s="1"/>
+      <c r="VM2" s="1"/>
+      <c r="VN2" s="1"/>
+      <c r="VO2" s="1"/>
+      <c r="VP2" s="1"/>
+      <c r="VQ2" s="1"/>
+      <c r="VR2" s="1"/>
+      <c r="VS2" s="1"/>
+      <c r="VT2" s="1"/>
+      <c r="VU2" s="1"/>
+      <c r="VV2" s="1"/>
+      <c r="VW2" s="1"/>
+      <c r="VX2" s="1"/>
+      <c r="VY2" s="1"/>
+      <c r="VZ2" s="1"/>
+      <c r="WA2" s="1"/>
+      <c r="WB2" s="1"/>
+      <c r="WC2" s="1"/>
+      <c r="WD2" s="1"/>
+      <c r="WE2" s="1"/>
+      <c r="WF2" s="1"/>
+      <c r="WG2" s="1"/>
+      <c r="WH2" s="1"/>
+      <c r="WI2" s="1"/>
+      <c r="WJ2" s="1"/>
+      <c r="WK2" s="1"/>
+      <c r="WL2" s="1"/>
+      <c r="WM2" s="1"/>
+      <c r="WN2" s="1"/>
+      <c r="WO2" s="1"/>
+      <c r="WP2" s="1"/>
+      <c r="WQ2" s="1"/>
+      <c r="WR2" s="1"/>
+      <c r="WS2" s="1"/>
+      <c r="WT2" s="1"/>
+      <c r="WU2" s="1"/>
+      <c r="WV2" s="1"/>
+      <c r="WW2" s="1"/>
+      <c r="WX2" s="1"/>
+      <c r="WY2" s="1"/>
+      <c r="WZ2" s="1"/>
+      <c r="XA2" s="1"/>
+      <c r="XB2" s="1"/>
+      <c r="XC2" s="1"/>
+      <c r="XD2" s="1"/>
+      <c r="XE2" s="1"/>
+      <c r="XF2" s="1"/>
+      <c r="XG2" s="1"/>
+      <c r="XH2" s="1"/>
+      <c r="XI2" s="1"/>
+      <c r="XJ2" s="1"/>
+      <c r="XK2" s="1"/>
+      <c r="XL2" s="1"/>
+      <c r="XM2" s="1"/>
+      <c r="XN2" s="1"/>
+      <c r="XO2" s="1"/>
+      <c r="XP2" s="1"/>
+      <c r="XQ2" s="1"/>
+      <c r="XR2" s="1"/>
+      <c r="XS2" s="1"/>
+      <c r="XT2" s="1"/>
+      <c r="XU2" s="1"/>
+      <c r="XV2" s="1"/>
+      <c r="XW2" s="1"/>
+      <c r="XX2" s="1"/>
+      <c r="XY2" s="1"/>
+      <c r="XZ2" s="1"/>
+      <c r="YA2" s="1"/>
+      <c r="YB2" s="1"/>
+      <c r="YC2" s="1"/>
+      <c r="YD2" s="1"/>
+      <c r="YE2" s="1"/>
+      <c r="YF2" s="1"/>
+      <c r="YG2" s="1"/>
+      <c r="YH2" s="1"/>
+      <c r="YI2" s="1"/>
+      <c r="YJ2" s="1"/>
+      <c r="YK2" s="1"/>
+      <c r="YL2" s="1"/>
+      <c r="YM2" s="1"/>
+      <c r="YN2" s="1"/>
+      <c r="YO2" s="1"/>
+      <c r="YP2" s="1"/>
+      <c r="YQ2" s="1"/>
+      <c r="YR2" s="1"/>
+      <c r="YS2" s="1"/>
+      <c r="YT2" s="1"/>
+      <c r="YU2" s="1"/>
+      <c r="YV2" s="1"/>
+      <c r="YW2" s="1"/>
+      <c r="YX2" s="1"/>
+      <c r="YY2" s="1"/>
+      <c r="YZ2" s="1"/>
+      <c r="ZA2" s="1"/>
+      <c r="ZB2" s="1"/>
+      <c r="ZC2" s="1"/>
+      <c r="ZD2" s="1"/>
+      <c r="ZE2" s="1"/>
+      <c r="ZF2" s="1"/>
+      <c r="ZG2" s="1"/>
+      <c r="ZH2" s="1"/>
+      <c r="ZI2" s="1"/>
+      <c r="ZJ2" s="1"/>
+      <c r="ZK2" s="1"/>
+      <c r="ZL2" s="1"/>
+      <c r="ZM2" s="1"/>
+      <c r="ZN2" s="1"/>
+      <c r="ZO2" s="1"/>
+      <c r="ZP2" s="1"/>
+      <c r="ZQ2" s="1"/>
+      <c r="ZR2" s="1"/>
+      <c r="ZS2" s="1"/>
+      <c r="ZT2" s="1"/>
+      <c r="ZU2" s="1"/>
+      <c r="ZV2" s="1"/>
+      <c r="ZW2" s="1"/>
+      <c r="ZX2" s="1"/>
+      <c r="ZY2" s="1"/>
+      <c r="ZZ2" s="1"/>
+      <c r="AAA2" s="1"/>
+      <c r="AAB2" s="1"/>
+      <c r="AAC2" s="1"/>
+      <c r="AAD2" s="1"/>
+      <c r="AAE2" s="1"/>
+      <c r="AAF2" s="1"/>
+      <c r="AAG2" s="1"/>
+      <c r="AAH2" s="1"/>
+      <c r="AAI2" s="1"/>
+      <c r="AAJ2" s="1"/>
+      <c r="AAK2" s="1"/>
+      <c r="AAL2" s="1"/>
+      <c r="AAM2" s="1"/>
+      <c r="AAN2" s="1"/>
+      <c r="AAO2" s="1"/>
+      <c r="AAP2" s="1"/>
+      <c r="AAQ2" s="1"/>
+      <c r="AAR2" s="1"/>
+      <c r="AAS2" s="1"/>
+      <c r="AAT2" s="1"/>
+      <c r="AAU2" s="1"/>
+      <c r="AAV2" s="1"/>
+      <c r="AAW2" s="1"/>
+      <c r="AAX2" s="1"/>
+      <c r="AAY2" s="1"/>
+      <c r="AAZ2" s="1"/>
+      <c r="ABA2" s="1"/>
+      <c r="ABB2" s="1"/>
+      <c r="ABC2" s="1"/>
+      <c r="ABD2" s="1"/>
+      <c r="ABE2" s="1"/>
+      <c r="ABF2" s="1"/>
+      <c r="ABG2" s="1"/>
+      <c r="ABH2" s="1"/>
+      <c r="ABI2" s="1"/>
+      <c r="ABJ2" s="1"/>
+      <c r="ABK2" s="1"/>
+      <c r="ABL2" s="1"/>
+      <c r="ABM2" s="1"/>
+      <c r="ABN2" s="1"/>
+      <c r="ABO2" s="1"/>
+      <c r="ABP2" s="1"/>
+      <c r="ABQ2" s="1"/>
+      <c r="ABR2" s="1"/>
+      <c r="ABS2" s="1"/>
+      <c r="ABT2" s="1"/>
+      <c r="ABU2" s="1"/>
+      <c r="ABV2" s="1"/>
+      <c r="ABW2" s="1"/>
+      <c r="ABX2" s="1"/>
+      <c r="ABY2" s="1"/>
+      <c r="ABZ2" s="1"/>
+      <c r="ACA2" s="1"/>
+      <c r="ACB2" s="1"/>
+      <c r="ACC2" s="1"/>
+      <c r="ACD2" s="1"/>
+      <c r="ACE2" s="1"/>
+      <c r="ACF2" s="1"/>
+      <c r="ACG2" s="1"/>
+      <c r="ACH2" s="1"/>
+      <c r="ACI2" s="1"/>
+      <c r="ACJ2" s="1"/>
+      <c r="ACK2" s="1"/>
+      <c r="ACL2" s="1"/>
+      <c r="ACM2" s="1"/>
+      <c r="ACN2" s="1"/>
+      <c r="ACO2" s="1"/>
+      <c r="ACP2" s="1"/>
+      <c r="ACQ2" s="1"/>
+      <c r="ACR2" s="1"/>
+      <c r="ACS2" s="1"/>
+      <c r="ACT2" s="1"/>
+      <c r="ACU2" s="1"/>
+      <c r="ACV2" s="1"/>
+      <c r="ACW2" s="1"/>
+      <c r="ACX2" s="1"/>
+      <c r="ACY2" s="1"/>
+      <c r="ACZ2" s="1"/>
+      <c r="ADA2" s="1"/>
+      <c r="ADB2" s="1"/>
+      <c r="ADC2" s="1"/>
+      <c r="ADD2" s="1"/>
+      <c r="ADE2" s="1"/>
+      <c r="ADF2" s="1"/>
+      <c r="ADG2" s="1"/>
+      <c r="ADH2" s="1"/>
+      <c r="ADI2" s="1"/>
+      <c r="ADJ2" s="1"/>
+      <c r="ADK2" s="1"/>
+      <c r="ADL2" s="1"/>
+      <c r="ADM2" s="1"/>
+      <c r="ADN2" s="1"/>
+      <c r="ADO2" s="1"/>
+      <c r="ADP2" s="1"/>
+      <c r="ADQ2" s="1"/>
+      <c r="ADR2" s="1"/>
+      <c r="ADS2" s="1"/>
+      <c r="ADT2" s="1"/>
+      <c r="ADU2" s="1"/>
+      <c r="ADV2" s="1"/>
+      <c r="ADW2" s="1"/>
+      <c r="ADX2" s="1"/>
+      <c r="ADY2" s="1"/>
+      <c r="ADZ2" s="1"/>
+      <c r="AEA2" s="1"/>
+      <c r="AEB2" s="1"/>
+      <c r="AEC2" s="1"/>
+      <c r="AED2" s="1"/>
+      <c r="AEE2" s="1"/>
+      <c r="AEF2" s="1"/>
+      <c r="AEG2" s="1"/>
+      <c r="AEH2" s="1"/>
+      <c r="AEI2" s="1"/>
+      <c r="AEJ2" s="1"/>
+      <c r="AEK2" s="1"/>
+      <c r="AEL2" s="1"/>
+      <c r="AEM2" s="1"/>
+      <c r="AEN2" s="1"/>
+      <c r="AEO2" s="1"/>
+      <c r="AEP2" s="1"/>
+      <c r="AEQ2" s="1"/>
+      <c r="AER2" s="1"/>
+      <c r="AES2" s="1"/>
+      <c r="AET2" s="1"/>
+      <c r="AEU2" s="1"/>
+      <c r="AEV2" s="1"/>
+      <c r="AEW2" s="1"/>
+      <c r="AEX2" s="1"/>
+      <c r="AEY2" s="1"/>
+      <c r="AEZ2" s="1"/>
+      <c r="AFA2" s="1"/>
+      <c r="AFB2" s="1"/>
+      <c r="AFC2" s="1"/>
+      <c r="AFD2" s="1"/>
+      <c r="AFE2" s="1"/>
+      <c r="AFF2" s="1"/>
+      <c r="AFG2" s="1"/>
+      <c r="AFH2" s="1"/>
+      <c r="AFI2" s="1"/>
+      <c r="AFJ2" s="1"/>
+      <c r="AFK2" s="1"/>
+      <c r="AFL2" s="1"/>
+      <c r="AFM2" s="1"/>
+      <c r="AFN2" s="1"/>
+      <c r="AFO2" s="1"/>
+      <c r="AFP2" s="1"/>
+      <c r="AFQ2" s="1"/>
+      <c r="AFR2" s="1"/>
+      <c r="AFS2" s="1"/>
+      <c r="AFT2" s="1"/>
+      <c r="AFU2" s="1"/>
+      <c r="AFV2" s="1"/>
+      <c r="AFW2" s="1"/>
+      <c r="AFX2" s="1"/>
+      <c r="AFY2" s="1"/>
+      <c r="AFZ2" s="1"/>
+      <c r="AGA2" s="1"/>
+      <c r="AGB2" s="1"/>
+      <c r="AGC2" s="1"/>
+      <c r="AGD2" s="1"/>
+      <c r="AGE2" s="1"/>
+      <c r="AGF2" s="1"/>
+      <c r="AGG2" s="1"/>
+      <c r="AGH2" s="1"/>
+      <c r="AGI2" s="1"/>
+      <c r="AGJ2" s="1"/>
+      <c r="AGK2" s="1"/>
+      <c r="AGL2" s="1"/>
+      <c r="AGM2" s="1"/>
+      <c r="AGN2" s="1"/>
+      <c r="AGO2" s="1"/>
+      <c r="AGP2" s="1"/>
+      <c r="AGQ2" s="1"/>
+      <c r="AGR2" s="1"/>
+      <c r="AGS2" s="1"/>
+      <c r="AGT2" s="1"/>
+      <c r="AGU2" s="1"/>
+      <c r="AGV2" s="1"/>
+      <c r="AGW2" s="1"/>
+      <c r="AGX2" s="1"/>
+      <c r="AGY2" s="1"/>
+      <c r="AGZ2" s="1"/>
+      <c r="AHA2" s="1"/>
+      <c r="AHB2" s="1"/>
+      <c r="AHC2" s="1"/>
+      <c r="AHD2" s="1"/>
+      <c r="AHE2" s="1"/>
+      <c r="AHF2" s="1"/>
+      <c r="AHG2" s="1"/>
+      <c r="AHH2" s="1"/>
+      <c r="AHI2" s="1"/>
+      <c r="AHJ2" s="1"/>
+      <c r="AHK2" s="1"/>
+      <c r="AHL2" s="1"/>
+      <c r="AHM2" s="1"/>
+      <c r="AHN2" s="1"/>
+      <c r="AHO2" s="1"/>
+      <c r="AHP2" s="1"/>
+      <c r="AHQ2" s="1"/>
+      <c r="AHR2" s="1"/>
+      <c r="AHS2" s="1"/>
+      <c r="AHT2" s="1"/>
+      <c r="AHU2" s="1"/>
+      <c r="AHV2" s="1"/>
+      <c r="AHW2" s="1"/>
+      <c r="AHX2" s="1"/>
+      <c r="AHY2" s="1"/>
+      <c r="AHZ2" s="1"/>
+      <c r="AIA2" s="1"/>
+      <c r="AIB2" s="1"/>
+      <c r="AIC2" s="1"/>
+      <c r="AID2" s="1"/>
+      <c r="AIE2" s="1"/>
+      <c r="AIF2" s="1"/>
+      <c r="AIG2" s="1"/>
+      <c r="AIH2" s="1"/>
+      <c r="AII2" s="1"/>
+      <c r="AIJ2" s="1"/>
+      <c r="AIK2" s="1"/>
+      <c r="AIL2" s="1"/>
+      <c r="AIM2" s="1"/>
+      <c r="AIN2" s="1"/>
+      <c r="AIO2" s="1"/>
+      <c r="AIP2" s="1"/>
+      <c r="AIQ2" s="1"/>
+      <c r="AIR2" s="1"/>
+      <c r="AIS2" s="1"/>
+      <c r="AIT2" s="1"/>
+      <c r="AIU2" s="1"/>
+      <c r="AIV2" s="1"/>
+      <c r="AIW2" s="1"/>
+      <c r="AIX2" s="1"/>
+      <c r="AIY2" s="1"/>
+      <c r="AIZ2" s="1"/>
+      <c r="AJA2" s="1"/>
+      <c r="AJB2" s="1"/>
+      <c r="AJC2" s="1"/>
+      <c r="AJD2" s="1"/>
+      <c r="AJE2" s="1"/>
+      <c r="AJF2" s="1"/>
+      <c r="AJG2" s="1"/>
+      <c r="AJH2" s="1"/>
+      <c r="AJI2" s="1"/>
+      <c r="AJJ2" s="1"/>
+      <c r="AJK2" s="1"/>
+      <c r="AJL2" s="1"/>
+      <c r="AJM2" s="1"/>
+      <c r="AJN2" s="1"/>
+      <c r="AJO2" s="1"/>
+      <c r="AJP2" s="1"/>
+      <c r="AJQ2" s="1"/>
+      <c r="AJR2" s="1"/>
+      <c r="AJS2" s="1"/>
+      <c r="AJT2" s="1"/>
+      <c r="AJU2" s="1"/>
+      <c r="AJV2" s="1"/>
+      <c r="AJW2" s="1"/>
+      <c r="AJX2" s="1"/>
+      <c r="AJY2" s="1"/>
+      <c r="AJZ2" s="1"/>
+      <c r="AKA2" s="1"/>
+      <c r="AKB2" s="1"/>
+      <c r="AKC2" s="1"/>
+      <c r="AKD2" s="1"/>
+      <c r="AKE2" s="1"/>
+      <c r="AKF2" s="1"/>
+      <c r="AKG2" s="1"/>
+      <c r="AKH2" s="1"/>
+      <c r="AKI2" s="1"/>
+      <c r="AKJ2" s="1"/>
+      <c r="AKK2" s="1"/>
+      <c r="AKL2" s="1"/>
+      <c r="AKM2" s="1"/>
+      <c r="AKN2" s="1"/>
+      <c r="AKO2" s="1"/>
+      <c r="AKP2" s="1"/>
+      <c r="AKQ2" s="1"/>
+      <c r="AKR2" s="1"/>
+      <c r="AKS2" s="1"/>
+      <c r="AKT2" s="1"/>
+      <c r="AKU2" s="1"/>
+      <c r="AKV2" s="1"/>
+      <c r="AKW2" s="1"/>
+      <c r="AKX2" s="1"/>
+      <c r="AKY2" s="1"/>
+      <c r="AKZ2" s="1"/>
+      <c r="ALA2" s="1"/>
+      <c r="ALB2" s="1"/>
+      <c r="ALC2" s="1"/>
+      <c r="ALD2" s="1"/>
+      <c r="ALE2" s="1"/>
+      <c r="ALF2" s="1"/>
+      <c r="ALG2" s="1"/>
+      <c r="ALH2" s="1"/>
+      <c r="ALI2" s="1"/>
+      <c r="ALJ2" s="1"/>
+      <c r="ALK2" s="1"/>
+      <c r="ALL2" s="1"/>
+      <c r="ALM2" s="1"/>
+      <c r="ALN2" s="1"/>
+      <c r="ALO2" s="1"/>
+      <c r="ALP2" s="1"/>
+      <c r="ALQ2" s="1"/>
+      <c r="ALR2" s="1"/>
+      <c r="ALS2" s="1"/>
+      <c r="ALT2" s="1"/>
+      <c r="ALU2" s="1"/>
+      <c r="ALV2" s="1"/>
+      <c r="ALW2" s="1"/>
+      <c r="ALX2" s="1"/>
+      <c r="ALY2" s="1"/>
+      <c r="ALZ2" s="1"/>
+      <c r="AMA2" s="1"/>
+      <c r="AMB2" s="1"/>
+      <c r="AMC2" s="1"/>
+      <c r="AMD2" s="1"/>
+      <c r="AME2" s="1"/>
+      <c r="AMF2" s="1"/>
+      <c r="AMG2" s="1"/>
+      <c r="AMH2" s="1"/>
+      <c r="AMI2" s="1"/>
+      <c r="AMJ2" s="1"/>
+      <c r="AMK2" s="1"/>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="13"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="3:26">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="9" spans="3:26">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="3:26">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="12:12">
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="3:26">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="Z15" s="11" t="s">
+      <c r="D15" s="4"/>
+      <c r="Z15" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="4:23">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="15"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="15"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="3:26">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="Z18" s="11" t="s">
+      <c r="D18" s="4"/>
+      <c r="Z18" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="27:27">
-      <c r="AA20" s="10"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="3:26">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="Z21" s="11" t="s">
+      <c r="D21" s="6"/>
+      <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="15"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="13"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="Z24" s="11" t="s">
+      <c r="D24" s="4"/>
+      <c r="Z24" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="1" spans="1:1025">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="11"/>
-      <c r="BR26" s="11"/>
-      <c r="BS26" s="11"/>
-      <c r="BT26" s="11"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-      <c r="BX26" s="11"/>
-      <c r="BY26" s="11"/>
-      <c r="BZ26" s="11"/>
-      <c r="CA26" s="11"/>
-      <c r="CB26" s="11"/>
-      <c r="CC26" s="11"/>
-      <c r="CD26" s="11"/>
-      <c r="CE26" s="11"/>
-      <c r="CF26" s="11"/>
-      <c r="CG26" s="11"/>
-      <c r="CH26" s="11"/>
-      <c r="CI26" s="11"/>
-      <c r="CJ26" s="11"/>
-      <c r="CK26" s="11"/>
-      <c r="CL26" s="11"/>
-      <c r="CM26" s="11"/>
-      <c r="CN26" s="11"/>
-      <c r="CO26" s="11"/>
-      <c r="CP26" s="11"/>
-      <c r="CQ26" s="11"/>
-      <c r="CR26" s="11"/>
-      <c r="CS26" s="11"/>
-      <c r="CT26" s="11"/>
-      <c r="CU26" s="11"/>
-      <c r="CV26" s="11"/>
-      <c r="CW26" s="11"/>
-      <c r="CX26" s="11"/>
-      <c r="CY26" s="11"/>
-      <c r="CZ26" s="11"/>
-      <c r="DA26" s="11"/>
-      <c r="DB26" s="11"/>
-      <c r="DC26" s="11"/>
-      <c r="DD26" s="11"/>
-      <c r="DE26" s="11"/>
-      <c r="DF26" s="11"/>
-      <c r="DG26" s="11"/>
-      <c r="DH26" s="11"/>
-      <c r="DI26" s="11"/>
-      <c r="DJ26" s="11"/>
-      <c r="DK26" s="11"/>
-      <c r="DL26" s="11"/>
-      <c r="DM26" s="11"/>
-      <c r="DN26" s="11"/>
-      <c r="DO26" s="11"/>
-      <c r="DP26" s="11"/>
-      <c r="DQ26" s="11"/>
-      <c r="DR26" s="11"/>
-      <c r="DS26" s="11"/>
-      <c r="DT26" s="11"/>
-      <c r="DU26" s="11"/>
-      <c r="DV26" s="11"/>
-      <c r="DW26" s="11"/>
-      <c r="DX26" s="11"/>
-      <c r="DY26" s="11"/>
-      <c r="DZ26" s="11"/>
-      <c r="EA26" s="11"/>
-      <c r="EB26" s="11"/>
-      <c r="EC26" s="11"/>
-      <c r="ED26" s="11"/>
-      <c r="EE26" s="11"/>
-      <c r="EF26" s="11"/>
-      <c r="EG26" s="11"/>
-      <c r="EH26" s="11"/>
-      <c r="EI26" s="11"/>
-      <c r="EJ26" s="11"/>
-      <c r="EK26" s="11"/>
-      <c r="EL26" s="11"/>
-      <c r="EM26" s="11"/>
-      <c r="EN26" s="11"/>
-      <c r="EO26" s="11"/>
-      <c r="EP26" s="11"/>
-      <c r="EQ26" s="11"/>
-      <c r="ER26" s="11"/>
-      <c r="ES26" s="11"/>
-      <c r="ET26" s="11"/>
-      <c r="EU26" s="11"/>
-      <c r="EV26" s="11"/>
-      <c r="EW26" s="11"/>
-      <c r="EX26" s="11"/>
-      <c r="EY26" s="11"/>
-      <c r="EZ26" s="11"/>
-      <c r="FA26" s="11"/>
-      <c r="FB26" s="11"/>
-      <c r="FC26" s="11"/>
-      <c r="FD26" s="11"/>
-      <c r="FE26" s="11"/>
-      <c r="FF26" s="11"/>
-      <c r="FG26" s="11"/>
-      <c r="FH26" s="11"/>
-      <c r="FI26" s="11"/>
-      <c r="FJ26" s="11"/>
-      <c r="FK26" s="11"/>
-      <c r="FL26" s="11"/>
-      <c r="FM26" s="11"/>
-      <c r="FN26" s="11"/>
-      <c r="FO26" s="11"/>
-      <c r="FP26" s="11"/>
-      <c r="FQ26" s="11"/>
-      <c r="FR26" s="11"/>
-      <c r="FS26" s="11"/>
-      <c r="FT26" s="11"/>
-      <c r="FU26" s="11"/>
-      <c r="FV26" s="11"/>
-      <c r="FW26" s="11"/>
-      <c r="FX26" s="11"/>
-      <c r="FY26" s="11"/>
-      <c r="FZ26" s="11"/>
-      <c r="GA26" s="11"/>
-      <c r="GB26" s="11"/>
-      <c r="GC26" s="11"/>
-      <c r="GD26" s="11"/>
-      <c r="GE26" s="11"/>
-      <c r="GF26" s="11"/>
-      <c r="GG26" s="11"/>
-      <c r="GH26" s="11"/>
-      <c r="GI26" s="11"/>
-      <c r="GJ26" s="11"/>
-      <c r="GK26" s="11"/>
-      <c r="GL26" s="11"/>
-      <c r="GM26" s="11"/>
-      <c r="GN26" s="11"/>
-      <c r="GO26" s="11"/>
-      <c r="GP26" s="11"/>
-      <c r="GQ26" s="11"/>
-      <c r="GR26" s="11"/>
-      <c r="GS26" s="11"/>
-      <c r="GT26" s="11"/>
-      <c r="GU26" s="11"/>
-      <c r="GV26" s="11"/>
-      <c r="GW26" s="11"/>
-      <c r="GX26" s="11"/>
-      <c r="GY26" s="11"/>
-      <c r="GZ26" s="11"/>
-      <c r="HA26" s="11"/>
-      <c r="HB26" s="11"/>
-      <c r="HC26" s="11"/>
-      <c r="HD26" s="11"/>
-      <c r="HE26" s="11"/>
-      <c r="HF26" s="11"/>
-      <c r="HG26" s="11"/>
-      <c r="HH26" s="11"/>
-      <c r="HI26" s="11"/>
-      <c r="HJ26" s="11"/>
-      <c r="HK26" s="11"/>
-      <c r="HL26" s="11"/>
-      <c r="HM26" s="11"/>
-      <c r="HN26" s="11"/>
-      <c r="HO26" s="11"/>
-      <c r="HP26" s="11"/>
-      <c r="HQ26" s="11"/>
-      <c r="HR26" s="11"/>
-      <c r="HS26" s="11"/>
-      <c r="HT26" s="11"/>
-      <c r="HU26" s="11"/>
-      <c r="HV26" s="11"/>
-      <c r="HW26" s="11"/>
-      <c r="HX26" s="11"/>
-      <c r="HY26" s="11"/>
-      <c r="HZ26" s="11"/>
-      <c r="IA26" s="11"/>
-      <c r="IB26" s="11"/>
-      <c r="IC26" s="11"/>
-      <c r="ID26" s="11"/>
-      <c r="IE26" s="11"/>
-      <c r="IF26" s="11"/>
-      <c r="IG26" s="11"/>
-      <c r="IH26" s="11"/>
-      <c r="II26" s="11"/>
-      <c r="IJ26" s="11"/>
-      <c r="IK26" s="11"/>
-      <c r="IL26" s="11"/>
-      <c r="IM26" s="11"/>
-      <c r="IN26" s="11"/>
-      <c r="IO26" s="11"/>
-      <c r="IP26" s="11"/>
-      <c r="IQ26" s="11"/>
-      <c r="IR26" s="11"/>
-      <c r="IS26" s="11"/>
-      <c r="IT26" s="11"/>
-      <c r="IU26" s="11"/>
-      <c r="IV26" s="11"/>
-      <c r="IW26" s="11"/>
-      <c r="IX26" s="11"/>
-      <c r="IY26" s="11"/>
-      <c r="IZ26" s="11"/>
-      <c r="JA26" s="11"/>
-      <c r="JB26" s="11"/>
-      <c r="JC26" s="11"/>
-      <c r="JD26" s="11"/>
-      <c r="JE26" s="11"/>
-      <c r="JF26" s="11"/>
-      <c r="JG26" s="11"/>
-      <c r="JH26" s="11"/>
-      <c r="JI26" s="11"/>
-      <c r="JJ26" s="11"/>
-      <c r="JK26" s="11"/>
-      <c r="JL26" s="11"/>
-      <c r="JM26" s="11"/>
-      <c r="JN26" s="11"/>
-      <c r="JO26" s="11"/>
-      <c r="JP26" s="11"/>
-      <c r="JQ26" s="11"/>
-      <c r="JR26" s="11"/>
-      <c r="JS26" s="11"/>
-      <c r="JT26" s="11"/>
-      <c r="JU26" s="11"/>
-      <c r="JV26" s="11"/>
-      <c r="JW26" s="11"/>
-      <c r="JX26" s="11"/>
-      <c r="JY26" s="11"/>
-      <c r="JZ26" s="11"/>
-      <c r="KA26" s="11"/>
-      <c r="KB26" s="11"/>
-      <c r="KC26" s="11"/>
-      <c r="KD26" s="11"/>
-      <c r="KE26" s="11"/>
-      <c r="KF26" s="11"/>
-      <c r="KG26" s="11"/>
-      <c r="KH26" s="11"/>
-      <c r="KI26" s="11"/>
-      <c r="KJ26" s="11"/>
-      <c r="KK26" s="11"/>
-      <c r="KL26" s="11"/>
-      <c r="KM26" s="11"/>
-      <c r="KN26" s="11"/>
-      <c r="KO26" s="11"/>
-      <c r="KP26" s="11"/>
-      <c r="KQ26" s="11"/>
-      <c r="KR26" s="11"/>
-      <c r="KS26" s="11"/>
-      <c r="KT26" s="11"/>
-      <c r="KU26" s="11"/>
-      <c r="KV26" s="11"/>
-      <c r="KW26" s="11"/>
-      <c r="KX26" s="11"/>
-      <c r="KY26" s="11"/>
-      <c r="KZ26" s="11"/>
-      <c r="LA26" s="11"/>
-      <c r="LB26" s="11"/>
-      <c r="LC26" s="11"/>
-      <c r="LD26" s="11"/>
-      <c r="LE26" s="11"/>
-      <c r="LF26" s="11"/>
-      <c r="LG26" s="11"/>
-      <c r="LH26" s="11"/>
-      <c r="LI26" s="11"/>
-      <c r="LJ26" s="11"/>
-      <c r="LK26" s="11"/>
-      <c r="LL26" s="11"/>
-      <c r="LM26" s="11"/>
-      <c r="LN26" s="11"/>
-      <c r="LO26" s="11"/>
-      <c r="LP26" s="11"/>
-      <c r="LQ26" s="11"/>
-      <c r="LR26" s="11"/>
-      <c r="LS26" s="11"/>
-      <c r="LT26" s="11"/>
-      <c r="LU26" s="11"/>
-      <c r="LV26" s="11"/>
-      <c r="LW26" s="11"/>
-      <c r="LX26" s="11"/>
-      <c r="LY26" s="11"/>
-      <c r="LZ26" s="11"/>
-      <c r="MA26" s="11"/>
-      <c r="MB26" s="11"/>
-      <c r="MC26" s="11"/>
-      <c r="MD26" s="11"/>
-      <c r="ME26" s="11"/>
-      <c r="MF26" s="11"/>
-      <c r="MG26" s="11"/>
-      <c r="MH26" s="11"/>
-      <c r="MI26" s="11"/>
-      <c r="MJ26" s="11"/>
-      <c r="MK26" s="11"/>
-      <c r="ML26" s="11"/>
-      <c r="MM26" s="11"/>
-      <c r="MN26" s="11"/>
-      <c r="MO26" s="11"/>
-      <c r="MP26" s="11"/>
-      <c r="MQ26" s="11"/>
-      <c r="MR26" s="11"/>
-      <c r="MS26" s="11"/>
-      <c r="MT26" s="11"/>
-      <c r="MU26" s="11"/>
-      <c r="MV26" s="11"/>
-      <c r="MW26" s="11"/>
-      <c r="MX26" s="11"/>
-      <c r="MY26" s="11"/>
-      <c r="MZ26" s="11"/>
-      <c r="NA26" s="11"/>
-      <c r="NB26" s="11"/>
-      <c r="NC26" s="11"/>
-      <c r="ND26" s="11"/>
-      <c r="NE26" s="11"/>
-      <c r="NF26" s="11"/>
-      <c r="NG26" s="11"/>
-      <c r="NH26" s="11"/>
-      <c r="NI26" s="11"/>
-      <c r="NJ26" s="11"/>
-      <c r="NK26" s="11"/>
-      <c r="NL26" s="11"/>
-      <c r="NM26" s="11"/>
-      <c r="NN26" s="11"/>
-      <c r="NO26" s="11"/>
-      <c r="NP26" s="11"/>
-      <c r="NQ26" s="11"/>
-      <c r="NR26" s="11"/>
-      <c r="NS26" s="11"/>
-      <c r="NT26" s="11"/>
-      <c r="NU26" s="11"/>
-      <c r="NV26" s="11"/>
-      <c r="NW26" s="11"/>
-      <c r="NX26" s="11"/>
-      <c r="NY26" s="11"/>
-      <c r="NZ26" s="11"/>
-      <c r="OA26" s="11"/>
-      <c r="OB26" s="11"/>
-      <c r="OC26" s="11"/>
-      <c r="OD26" s="11"/>
-      <c r="OE26" s="11"/>
-      <c r="OF26" s="11"/>
-      <c r="OG26" s="11"/>
-      <c r="OH26" s="11"/>
-      <c r="OI26" s="11"/>
-      <c r="OJ26" s="11"/>
-      <c r="OK26" s="11"/>
-      <c r="OL26" s="11"/>
-      <c r="OM26" s="11"/>
-      <c r="ON26" s="11"/>
-      <c r="OO26" s="11"/>
-      <c r="OP26" s="11"/>
-      <c r="OQ26" s="11"/>
-      <c r="OR26" s="11"/>
-      <c r="OS26" s="11"/>
-      <c r="OT26" s="11"/>
-      <c r="OU26" s="11"/>
-      <c r="OV26" s="11"/>
-      <c r="OW26" s="11"/>
-      <c r="OX26" s="11"/>
-      <c r="OY26" s="11"/>
-      <c r="OZ26" s="11"/>
-      <c r="PA26" s="11"/>
-      <c r="PB26" s="11"/>
-      <c r="PC26" s="11"/>
-      <c r="PD26" s="11"/>
-      <c r="PE26" s="11"/>
-      <c r="PF26" s="11"/>
-      <c r="PG26" s="11"/>
-      <c r="PH26" s="11"/>
-      <c r="PI26" s="11"/>
-      <c r="PJ26" s="11"/>
-      <c r="PK26" s="11"/>
-      <c r="PL26" s="11"/>
-      <c r="PM26" s="11"/>
-      <c r="PN26" s="11"/>
-      <c r="PO26" s="11"/>
-      <c r="PP26" s="11"/>
-      <c r="PQ26" s="11"/>
-      <c r="PR26" s="11"/>
-      <c r="PS26" s="11"/>
-      <c r="PT26" s="11"/>
-      <c r="PU26" s="11"/>
-      <c r="PV26" s="11"/>
-      <c r="PW26" s="11"/>
-      <c r="PX26" s="11"/>
-      <c r="PY26" s="11"/>
-      <c r="PZ26" s="11"/>
-      <c r="QA26" s="11"/>
-      <c r="QB26" s="11"/>
-      <c r="QC26" s="11"/>
-      <c r="QD26" s="11"/>
-      <c r="QE26" s="11"/>
-      <c r="QF26" s="11"/>
-      <c r="QG26" s="11"/>
-      <c r="QH26" s="11"/>
-      <c r="QI26" s="11"/>
-      <c r="QJ26" s="11"/>
-      <c r="QK26" s="11"/>
-      <c r="QL26" s="11"/>
-      <c r="QM26" s="11"/>
-      <c r="QN26" s="11"/>
-      <c r="QO26" s="11"/>
-      <c r="QP26" s="11"/>
-      <c r="QQ26" s="11"/>
-      <c r="QR26" s="11"/>
-      <c r="QS26" s="11"/>
-      <c r="QT26" s="11"/>
-      <c r="QU26" s="11"/>
-      <c r="QV26" s="11"/>
-      <c r="QW26" s="11"/>
-      <c r="QX26" s="11"/>
-      <c r="QY26" s="11"/>
-      <c r="QZ26" s="11"/>
-      <c r="RA26" s="11"/>
-      <c r="RB26" s="11"/>
-      <c r="RC26" s="11"/>
-      <c r="RD26" s="11"/>
-      <c r="RE26" s="11"/>
-      <c r="RF26" s="11"/>
-      <c r="RG26" s="11"/>
-      <c r="RH26" s="11"/>
-      <c r="RI26" s="11"/>
-      <c r="RJ26" s="11"/>
-      <c r="RK26" s="11"/>
-      <c r="RL26" s="11"/>
-      <c r="RM26" s="11"/>
-      <c r="RN26" s="11"/>
-      <c r="RO26" s="11"/>
-      <c r="RP26" s="11"/>
-      <c r="RQ26" s="11"/>
-      <c r="RR26" s="11"/>
-      <c r="RS26" s="11"/>
-      <c r="RT26" s="11"/>
-      <c r="RU26" s="11"/>
-      <c r="RV26" s="11"/>
-      <c r="RW26" s="11"/>
-      <c r="RX26" s="11"/>
-      <c r="RY26" s="11"/>
-      <c r="RZ26" s="11"/>
-      <c r="SA26" s="11"/>
-      <c r="SB26" s="11"/>
-      <c r="SC26" s="11"/>
-      <c r="SD26" s="11"/>
-      <c r="SE26" s="11"/>
-      <c r="SF26" s="11"/>
-      <c r="SG26" s="11"/>
-      <c r="SH26" s="11"/>
-      <c r="SI26" s="11"/>
-      <c r="SJ26" s="11"/>
-      <c r="SK26" s="11"/>
-      <c r="SL26" s="11"/>
-      <c r="SM26" s="11"/>
-      <c r="SN26" s="11"/>
-      <c r="SO26" s="11"/>
-      <c r="SP26" s="11"/>
-      <c r="SQ26" s="11"/>
-      <c r="SR26" s="11"/>
-      <c r="SS26" s="11"/>
-      <c r="ST26" s="11"/>
-      <c r="SU26" s="11"/>
-      <c r="SV26" s="11"/>
-      <c r="SW26" s="11"/>
-      <c r="SX26" s="11"/>
-      <c r="SY26" s="11"/>
-      <c r="SZ26" s="11"/>
-      <c r="TA26" s="11"/>
-      <c r="TB26" s="11"/>
-      <c r="TC26" s="11"/>
-      <c r="TD26" s="11"/>
-      <c r="TE26" s="11"/>
-      <c r="TF26" s="11"/>
-      <c r="TG26" s="11"/>
-      <c r="TH26" s="11"/>
-      <c r="TI26" s="11"/>
-      <c r="TJ26" s="11"/>
-      <c r="TK26" s="11"/>
-      <c r="TL26" s="11"/>
-      <c r="TM26" s="11"/>
-      <c r="TN26" s="11"/>
-      <c r="TO26" s="11"/>
-      <c r="TP26" s="11"/>
-      <c r="TQ26" s="11"/>
-      <c r="TR26" s="11"/>
-      <c r="TS26" s="11"/>
-      <c r="TT26" s="11"/>
-      <c r="TU26" s="11"/>
-      <c r="TV26" s="11"/>
-      <c r="TW26" s="11"/>
-      <c r="TX26" s="11"/>
-      <c r="TY26" s="11"/>
-      <c r="TZ26" s="11"/>
-      <c r="UA26" s="11"/>
-      <c r="UB26" s="11"/>
-      <c r="UC26" s="11"/>
-      <c r="UD26" s="11"/>
-      <c r="UE26" s="11"/>
-      <c r="UF26" s="11"/>
-      <c r="UG26" s="11"/>
-      <c r="UH26" s="11"/>
-      <c r="UI26" s="11"/>
-      <c r="UJ26" s="11"/>
-      <c r="UK26" s="11"/>
-      <c r="UL26" s="11"/>
-      <c r="UM26" s="11"/>
-      <c r="UN26" s="11"/>
-      <c r="UO26" s="11"/>
-      <c r="UP26" s="11"/>
-      <c r="UQ26" s="11"/>
-      <c r="UR26" s="11"/>
-      <c r="US26" s="11"/>
-      <c r="UT26" s="11"/>
-      <c r="UU26" s="11"/>
-      <c r="UV26" s="11"/>
-      <c r="UW26" s="11"/>
-      <c r="UX26" s="11"/>
-      <c r="UY26" s="11"/>
-      <c r="UZ26" s="11"/>
-      <c r="VA26" s="11"/>
-      <c r="VB26" s="11"/>
-      <c r="VC26" s="11"/>
-      <c r="VD26" s="11"/>
-      <c r="VE26" s="11"/>
-      <c r="VF26" s="11"/>
-      <c r="VG26" s="11"/>
-      <c r="VH26" s="11"/>
-      <c r="VI26" s="11"/>
-      <c r="VJ26" s="11"/>
-      <c r="VK26" s="11"/>
-      <c r="VL26" s="11"/>
-      <c r="VM26" s="11"/>
-      <c r="VN26" s="11"/>
-      <c r="VO26" s="11"/>
-      <c r="VP26" s="11"/>
-      <c r="VQ26" s="11"/>
-      <c r="VR26" s="11"/>
-      <c r="VS26" s="11"/>
-      <c r="VT26" s="11"/>
-      <c r="VU26" s="11"/>
-      <c r="VV26" s="11"/>
-      <c r="VW26" s="11"/>
-      <c r="VX26" s="11"/>
-      <c r="VY26" s="11"/>
-      <c r="VZ26" s="11"/>
-      <c r="WA26" s="11"/>
-      <c r="WB26" s="11"/>
-      <c r="WC26" s="11"/>
-      <c r="WD26" s="11"/>
-      <c r="WE26" s="11"/>
-      <c r="WF26" s="11"/>
-      <c r="WG26" s="11"/>
-      <c r="WH26" s="11"/>
-      <c r="WI26" s="11"/>
-      <c r="WJ26" s="11"/>
-      <c r="WK26" s="11"/>
-      <c r="WL26" s="11"/>
-      <c r="WM26" s="11"/>
-      <c r="WN26" s="11"/>
-      <c r="WO26" s="11"/>
-      <c r="WP26" s="11"/>
-      <c r="WQ26" s="11"/>
-      <c r="WR26" s="11"/>
-      <c r="WS26" s="11"/>
-      <c r="WT26" s="11"/>
-      <c r="WU26" s="11"/>
-      <c r="WV26" s="11"/>
-      <c r="WW26" s="11"/>
-      <c r="WX26" s="11"/>
-      <c r="WY26" s="11"/>
-      <c r="WZ26" s="11"/>
-      <c r="XA26" s="11"/>
-      <c r="XB26" s="11"/>
-      <c r="XC26" s="11"/>
-      <c r="XD26" s="11"/>
-      <c r="XE26" s="11"/>
-      <c r="XF26" s="11"/>
-      <c r="XG26" s="11"/>
-      <c r="XH26" s="11"/>
-      <c r="XI26" s="11"/>
-      <c r="XJ26" s="11"/>
-      <c r="XK26" s="11"/>
-      <c r="XL26" s="11"/>
-      <c r="XM26" s="11"/>
-      <c r="XN26" s="11"/>
-      <c r="XO26" s="11"/>
-      <c r="XP26" s="11"/>
-      <c r="XQ26" s="11"/>
-      <c r="XR26" s="11"/>
-      <c r="XS26" s="11"/>
-      <c r="XT26" s="11"/>
-      <c r="XU26" s="11"/>
-      <c r="XV26" s="11"/>
-      <c r="XW26" s="11"/>
-      <c r="XX26" s="11"/>
-      <c r="XY26" s="11"/>
-      <c r="XZ26" s="11"/>
-      <c r="YA26" s="11"/>
-      <c r="YB26" s="11"/>
-      <c r="YC26" s="11"/>
-      <c r="YD26" s="11"/>
-      <c r="YE26" s="11"/>
-      <c r="YF26" s="11"/>
-      <c r="YG26" s="11"/>
-      <c r="YH26" s="11"/>
-      <c r="YI26" s="11"/>
-      <c r="YJ26" s="11"/>
-      <c r="YK26" s="11"/>
-      <c r="YL26" s="11"/>
-      <c r="YM26" s="11"/>
-      <c r="YN26" s="11"/>
-      <c r="YO26" s="11"/>
-      <c r="YP26" s="11"/>
-      <c r="YQ26" s="11"/>
-      <c r="YR26" s="11"/>
-      <c r="YS26" s="11"/>
-      <c r="YT26" s="11"/>
-      <c r="YU26" s="11"/>
-      <c r="YV26" s="11"/>
-      <c r="YW26" s="11"/>
-      <c r="YX26" s="11"/>
-      <c r="YY26" s="11"/>
-      <c r="YZ26" s="11"/>
-      <c r="ZA26" s="11"/>
-      <c r="ZB26" s="11"/>
-      <c r="ZC26" s="11"/>
-      <c r="ZD26" s="11"/>
-      <c r="ZE26" s="11"/>
-      <c r="ZF26" s="11"/>
-      <c r="ZG26" s="11"/>
-      <c r="ZH26" s="11"/>
-      <c r="ZI26" s="11"/>
-      <c r="ZJ26" s="11"/>
-      <c r="ZK26" s="11"/>
-      <c r="ZL26" s="11"/>
-      <c r="ZM26" s="11"/>
-      <c r="ZN26" s="11"/>
-      <c r="ZO26" s="11"/>
-      <c r="ZP26" s="11"/>
-      <c r="ZQ26" s="11"/>
-      <c r="ZR26" s="11"/>
-      <c r="ZS26" s="11"/>
-      <c r="ZT26" s="11"/>
-      <c r="ZU26" s="11"/>
-      <c r="ZV26" s="11"/>
-      <c r="ZW26" s="11"/>
-      <c r="ZX26" s="11"/>
-      <c r="ZY26" s="11"/>
-      <c r="ZZ26" s="11"/>
-      <c r="AAA26" s="11"/>
-      <c r="AAB26" s="11"/>
-      <c r="AAC26" s="11"/>
-      <c r="AAD26" s="11"/>
-      <c r="AAE26" s="11"/>
-      <c r="AAF26" s="11"/>
-      <c r="AAG26" s="11"/>
-      <c r="AAH26" s="11"/>
-      <c r="AAI26" s="11"/>
-      <c r="AAJ26" s="11"/>
-      <c r="AAK26" s="11"/>
-      <c r="AAL26" s="11"/>
-      <c r="AAM26" s="11"/>
-      <c r="AAN26" s="11"/>
-      <c r="AAO26" s="11"/>
-      <c r="AAP26" s="11"/>
-      <c r="AAQ26" s="11"/>
-      <c r="AAR26" s="11"/>
-      <c r="AAS26" s="11"/>
-      <c r="AAT26" s="11"/>
-      <c r="AAU26" s="11"/>
-      <c r="AAV26" s="11"/>
-      <c r="AAW26" s="11"/>
-      <c r="AAX26" s="11"/>
-      <c r="AAY26" s="11"/>
-      <c r="AAZ26" s="11"/>
-      <c r="ABA26" s="11"/>
-      <c r="ABB26" s="11"/>
-      <c r="ABC26" s="11"/>
-      <c r="ABD26" s="11"/>
-      <c r="ABE26" s="11"/>
-      <c r="ABF26" s="11"/>
-      <c r="ABG26" s="11"/>
-      <c r="ABH26" s="11"/>
-      <c r="ABI26" s="11"/>
-      <c r="ABJ26" s="11"/>
-      <c r="ABK26" s="11"/>
-      <c r="ABL26" s="11"/>
-      <c r="ABM26" s="11"/>
-      <c r="ABN26" s="11"/>
-      <c r="ABO26" s="11"/>
-      <c r="ABP26" s="11"/>
-      <c r="ABQ26" s="11"/>
-      <c r="ABR26" s="11"/>
-      <c r="ABS26" s="11"/>
-      <c r="ABT26" s="11"/>
-      <c r="ABU26" s="11"/>
-      <c r="ABV26" s="11"/>
-      <c r="ABW26" s="11"/>
-      <c r="ABX26" s="11"/>
-      <c r="ABY26" s="11"/>
-      <c r="ABZ26" s="11"/>
-      <c r="ACA26" s="11"/>
-      <c r="ACB26" s="11"/>
-      <c r="ACC26" s="11"/>
-      <c r="ACD26" s="11"/>
-      <c r="ACE26" s="11"/>
-      <c r="ACF26" s="11"/>
-      <c r="ACG26" s="11"/>
-      <c r="ACH26" s="11"/>
-      <c r="ACI26" s="11"/>
-      <c r="ACJ26" s="11"/>
-      <c r="ACK26" s="11"/>
-      <c r="ACL26" s="11"/>
-      <c r="ACM26" s="11"/>
-      <c r="ACN26" s="11"/>
-      <c r="ACO26" s="11"/>
-      <c r="ACP26" s="11"/>
-      <c r="ACQ26" s="11"/>
-      <c r="ACR26" s="11"/>
-      <c r="ACS26" s="11"/>
-      <c r="ACT26" s="11"/>
-      <c r="ACU26" s="11"/>
-      <c r="ACV26" s="11"/>
-      <c r="ACW26" s="11"/>
-      <c r="ACX26" s="11"/>
-      <c r="ACY26" s="11"/>
-      <c r="ACZ26" s="11"/>
-      <c r="ADA26" s="11"/>
-      <c r="ADB26" s="11"/>
-      <c r="ADC26" s="11"/>
-      <c r="ADD26" s="11"/>
-      <c r="ADE26" s="11"/>
-      <c r="ADF26" s="11"/>
-      <c r="ADG26" s="11"/>
-      <c r="ADH26" s="11"/>
-      <c r="ADI26" s="11"/>
-      <c r="ADJ26" s="11"/>
-      <c r="ADK26" s="11"/>
-      <c r="ADL26" s="11"/>
-      <c r="ADM26" s="11"/>
-      <c r="ADN26" s="11"/>
-      <c r="ADO26" s="11"/>
-      <c r="ADP26" s="11"/>
-      <c r="ADQ26" s="11"/>
-      <c r="ADR26" s="11"/>
-      <c r="ADS26" s="11"/>
-      <c r="ADT26" s="11"/>
-      <c r="ADU26" s="11"/>
-      <c r="ADV26" s="11"/>
-      <c r="ADW26" s="11"/>
-      <c r="ADX26" s="11"/>
-      <c r="ADY26" s="11"/>
-      <c r="ADZ26" s="11"/>
-      <c r="AEA26" s="11"/>
-      <c r="AEB26" s="11"/>
-      <c r="AEC26" s="11"/>
-      <c r="AED26" s="11"/>
-      <c r="AEE26" s="11"/>
-      <c r="AEF26" s="11"/>
-      <c r="AEG26" s="11"/>
-      <c r="AEH26" s="11"/>
-      <c r="AEI26" s="11"/>
-      <c r="AEJ26" s="11"/>
-      <c r="AEK26" s="11"/>
-      <c r="AEL26" s="11"/>
-      <c r="AEM26" s="11"/>
-      <c r="AEN26" s="11"/>
-      <c r="AEO26" s="11"/>
-      <c r="AEP26" s="11"/>
-      <c r="AEQ26" s="11"/>
-      <c r="AER26" s="11"/>
-      <c r="AES26" s="11"/>
-      <c r="AET26" s="11"/>
-      <c r="AEU26" s="11"/>
-      <c r="AEV26" s="11"/>
-      <c r="AEW26" s="11"/>
-      <c r="AEX26" s="11"/>
-      <c r="AEY26" s="11"/>
-      <c r="AEZ26" s="11"/>
-      <c r="AFA26" s="11"/>
-      <c r="AFB26" s="11"/>
-      <c r="AFC26" s="11"/>
-      <c r="AFD26" s="11"/>
-      <c r="AFE26" s="11"/>
-      <c r="AFF26" s="11"/>
-      <c r="AFG26" s="11"/>
-      <c r="AFH26" s="11"/>
-      <c r="AFI26" s="11"/>
-      <c r="AFJ26" s="11"/>
-      <c r="AFK26" s="11"/>
-      <c r="AFL26" s="11"/>
-      <c r="AFM26" s="11"/>
-      <c r="AFN26" s="11"/>
-      <c r="AFO26" s="11"/>
-      <c r="AFP26" s="11"/>
-      <c r="AFQ26" s="11"/>
-      <c r="AFR26" s="11"/>
-      <c r="AFS26" s="11"/>
-      <c r="AFT26" s="11"/>
-      <c r="AFU26" s="11"/>
-      <c r="AFV26" s="11"/>
-      <c r="AFW26" s="11"/>
-      <c r="AFX26" s="11"/>
-      <c r="AFY26" s="11"/>
-      <c r="AFZ26" s="11"/>
-      <c r="AGA26" s="11"/>
-      <c r="AGB26" s="11"/>
-      <c r="AGC26" s="11"/>
-      <c r="AGD26" s="11"/>
-      <c r="AGE26" s="11"/>
-      <c r="AGF26" s="11"/>
-      <c r="AGG26" s="11"/>
-      <c r="AGH26" s="11"/>
-      <c r="AGI26" s="11"/>
-      <c r="AGJ26" s="11"/>
-      <c r="AGK26" s="11"/>
-      <c r="AGL26" s="11"/>
-      <c r="AGM26" s="11"/>
-      <c r="AGN26" s="11"/>
-      <c r="AGO26" s="11"/>
-      <c r="AGP26" s="11"/>
-      <c r="AGQ26" s="11"/>
-      <c r="AGR26" s="11"/>
-      <c r="AGS26" s="11"/>
-      <c r="AGT26" s="11"/>
-      <c r="AGU26" s="11"/>
-      <c r="AGV26" s="11"/>
-      <c r="AGW26" s="11"/>
-      <c r="AGX26" s="11"/>
-      <c r="AGY26" s="11"/>
-      <c r="AGZ26" s="11"/>
-      <c r="AHA26" s="11"/>
-      <c r="AHB26" s="11"/>
-      <c r="AHC26" s="11"/>
-      <c r="AHD26" s="11"/>
-      <c r="AHE26" s="11"/>
-      <c r="AHF26" s="11"/>
-      <c r="AHG26" s="11"/>
-      <c r="AHH26" s="11"/>
-      <c r="AHI26" s="11"/>
-      <c r="AHJ26" s="11"/>
-      <c r="AHK26" s="11"/>
-      <c r="AHL26" s="11"/>
-      <c r="AHM26" s="11"/>
-      <c r="AHN26" s="11"/>
-      <c r="AHO26" s="11"/>
-      <c r="AHP26" s="11"/>
-      <c r="AHQ26" s="11"/>
-      <c r="AHR26" s="11"/>
-      <c r="AHS26" s="11"/>
-      <c r="AHT26" s="11"/>
-      <c r="AHU26" s="11"/>
-      <c r="AHV26" s="11"/>
-      <c r="AHW26" s="11"/>
-      <c r="AHX26" s="11"/>
-      <c r="AHY26" s="11"/>
-      <c r="AHZ26" s="11"/>
-      <c r="AIA26" s="11"/>
-      <c r="AIB26" s="11"/>
-      <c r="AIC26" s="11"/>
-      <c r="AID26" s="11"/>
-      <c r="AIE26" s="11"/>
-      <c r="AIF26" s="11"/>
-      <c r="AIG26" s="11"/>
-      <c r="AIH26" s="11"/>
-      <c r="AII26" s="11"/>
-      <c r="AIJ26" s="11"/>
-      <c r="AIK26" s="11"/>
-      <c r="AIL26" s="11"/>
-      <c r="AIM26" s="11"/>
-      <c r="AIN26" s="11"/>
-      <c r="AIO26" s="11"/>
-      <c r="AIP26" s="11"/>
-      <c r="AIQ26" s="11"/>
-      <c r="AIR26" s="11"/>
-      <c r="AIS26" s="11"/>
-      <c r="AIT26" s="11"/>
-      <c r="AIU26" s="11"/>
-      <c r="AIV26" s="11"/>
-      <c r="AIW26" s="11"/>
-      <c r="AIX26" s="11"/>
-      <c r="AIY26" s="11"/>
-      <c r="AIZ26" s="11"/>
-      <c r="AJA26" s="11"/>
-      <c r="AJB26" s="11"/>
-      <c r="AJC26" s="11"/>
-      <c r="AJD26" s="11"/>
-      <c r="AJE26" s="11"/>
-      <c r="AJF26" s="11"/>
-      <c r="AJG26" s="11"/>
-      <c r="AJH26" s="11"/>
-      <c r="AJI26" s="11"/>
-      <c r="AJJ26" s="11"/>
-      <c r="AJK26" s="11"/>
-      <c r="AJL26" s="11"/>
-      <c r="AJM26" s="11"/>
-      <c r="AJN26" s="11"/>
-      <c r="AJO26" s="11"/>
-      <c r="AJP26" s="11"/>
-      <c r="AJQ26" s="11"/>
-      <c r="AJR26" s="11"/>
-      <c r="AJS26" s="11"/>
-      <c r="AJT26" s="11"/>
-      <c r="AJU26" s="11"/>
-      <c r="AJV26" s="11"/>
-      <c r="AJW26" s="11"/>
-      <c r="AJX26" s="11"/>
-      <c r="AJY26" s="11"/>
-      <c r="AJZ26" s="11"/>
-      <c r="AKA26" s="11"/>
-      <c r="AKB26" s="11"/>
-      <c r="AKC26" s="11"/>
-      <c r="AKD26" s="11"/>
-      <c r="AKE26" s="11"/>
-      <c r="AKF26" s="11"/>
-      <c r="AKG26" s="11"/>
-      <c r="AKH26" s="11"/>
-      <c r="AKI26" s="11"/>
-      <c r="AKJ26" s="11"/>
-      <c r="AKK26" s="11"/>
-      <c r="AKL26" s="11"/>
-      <c r="AKM26" s="11"/>
-      <c r="AKN26" s="11"/>
-      <c r="AKO26" s="11"/>
-      <c r="AKP26" s="11"/>
-      <c r="AKQ26" s="11"/>
-      <c r="AKR26" s="11"/>
-      <c r="AKS26" s="11"/>
-      <c r="AKT26" s="11"/>
-      <c r="AKU26" s="11"/>
-      <c r="AKV26" s="11"/>
-      <c r="AKW26" s="11"/>
-      <c r="AKX26" s="11"/>
-      <c r="AKY26" s="11"/>
-      <c r="AKZ26" s="11"/>
-      <c r="ALA26" s="11"/>
-      <c r="ALB26" s="11"/>
-      <c r="ALC26" s="11"/>
-      <c r="ALD26" s="11"/>
-      <c r="ALE26" s="11"/>
-      <c r="ALF26" s="11"/>
-      <c r="ALG26" s="11"/>
-      <c r="ALH26" s="11"/>
-      <c r="ALI26" s="11"/>
-      <c r="ALJ26" s="11"/>
-      <c r="ALK26" s="11"/>
-      <c r="ALL26" s="11"/>
-      <c r="ALM26" s="11"/>
-      <c r="ALN26" s="11"/>
-      <c r="ALO26" s="11"/>
-      <c r="ALP26" s="11"/>
-      <c r="ALQ26" s="11"/>
-      <c r="ALR26" s="11"/>
-      <c r="ALS26" s="11"/>
-      <c r="ALT26" s="11"/>
-      <c r="ALU26" s="11"/>
-      <c r="ALV26" s="11"/>
-      <c r="ALW26" s="11"/>
-      <c r="ALX26" s="11"/>
-      <c r="ALY26" s="11"/>
-      <c r="ALZ26" s="11"/>
-      <c r="AMA26" s="11"/>
-      <c r="AMB26" s="11"/>
-      <c r="AMC26" s="11"/>
-      <c r="AMD26" s="11"/>
-      <c r="AME26" s="11"/>
-      <c r="AMF26" s="11"/>
-      <c r="AMG26" s="11"/>
-      <c r="AMH26" s="11"/>
-      <c r="AMI26" s="11"/>
-      <c r="AMJ26" s="11"/>
-      <c r="AMK26" s="11"/>
+    <row r="26" s="2" customFormat="1" spans="1:1025">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+      <c r="FZ26" s="1"/>
+      <c r="GA26" s="1"/>
+      <c r="GB26" s="1"/>
+      <c r="GC26" s="1"/>
+      <c r="GD26" s="1"/>
+      <c r="GE26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+      <c r="GZ26" s="1"/>
+      <c r="HA26" s="1"/>
+      <c r="HB26" s="1"/>
+      <c r="HC26" s="1"/>
+      <c r="HD26" s="1"/>
+      <c r="HE26" s="1"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
+      <c r="HK26" s="1"/>
+      <c r="HL26" s="1"/>
+      <c r="HM26" s="1"/>
+      <c r="HN26" s="1"/>
+      <c r="HO26" s="1"/>
+      <c r="HP26" s="1"/>
+      <c r="HQ26" s="1"/>
+      <c r="HR26" s="1"/>
+      <c r="HS26" s="1"/>
+      <c r="HT26" s="1"/>
+      <c r="HU26" s="1"/>
+      <c r="HV26" s="1"/>
+      <c r="HW26" s="1"/>
+      <c r="HX26" s="1"/>
+      <c r="HY26" s="1"/>
+      <c r="HZ26" s="1"/>
+      <c r="IA26" s="1"/>
+      <c r="IB26" s="1"/>
+      <c r="IC26" s="1"/>
+      <c r="ID26" s="1"/>
+      <c r="IE26" s="1"/>
+      <c r="IF26" s="1"/>
+      <c r="IG26" s="1"/>
+      <c r="IH26" s="1"/>
+      <c r="II26" s="1"/>
+      <c r="IJ26" s="1"/>
+      <c r="IK26" s="1"/>
+      <c r="IL26" s="1"/>
+      <c r="IM26" s="1"/>
+      <c r="IN26" s="1"/>
+      <c r="IO26" s="1"/>
+      <c r="IP26" s="1"/>
+      <c r="IQ26" s="1"/>
+      <c r="IR26" s="1"/>
+      <c r="IS26" s="1"/>
+      <c r="IT26" s="1"/>
+      <c r="IU26" s="1"/>
+      <c r="IV26" s="1"/>
+      <c r="IW26" s="1"/>
+      <c r="IX26" s="1"/>
+      <c r="IY26" s="1"/>
+      <c r="IZ26" s="1"/>
+      <c r="JA26" s="1"/>
+      <c r="JB26" s="1"/>
+      <c r="JC26" s="1"/>
+      <c r="JD26" s="1"/>
+      <c r="JE26" s="1"/>
+      <c r="JF26" s="1"/>
+      <c r="JG26" s="1"/>
+      <c r="JH26" s="1"/>
+      <c r="JI26" s="1"/>
+      <c r="JJ26" s="1"/>
+      <c r="JK26" s="1"/>
+      <c r="JL26" s="1"/>
+      <c r="JM26" s="1"/>
+      <c r="JN26" s="1"/>
+      <c r="JO26" s="1"/>
+      <c r="JP26" s="1"/>
+      <c r="JQ26" s="1"/>
+      <c r="JR26" s="1"/>
+      <c r="JS26" s="1"/>
+      <c r="JT26" s="1"/>
+      <c r="JU26" s="1"/>
+      <c r="JV26" s="1"/>
+      <c r="JW26" s="1"/>
+      <c r="JX26" s="1"/>
+      <c r="JY26" s="1"/>
+      <c r="JZ26" s="1"/>
+      <c r="KA26" s="1"/>
+      <c r="KB26" s="1"/>
+      <c r="KC26" s="1"/>
+      <c r="KD26" s="1"/>
+      <c r="KE26" s="1"/>
+      <c r="KF26" s="1"/>
+      <c r="KG26" s="1"/>
+      <c r="KH26" s="1"/>
+      <c r="KI26" s="1"/>
+      <c r="KJ26" s="1"/>
+      <c r="KK26" s="1"/>
+      <c r="KL26" s="1"/>
+      <c r="KM26" s="1"/>
+      <c r="KN26" s="1"/>
+      <c r="KO26" s="1"/>
+      <c r="KP26" s="1"/>
+      <c r="KQ26" s="1"/>
+      <c r="KR26" s="1"/>
+      <c r="KS26" s="1"/>
+      <c r="KT26" s="1"/>
+      <c r="KU26" s="1"/>
+      <c r="KV26" s="1"/>
+      <c r="KW26" s="1"/>
+      <c r="KX26" s="1"/>
+      <c r="KY26" s="1"/>
+      <c r="KZ26" s="1"/>
+      <c r="LA26" s="1"/>
+      <c r="LB26" s="1"/>
+      <c r="LC26" s="1"/>
+      <c r="LD26" s="1"/>
+      <c r="LE26" s="1"/>
+      <c r="LF26" s="1"/>
+      <c r="LG26" s="1"/>
+      <c r="LH26" s="1"/>
+      <c r="LI26" s="1"/>
+      <c r="LJ26" s="1"/>
+      <c r="LK26" s="1"/>
+      <c r="LL26" s="1"/>
+      <c r="LM26" s="1"/>
+      <c r="LN26" s="1"/>
+      <c r="LO26" s="1"/>
+      <c r="LP26" s="1"/>
+      <c r="LQ26" s="1"/>
+      <c r="LR26" s="1"/>
+      <c r="LS26" s="1"/>
+      <c r="LT26" s="1"/>
+      <c r="LU26" s="1"/>
+      <c r="LV26" s="1"/>
+      <c r="LW26" s="1"/>
+      <c r="LX26" s="1"/>
+      <c r="LY26" s="1"/>
+      <c r="LZ26" s="1"/>
+      <c r="MA26" s="1"/>
+      <c r="MB26" s="1"/>
+      <c r="MC26" s="1"/>
+      <c r="MD26" s="1"/>
+      <c r="ME26" s="1"/>
+      <c r="MF26" s="1"/>
+      <c r="MG26" s="1"/>
+      <c r="MH26" s="1"/>
+      <c r="MI26" s="1"/>
+      <c r="MJ26" s="1"/>
+      <c r="MK26" s="1"/>
+      <c r="ML26" s="1"/>
+      <c r="MM26" s="1"/>
+      <c r="MN26" s="1"/>
+      <c r="MO26" s="1"/>
+      <c r="MP26" s="1"/>
+      <c r="MQ26" s="1"/>
+      <c r="MR26" s="1"/>
+      <c r="MS26" s="1"/>
+      <c r="MT26" s="1"/>
+      <c r="MU26" s="1"/>
+      <c r="MV26" s="1"/>
+      <c r="MW26" s="1"/>
+      <c r="MX26" s="1"/>
+      <c r="MY26" s="1"/>
+      <c r="MZ26" s="1"/>
+      <c r="NA26" s="1"/>
+      <c r="NB26" s="1"/>
+      <c r="NC26" s="1"/>
+      <c r="ND26" s="1"/>
+      <c r="NE26" s="1"/>
+      <c r="NF26" s="1"/>
+      <c r="NG26" s="1"/>
+      <c r="NH26" s="1"/>
+      <c r="NI26" s="1"/>
+      <c r="NJ26" s="1"/>
+      <c r="NK26" s="1"/>
+      <c r="NL26" s="1"/>
+      <c r="NM26" s="1"/>
+      <c r="NN26" s="1"/>
+      <c r="NO26" s="1"/>
+      <c r="NP26" s="1"/>
+      <c r="NQ26" s="1"/>
+      <c r="NR26" s="1"/>
+      <c r="NS26" s="1"/>
+      <c r="NT26" s="1"/>
+      <c r="NU26" s="1"/>
+      <c r="NV26" s="1"/>
+      <c r="NW26" s="1"/>
+      <c r="NX26" s="1"/>
+      <c r="NY26" s="1"/>
+      <c r="NZ26" s="1"/>
+      <c r="OA26" s="1"/>
+      <c r="OB26" s="1"/>
+      <c r="OC26" s="1"/>
+      <c r="OD26" s="1"/>
+      <c r="OE26" s="1"/>
+      <c r="OF26" s="1"/>
+      <c r="OG26" s="1"/>
+      <c r="OH26" s="1"/>
+      <c r="OI26" s="1"/>
+      <c r="OJ26" s="1"/>
+      <c r="OK26" s="1"/>
+      <c r="OL26" s="1"/>
+      <c r="OM26" s="1"/>
+      <c r="ON26" s="1"/>
+      <c r="OO26" s="1"/>
+      <c r="OP26" s="1"/>
+      <c r="OQ26" s="1"/>
+      <c r="OR26" s="1"/>
+      <c r="OS26" s="1"/>
+      <c r="OT26" s="1"/>
+      <c r="OU26" s="1"/>
+      <c r="OV26" s="1"/>
+      <c r="OW26" s="1"/>
+      <c r="OX26" s="1"/>
+      <c r="OY26" s="1"/>
+      <c r="OZ26" s="1"/>
+      <c r="PA26" s="1"/>
+      <c r="PB26" s="1"/>
+      <c r="PC26" s="1"/>
+      <c r="PD26" s="1"/>
+      <c r="PE26" s="1"/>
+      <c r="PF26" s="1"/>
+      <c r="PG26" s="1"/>
+      <c r="PH26" s="1"/>
+      <c r="PI26" s="1"/>
+      <c r="PJ26" s="1"/>
+      <c r="PK26" s="1"/>
+      <c r="PL26" s="1"/>
+      <c r="PM26" s="1"/>
+      <c r="PN26" s="1"/>
+      <c r="PO26" s="1"/>
+      <c r="PP26" s="1"/>
+      <c r="PQ26" s="1"/>
+      <c r="PR26" s="1"/>
+      <c r="PS26" s="1"/>
+      <c r="PT26" s="1"/>
+      <c r="PU26" s="1"/>
+      <c r="PV26" s="1"/>
+      <c r="PW26" s="1"/>
+      <c r="PX26" s="1"/>
+      <c r="PY26" s="1"/>
+      <c r="PZ26" s="1"/>
+      <c r="QA26" s="1"/>
+      <c r="QB26" s="1"/>
+      <c r="QC26" s="1"/>
+      <c r="QD26" s="1"/>
+      <c r="QE26" s="1"/>
+      <c r="QF26" s="1"/>
+      <c r="QG26" s="1"/>
+      <c r="QH26" s="1"/>
+      <c r="QI26" s="1"/>
+      <c r="QJ26" s="1"/>
+      <c r="QK26" s="1"/>
+      <c r="QL26" s="1"/>
+      <c r="QM26" s="1"/>
+      <c r="QN26" s="1"/>
+      <c r="QO26" s="1"/>
+      <c r="QP26" s="1"/>
+      <c r="QQ26" s="1"/>
+      <c r="QR26" s="1"/>
+      <c r="QS26" s="1"/>
+      <c r="QT26" s="1"/>
+      <c r="QU26" s="1"/>
+      <c r="QV26" s="1"/>
+      <c r="QW26" s="1"/>
+      <c r="QX26" s="1"/>
+      <c r="QY26" s="1"/>
+      <c r="QZ26" s="1"/>
+      <c r="RA26" s="1"/>
+      <c r="RB26" s="1"/>
+      <c r="RC26" s="1"/>
+      <c r="RD26" s="1"/>
+      <c r="RE26" s="1"/>
+      <c r="RF26" s="1"/>
+      <c r="RG26" s="1"/>
+      <c r="RH26" s="1"/>
+      <c r="RI26" s="1"/>
+      <c r="RJ26" s="1"/>
+      <c r="RK26" s="1"/>
+      <c r="RL26" s="1"/>
+      <c r="RM26" s="1"/>
+      <c r="RN26" s="1"/>
+      <c r="RO26" s="1"/>
+      <c r="RP26" s="1"/>
+      <c r="RQ26" s="1"/>
+      <c r="RR26" s="1"/>
+      <c r="RS26" s="1"/>
+      <c r="RT26" s="1"/>
+      <c r="RU26" s="1"/>
+      <c r="RV26" s="1"/>
+      <c r="RW26" s="1"/>
+      <c r="RX26" s="1"/>
+      <c r="RY26" s="1"/>
+      <c r="RZ26" s="1"/>
+      <c r="SA26" s="1"/>
+      <c r="SB26" s="1"/>
+      <c r="SC26" s="1"/>
+      <c r="SD26" s="1"/>
+      <c r="SE26" s="1"/>
+      <c r="SF26" s="1"/>
+      <c r="SG26" s="1"/>
+      <c r="SH26" s="1"/>
+      <c r="SI26" s="1"/>
+      <c r="SJ26" s="1"/>
+      <c r="SK26" s="1"/>
+      <c r="SL26" s="1"/>
+      <c r="SM26" s="1"/>
+      <c r="SN26" s="1"/>
+      <c r="SO26" s="1"/>
+      <c r="SP26" s="1"/>
+      <c r="SQ26" s="1"/>
+      <c r="SR26" s="1"/>
+      <c r="SS26" s="1"/>
+      <c r="ST26" s="1"/>
+      <c r="SU26" s="1"/>
+      <c r="SV26" s="1"/>
+      <c r="SW26" s="1"/>
+      <c r="SX26" s="1"/>
+      <c r="SY26" s="1"/>
+      <c r="SZ26" s="1"/>
+      <c r="TA26" s="1"/>
+      <c r="TB26" s="1"/>
+      <c r="TC26" s="1"/>
+      <c r="TD26" s="1"/>
+      <c r="TE26" s="1"/>
+      <c r="TF26" s="1"/>
+      <c r="TG26" s="1"/>
+      <c r="TH26" s="1"/>
+      <c r="TI26" s="1"/>
+      <c r="TJ26" s="1"/>
+      <c r="TK26" s="1"/>
+      <c r="TL26" s="1"/>
+      <c r="TM26" s="1"/>
+      <c r="TN26" s="1"/>
+      <c r="TO26" s="1"/>
+      <c r="TP26" s="1"/>
+      <c r="TQ26" s="1"/>
+      <c r="TR26" s="1"/>
+      <c r="TS26" s="1"/>
+      <c r="TT26" s="1"/>
+      <c r="TU26" s="1"/>
+      <c r="TV26" s="1"/>
+      <c r="TW26" s="1"/>
+      <c r="TX26" s="1"/>
+      <c r="TY26" s="1"/>
+      <c r="TZ26" s="1"/>
+      <c r="UA26" s="1"/>
+      <c r="UB26" s="1"/>
+      <c r="UC26" s="1"/>
+      <c r="UD26" s="1"/>
+      <c r="UE26" s="1"/>
+      <c r="UF26" s="1"/>
+      <c r="UG26" s="1"/>
+      <c r="UH26" s="1"/>
+      <c r="UI26" s="1"/>
+      <c r="UJ26" s="1"/>
+      <c r="UK26" s="1"/>
+      <c r="UL26" s="1"/>
+      <c r="UM26" s="1"/>
+      <c r="UN26" s="1"/>
+      <c r="UO26" s="1"/>
+      <c r="UP26" s="1"/>
+      <c r="UQ26" s="1"/>
+      <c r="UR26" s="1"/>
+      <c r="US26" s="1"/>
+      <c r="UT26" s="1"/>
+      <c r="UU26" s="1"/>
+      <c r="UV26" s="1"/>
+      <c r="UW26" s="1"/>
+      <c r="UX26" s="1"/>
+      <c r="UY26" s="1"/>
+      <c r="UZ26" s="1"/>
+      <c r="VA26" s="1"/>
+      <c r="VB26" s="1"/>
+      <c r="VC26" s="1"/>
+      <c r="VD26" s="1"/>
+      <c r="VE26" s="1"/>
+      <c r="VF26" s="1"/>
+      <c r="VG26" s="1"/>
+      <c r="VH26" s="1"/>
+      <c r="VI26" s="1"/>
+      <c r="VJ26" s="1"/>
+      <c r="VK26" s="1"/>
+      <c r="VL26" s="1"/>
+      <c r="VM26" s="1"/>
+      <c r="VN26" s="1"/>
+      <c r="VO26" s="1"/>
+      <c r="VP26" s="1"/>
+      <c r="VQ26" s="1"/>
+      <c r="VR26" s="1"/>
+      <c r="VS26" s="1"/>
+      <c r="VT26" s="1"/>
+      <c r="VU26" s="1"/>
+      <c r="VV26" s="1"/>
+      <c r="VW26" s="1"/>
+      <c r="VX26" s="1"/>
+      <c r="VY26" s="1"/>
+      <c r="VZ26" s="1"/>
+      <c r="WA26" s="1"/>
+      <c r="WB26" s="1"/>
+      <c r="WC26" s="1"/>
+      <c r="WD26" s="1"/>
+      <c r="WE26" s="1"/>
+      <c r="WF26" s="1"/>
+      <c r="WG26" s="1"/>
+      <c r="WH26" s="1"/>
+      <c r="WI26" s="1"/>
+      <c r="WJ26" s="1"/>
+      <c r="WK26" s="1"/>
+      <c r="WL26" s="1"/>
+      <c r="WM26" s="1"/>
+      <c r="WN26" s="1"/>
+      <c r="WO26" s="1"/>
+      <c r="WP26" s="1"/>
+      <c r="WQ26" s="1"/>
+      <c r="WR26" s="1"/>
+      <c r="WS26" s="1"/>
+      <c r="WT26" s="1"/>
+      <c r="WU26" s="1"/>
+      <c r="WV26" s="1"/>
+      <c r="WW26" s="1"/>
+      <c r="WX26" s="1"/>
+      <c r="WY26" s="1"/>
+      <c r="WZ26" s="1"/>
+      <c r="XA26" s="1"/>
+      <c r="XB26" s="1"/>
+      <c r="XC26" s="1"/>
+      <c r="XD26" s="1"/>
+      <c r="XE26" s="1"/>
+      <c r="XF26" s="1"/>
+      <c r="XG26" s="1"/>
+      <c r="XH26" s="1"/>
+      <c r="XI26" s="1"/>
+      <c r="XJ26" s="1"/>
+      <c r="XK26" s="1"/>
+      <c r="XL26" s="1"/>
+      <c r="XM26" s="1"/>
+      <c r="XN26" s="1"/>
+      <c r="XO26" s="1"/>
+      <c r="XP26" s="1"/>
+      <c r="XQ26" s="1"/>
+      <c r="XR26" s="1"/>
+      <c r="XS26" s="1"/>
+      <c r="XT26" s="1"/>
+      <c r="XU26" s="1"/>
+      <c r="XV26" s="1"/>
+      <c r="XW26" s="1"/>
+      <c r="XX26" s="1"/>
+      <c r="XY26" s="1"/>
+      <c r="XZ26" s="1"/>
+      <c r="YA26" s="1"/>
+      <c r="YB26" s="1"/>
+      <c r="YC26" s="1"/>
+      <c r="YD26" s="1"/>
+      <c r="YE26" s="1"/>
+      <c r="YF26" s="1"/>
+      <c r="YG26" s="1"/>
+      <c r="YH26" s="1"/>
+      <c r="YI26" s="1"/>
+      <c r="YJ26" s="1"/>
+      <c r="YK26" s="1"/>
+      <c r="YL26" s="1"/>
+      <c r="YM26" s="1"/>
+      <c r="YN26" s="1"/>
+      <c r="YO26" s="1"/>
+      <c r="YP26" s="1"/>
+      <c r="YQ26" s="1"/>
+      <c r="YR26" s="1"/>
+      <c r="YS26" s="1"/>
+      <c r="YT26" s="1"/>
+      <c r="YU26" s="1"/>
+      <c r="YV26" s="1"/>
+      <c r="YW26" s="1"/>
+      <c r="YX26" s="1"/>
+      <c r="YY26" s="1"/>
+      <c r="YZ26" s="1"/>
+      <c r="ZA26" s="1"/>
+      <c r="ZB26" s="1"/>
+      <c r="ZC26" s="1"/>
+      <c r="ZD26" s="1"/>
+      <c r="ZE26" s="1"/>
+      <c r="ZF26" s="1"/>
+      <c r="ZG26" s="1"/>
+      <c r="ZH26" s="1"/>
+      <c r="ZI26" s="1"/>
+      <c r="ZJ26" s="1"/>
+      <c r="ZK26" s="1"/>
+      <c r="ZL26" s="1"/>
+      <c r="ZM26" s="1"/>
+      <c r="ZN26" s="1"/>
+      <c r="ZO26" s="1"/>
+      <c r="ZP26" s="1"/>
+      <c r="ZQ26" s="1"/>
+      <c r="ZR26" s="1"/>
+      <c r="ZS26" s="1"/>
+      <c r="ZT26" s="1"/>
+      <c r="ZU26" s="1"/>
+      <c r="ZV26" s="1"/>
+      <c r="ZW26" s="1"/>
+      <c r="ZX26" s="1"/>
+      <c r="ZY26" s="1"/>
+      <c r="ZZ26" s="1"/>
+      <c r="AAA26" s="1"/>
+      <c r="AAB26" s="1"/>
+      <c r="AAC26" s="1"/>
+      <c r="AAD26" s="1"/>
+      <c r="AAE26" s="1"/>
+      <c r="AAF26" s="1"/>
+      <c r="AAG26" s="1"/>
+      <c r="AAH26" s="1"/>
+      <c r="AAI26" s="1"/>
+      <c r="AAJ26" s="1"/>
+      <c r="AAK26" s="1"/>
+      <c r="AAL26" s="1"/>
+      <c r="AAM26" s="1"/>
+      <c r="AAN26" s="1"/>
+      <c r="AAO26" s="1"/>
+      <c r="AAP26" s="1"/>
+      <c r="AAQ26" s="1"/>
+      <c r="AAR26" s="1"/>
+      <c r="AAS26" s="1"/>
+      <c r="AAT26" s="1"/>
+      <c r="AAU26" s="1"/>
+      <c r="AAV26" s="1"/>
+      <c r="AAW26" s="1"/>
+      <c r="AAX26" s="1"/>
+      <c r="AAY26" s="1"/>
+      <c r="AAZ26" s="1"/>
+      <c r="ABA26" s="1"/>
+      <c r="ABB26" s="1"/>
+      <c r="ABC26" s="1"/>
+      <c r="ABD26" s="1"/>
+      <c r="ABE26" s="1"/>
+      <c r="ABF26" s="1"/>
+      <c r="ABG26" s="1"/>
+      <c r="ABH26" s="1"/>
+      <c r="ABI26" s="1"/>
+      <c r="ABJ26" s="1"/>
+      <c r="ABK26" s="1"/>
+      <c r="ABL26" s="1"/>
+      <c r="ABM26" s="1"/>
+      <c r="ABN26" s="1"/>
+      <c r="ABO26" s="1"/>
+      <c r="ABP26" s="1"/>
+      <c r="ABQ26" s="1"/>
+      <c r="ABR26" s="1"/>
+      <c r="ABS26" s="1"/>
+      <c r="ABT26" s="1"/>
+      <c r="ABU26" s="1"/>
+      <c r="ABV26" s="1"/>
+      <c r="ABW26" s="1"/>
+      <c r="ABX26" s="1"/>
+      <c r="ABY26" s="1"/>
+      <c r="ABZ26" s="1"/>
+      <c r="ACA26" s="1"/>
+      <c r="ACB26" s="1"/>
+      <c r="ACC26" s="1"/>
+      <c r="ACD26" s="1"/>
+      <c r="ACE26" s="1"/>
+      <c r="ACF26" s="1"/>
+      <c r="ACG26" s="1"/>
+      <c r="ACH26" s="1"/>
+      <c r="ACI26" s="1"/>
+      <c r="ACJ26" s="1"/>
+      <c r="ACK26" s="1"/>
+      <c r="ACL26" s="1"/>
+      <c r="ACM26" s="1"/>
+      <c r="ACN26" s="1"/>
+      <c r="ACO26" s="1"/>
+      <c r="ACP26" s="1"/>
+      <c r="ACQ26" s="1"/>
+      <c r="ACR26" s="1"/>
+      <c r="ACS26" s="1"/>
+      <c r="ACT26" s="1"/>
+      <c r="ACU26" s="1"/>
+      <c r="ACV26" s="1"/>
+      <c r="ACW26" s="1"/>
+      <c r="ACX26" s="1"/>
+      <c r="ACY26" s="1"/>
+      <c r="ACZ26" s="1"/>
+      <c r="ADA26" s="1"/>
+      <c r="ADB26" s="1"/>
+      <c r="ADC26" s="1"/>
+      <c r="ADD26" s="1"/>
+      <c r="ADE26" s="1"/>
+      <c r="ADF26" s="1"/>
+      <c r="ADG26" s="1"/>
+      <c r="ADH26" s="1"/>
+      <c r="ADI26" s="1"/>
+      <c r="ADJ26" s="1"/>
+      <c r="ADK26" s="1"/>
+      <c r="ADL26" s="1"/>
+      <c r="ADM26" s="1"/>
+      <c r="ADN26" s="1"/>
+      <c r="ADO26" s="1"/>
+      <c r="ADP26" s="1"/>
+      <c r="ADQ26" s="1"/>
+      <c r="ADR26" s="1"/>
+      <c r="ADS26" s="1"/>
+      <c r="ADT26" s="1"/>
+      <c r="ADU26" s="1"/>
+      <c r="ADV26" s="1"/>
+      <c r="ADW26" s="1"/>
+      <c r="ADX26" s="1"/>
+      <c r="ADY26" s="1"/>
+      <c r="ADZ26" s="1"/>
+      <c r="AEA26" s="1"/>
+      <c r="AEB26" s="1"/>
+      <c r="AEC26" s="1"/>
+      <c r="AED26" s="1"/>
+      <c r="AEE26" s="1"/>
+      <c r="AEF26" s="1"/>
+      <c r="AEG26" s="1"/>
+      <c r="AEH26" s="1"/>
+      <c r="AEI26" s="1"/>
+      <c r="AEJ26" s="1"/>
+      <c r="AEK26" s="1"/>
+      <c r="AEL26" s="1"/>
+      <c r="AEM26" s="1"/>
+      <c r="AEN26" s="1"/>
+      <c r="AEO26" s="1"/>
+      <c r="AEP26" s="1"/>
+      <c r="AEQ26" s="1"/>
+      <c r="AER26" s="1"/>
+      <c r="AES26" s="1"/>
+      <c r="AET26" s="1"/>
+      <c r="AEU26" s="1"/>
+      <c r="AEV26" s="1"/>
+      <c r="AEW26" s="1"/>
+      <c r="AEX26" s="1"/>
+      <c r="AEY26" s="1"/>
+      <c r="AEZ26" s="1"/>
+      <c r="AFA26" s="1"/>
+      <c r="AFB26" s="1"/>
+      <c r="AFC26" s="1"/>
+      <c r="AFD26" s="1"/>
+      <c r="AFE26" s="1"/>
+      <c r="AFF26" s="1"/>
+      <c r="AFG26" s="1"/>
+      <c r="AFH26" s="1"/>
+      <c r="AFI26" s="1"/>
+      <c r="AFJ26" s="1"/>
+      <c r="AFK26" s="1"/>
+      <c r="AFL26" s="1"/>
+      <c r="AFM26" s="1"/>
+      <c r="AFN26" s="1"/>
+      <c r="AFO26" s="1"/>
+      <c r="AFP26" s="1"/>
+      <c r="AFQ26" s="1"/>
+      <c r="AFR26" s="1"/>
+      <c r="AFS26" s="1"/>
+      <c r="AFT26" s="1"/>
+      <c r="AFU26" s="1"/>
+      <c r="AFV26" s="1"/>
+      <c r="AFW26" s="1"/>
+      <c r="AFX26" s="1"/>
+      <c r="AFY26" s="1"/>
+      <c r="AFZ26" s="1"/>
+      <c r="AGA26" s="1"/>
+      <c r="AGB26" s="1"/>
+      <c r="AGC26" s="1"/>
+      <c r="AGD26" s="1"/>
+      <c r="AGE26" s="1"/>
+      <c r="AGF26" s="1"/>
+      <c r="AGG26" s="1"/>
+      <c r="AGH26" s="1"/>
+      <c r="AGI26" s="1"/>
+      <c r="AGJ26" s="1"/>
+      <c r="AGK26" s="1"/>
+      <c r="AGL26" s="1"/>
+      <c r="AGM26" s="1"/>
+      <c r="AGN26" s="1"/>
+      <c r="AGO26" s="1"/>
+      <c r="AGP26" s="1"/>
+      <c r="AGQ26" s="1"/>
+      <c r="AGR26" s="1"/>
+      <c r="AGS26" s="1"/>
+      <c r="AGT26" s="1"/>
+      <c r="AGU26" s="1"/>
+      <c r="AGV26" s="1"/>
+      <c r="AGW26" s="1"/>
+      <c r="AGX26" s="1"/>
+      <c r="AGY26" s="1"/>
+      <c r="AGZ26" s="1"/>
+      <c r="AHA26" s="1"/>
+      <c r="AHB26" s="1"/>
+      <c r="AHC26" s="1"/>
+      <c r="AHD26" s="1"/>
+      <c r="AHE26" s="1"/>
+      <c r="AHF26" s="1"/>
+      <c r="AHG26" s="1"/>
+      <c r="AHH26" s="1"/>
+      <c r="AHI26" s="1"/>
+      <c r="AHJ26" s="1"/>
+      <c r="AHK26" s="1"/>
+      <c r="AHL26" s="1"/>
+      <c r="AHM26" s="1"/>
+      <c r="AHN26" s="1"/>
+      <c r="AHO26" s="1"/>
+      <c r="AHP26" s="1"/>
+      <c r="AHQ26" s="1"/>
+      <c r="AHR26" s="1"/>
+      <c r="AHS26" s="1"/>
+      <c r="AHT26" s="1"/>
+      <c r="AHU26" s="1"/>
+      <c r="AHV26" s="1"/>
+      <c r="AHW26" s="1"/>
+      <c r="AHX26" s="1"/>
+      <c r="AHY26" s="1"/>
+      <c r="AHZ26" s="1"/>
+      <c r="AIA26" s="1"/>
+      <c r="AIB26" s="1"/>
+      <c r="AIC26" s="1"/>
+      <c r="AID26" s="1"/>
+      <c r="AIE26" s="1"/>
+      <c r="AIF26" s="1"/>
+      <c r="AIG26" s="1"/>
+      <c r="AIH26" s="1"/>
+      <c r="AII26" s="1"/>
+      <c r="AIJ26" s="1"/>
+      <c r="AIK26" s="1"/>
+      <c r="AIL26" s="1"/>
+      <c r="AIM26" s="1"/>
+      <c r="AIN26" s="1"/>
+      <c r="AIO26" s="1"/>
+      <c r="AIP26" s="1"/>
+      <c r="AIQ26" s="1"/>
+      <c r="AIR26" s="1"/>
+      <c r="AIS26" s="1"/>
+      <c r="AIT26" s="1"/>
+      <c r="AIU26" s="1"/>
+      <c r="AIV26" s="1"/>
+      <c r="AIW26" s="1"/>
+      <c r="AIX26" s="1"/>
+      <c r="AIY26" s="1"/>
+      <c r="AIZ26" s="1"/>
+      <c r="AJA26" s="1"/>
+      <c r="AJB26" s="1"/>
+      <c r="AJC26" s="1"/>
+      <c r="AJD26" s="1"/>
+      <c r="AJE26" s="1"/>
+      <c r="AJF26" s="1"/>
+      <c r="AJG26" s="1"/>
+      <c r="AJH26" s="1"/>
+      <c r="AJI26" s="1"/>
+      <c r="AJJ26" s="1"/>
+      <c r="AJK26" s="1"/>
+      <c r="AJL26" s="1"/>
+      <c r="AJM26" s="1"/>
+      <c r="AJN26" s="1"/>
+      <c r="AJO26" s="1"/>
+      <c r="AJP26" s="1"/>
+      <c r="AJQ26" s="1"/>
+      <c r="AJR26" s="1"/>
+      <c r="AJS26" s="1"/>
+      <c r="AJT26" s="1"/>
+      <c r="AJU26" s="1"/>
+      <c r="AJV26" s="1"/>
+      <c r="AJW26" s="1"/>
+      <c r="AJX26" s="1"/>
+      <c r="AJY26" s="1"/>
+      <c r="AJZ26" s="1"/>
+      <c r="AKA26" s="1"/>
+      <c r="AKB26" s="1"/>
+      <c r="AKC26" s="1"/>
+      <c r="AKD26" s="1"/>
+      <c r="AKE26" s="1"/>
+      <c r="AKF26" s="1"/>
+      <c r="AKG26" s="1"/>
+      <c r="AKH26" s="1"/>
+      <c r="AKI26" s="1"/>
+      <c r="AKJ26" s="1"/>
+      <c r="AKK26" s="1"/>
+      <c r="AKL26" s="1"/>
+      <c r="AKM26" s="1"/>
+      <c r="AKN26" s="1"/>
+      <c r="AKO26" s="1"/>
+      <c r="AKP26" s="1"/>
+      <c r="AKQ26" s="1"/>
+      <c r="AKR26" s="1"/>
+      <c r="AKS26" s="1"/>
+      <c r="AKT26" s="1"/>
+      <c r="AKU26" s="1"/>
+      <c r="AKV26" s="1"/>
+      <c r="AKW26" s="1"/>
+      <c r="AKX26" s="1"/>
+      <c r="AKY26" s="1"/>
+      <c r="AKZ26" s="1"/>
+      <c r="ALA26" s="1"/>
+      <c r="ALB26" s="1"/>
+      <c r="ALC26" s="1"/>
+      <c r="ALD26" s="1"/>
+      <c r="ALE26" s="1"/>
+      <c r="ALF26" s="1"/>
+      <c r="ALG26" s="1"/>
+      <c r="ALH26" s="1"/>
+      <c r="ALI26" s="1"/>
+      <c r="ALJ26" s="1"/>
+      <c r="ALK26" s="1"/>
+      <c r="ALL26" s="1"/>
+      <c r="ALM26" s="1"/>
+      <c r="ALN26" s="1"/>
+      <c r="ALO26" s="1"/>
+      <c r="ALP26" s="1"/>
+      <c r="ALQ26" s="1"/>
+      <c r="ALR26" s="1"/>
+      <c r="ALS26" s="1"/>
+      <c r="ALT26" s="1"/>
+      <c r="ALU26" s="1"/>
+      <c r="ALV26" s="1"/>
+      <c r="ALW26" s="1"/>
+      <c r="ALX26" s="1"/>
+      <c r="ALY26" s="1"/>
+      <c r="ALZ26" s="1"/>
+      <c r="AMA26" s="1"/>
+      <c r="AMB26" s="1"/>
+      <c r="AMC26" s="1"/>
+      <c r="AMD26" s="1"/>
+      <c r="AME26" s="1"/>
+      <c r="AMF26" s="1"/>
+      <c r="AMG26" s="1"/>
+      <c r="AMH26" s="1"/>
+      <c r="AMI26" s="1"/>
+      <c r="AMJ26" s="1"/>
+      <c r="AMK26" s="1"/>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="4:27">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AA28" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="3:26">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="Z31" s="11" t="s">
+      <c r="D31" s="4"/>
+      <c r="Z31" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8560,7 +8160,7 @@
   <sheetPr/>
   <dimension ref="C2:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -8588,17 +8188,17 @@
       </c>
       <c r="D4" s="3"/>
       <c r="W4" s="1" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:23">
@@ -8611,8 +8211,8 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="6" t="s">
-        <v>230</v>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:23">
@@ -8620,7 +8220,7 @@
         <v>53</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="4:24">
@@ -8628,25 +8228,25 @@
         <v>55</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="4" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="W13" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -8661,32 +8261,32 @@
         <v>62</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
-        <v>236</v>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="W19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="4" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
@@ -8699,31 +8299,31 @@
         <v>70</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="4" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:23">
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4"/>
       <c r="W26" s="1" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="4" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
@@ -8731,17 +8331,213 @@
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5"/>
       <c r="W29" s="1" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AA29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15">
+      <c r="D3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="T4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:20">
+      <c r="C7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="T7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="T13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="4:21">
+      <c r="D14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:21">
+      <c r="D18" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>248</v>
       </c>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20">
+      <c r="C21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="T21" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="T26" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="20230305" sheetId="9" r:id="rId6"/>
     <sheet name="20230312" sheetId="10" r:id="rId7"/>
     <sheet name="20230326" sheetId="11" r:id="rId8"/>
+    <sheet name="20230402" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="287">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3350,6 +3351,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Can you hold the end of this </t>
     </r>
     <r>
@@ -3372,6 +3378,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ kě yǐ ná zhe </t>
     </r>
     <r>
@@ -3406,6 +3417,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  I'm taking some </t>
     </r>
     <r>
@@ -3445,6 +3461,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zhèng zài </t>
     </r>
     <r>
@@ -3504,6 +3525,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  What about measuring the </t>
     </r>
     <r>
@@ -3546,6 +3572,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">and the walls for new </t>
     </r>
     <r>
@@ -3568,6 +3599,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nà zán men bǎ </t>
     </r>
     <r>
@@ -3590,6 +3626,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">huàn shàng xīn de </t>
     </r>
     <r>
@@ -3638,6 +3679,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">use some </t>
     </r>
     <r>
@@ -3663,6 +3709,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">rán hòu </t>
     </r>
     <r>
@@ -3697,6 +3748,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Tomorrow we'll go and pick out some curtains and </t>
     </r>
     <r>
@@ -3722,6 +3778,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">chuāng lián hé </t>
     </r>
     <r>
@@ -3750,6 +3811,447 @@
   </si>
   <si>
     <t>hǎo de</t>
+  </si>
+  <si>
+    <t>You must take care of your receipt</t>
+  </si>
+  <si>
+    <t>A: 如果不合适的话，我能退货吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: If it isn't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suitable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, can i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring it back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> rú guǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bú hé shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de huà ，wǒ néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tuì huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 当然可以，只是你一定要保管好你的收据。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Of course, But you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> take care of your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>receipt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng rán kě yǐ ，zhī shì nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yī dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bǎo guǎn hǎo nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shōu jù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 可以多给我解释一下吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>explain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it more to me?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> kě yǐ duō gěi wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiě shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，如果质量有问题，可以退货。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Ok, it can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>refunden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> if there's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>something wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，rú guǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhì liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu wèn tí ，kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tuì huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 顺便问一下，可以换另一个牌子吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  By the way. May i have another </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>brand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> instead?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shùn biàn wèn yī xià ，kě yǐ huàn lìng yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pái zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 当然了，但你只能调货成同等价位或者</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Certainly, But you can only change it for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>goods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>same</t>
+    </r>
+  </si>
+  <si>
+    <t>较低价位的商品。</t>
+  </si>
+  <si>
+    <r>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or lower.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng rán le ，dàn nǐ zhī néng diào huan chéng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tóng děng jià wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> huò zhě </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jiào dī jià wèi de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shāng pǐn </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我明白了，我买下了。</t>
+  </si>
+  <si>
+    <t>A:  i see, i'll take it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wǒ míng bái le ，wǒ mǎi xià le 。</t>
   </si>
 </sst>
 </file>
@@ -3762,7 +4264,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3813,6 +4315,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -3974,7 +4482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -3988,11 +4496,23 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -4035,18 +4555,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006C3B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -4359,10 +4867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4371,34 +4879,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4410,98 +4915,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4515,6 +5023,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5795,7 +6304,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5868,7 +6377,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="10" t="s">
+      <c r="AA27" s="11" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5878,7 +6387,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8355,7 +8864,7 @@
   <sheetPr/>
   <dimension ref="C2:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -8544,4 +9053,183 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:Z29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="S4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="S7" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="S13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26">
+      <c r="C17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="S19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9084" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="20230312" sheetId="10" r:id="rId7"/>
     <sheet name="20230326" sheetId="11" r:id="rId8"/>
     <sheet name="20230402" sheetId="12" r:id="rId9"/>
+    <sheet name="20230415" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="321">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3820,6 +3821,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: If it isn't </t>
     </r>
     <r>
@@ -3859,6 +3865,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> rú guǒ </t>
     </r>
     <r>
@@ -3901,6 +3912,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Of course, But you </t>
     </r>
     <r>
@@ -3940,6 +3956,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">dāng rán kě yǐ ，zhī shì nǐ </t>
     </r>
     <r>
@@ -3963,6 +3985,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bǎo guǎn hǎo nǐ de </t>
     </r>
     <r>
@@ -3988,6 +4015,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Can you </t>
     </r>
     <r>
@@ -4010,6 +4042,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> kě yǐ duō gěi wǒ </t>
     </r>
     <r>
@@ -4035,6 +4072,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Ok, it can be </t>
     </r>
     <r>
@@ -4074,6 +4116,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，rú guǒ </t>
     </r>
     <r>
@@ -4116,6 +4163,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  By the way. May i have another </t>
     </r>
     <r>
@@ -4138,6 +4190,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shùn biàn wèn yī xià ，kě yǐ huàn lìng yī gè </t>
     </r>
     <r>
@@ -4163,6 +4220,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Certainly, But you can only change it for </t>
     </r>
     <r>
@@ -4197,6 +4259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>price</t>
     </r>
     <r>
@@ -4210,6 +4278,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">dāng rán le ，dàn nǐ zhī néng diào huan chéng </t>
     </r>
     <r>
@@ -4232,6 +4305,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">jiào dī jià wèi de </t>
     </r>
     <r>
@@ -4252,6 +4330,357 @@
   </si>
   <si>
     <t xml:space="preserve"> wǒ míng bái le ，wǒ mǎi xià le 。</t>
+  </si>
+  <si>
+    <t>Down in spirits</t>
+  </si>
+  <si>
+    <t>A: Tommy, 你的情绪好像很低，怎么了？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Tommy, Why are you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>so depressed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tommy, nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qíng xù hǎo xiàng hěn dī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me le</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 没什么，就是觉得有点儿累。</t>
+  </si>
+  <si>
+    <t>B:  oh, nothing, i’m just tried.</t>
+  </si>
+  <si>
+    <t>méi shen me ，jiù shì jue dé yǒu diǎn ér lèi 。</t>
+  </si>
+  <si>
+    <t>A: Tommy，你有什么事情可以和我说。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Come on tommy. You can tell me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy，nǐ yǒu shen me shì qíng  kě yǐ hé wǒ shuō </t>
+  </si>
+  <si>
+    <t>B: 老板给了我特别多的活， 昨天晚上我又干</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: The boss gave me such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a lot of work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to do.</t>
+    </r>
+  </si>
+  <si>
+    <t>到了十点，问题是到现在还没做完呢。</t>
+  </si>
+  <si>
+    <t>I working until 10 o’clock yesterday. And</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lǎo bǎn gěi le wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tè bié duō de huó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， </t>
+    </r>
+  </si>
+  <si>
+    <t>it has not been finished.</t>
+  </si>
+  <si>
+    <t>zuó tiān wǎn shàng wǒ yòu gàn</t>
+  </si>
+  <si>
+    <t>dào le shí diǎn ，wèn tí shì dào xiàn zài hái méi zuò wán ne</t>
+  </si>
+  <si>
+    <t>A: 你为什么不和你的老板谈谈呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Why don’t you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>talk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to you boss?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ wéi shen me bú hé nǐ de lǎo bǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tán tán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我跟他谈了，可他说找不着别人来帮我。</t>
+  </si>
+  <si>
+    <t>B: I have talked to him, but he just said he couldn’t find</t>
+  </si>
+  <si>
+    <t>我对他很生气。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">another person to help me. i’m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>really angry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with him.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ gēn tā tán le ，kě tā shuō zhǎo bú zhao bié rén lái bāng wǒ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ duì tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hěn shēng qì</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 放松点，我相信你的老板知道你工作得多辛苦。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Just relax. I think you boss understands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>how hard you’re working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fàng sōng diǎn ，wǒ xiàng xìn nǐ de lǎo bǎn </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhī dào nǐ gōng zuò dé duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xīn kǔ</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 但愿如此</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I hope so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>dàn yuàn rú cǐ</t>
   </si>
 </sst>
 </file>
@@ -4264,7 +4693,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4295,8 +4724,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -4311,12 +4752,6 @@
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4867,10 +5302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4879,34 +5314,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4918,98 +5350,101 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5024,6 +5459,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5595,6 +6031,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AO31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="U7" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="U13" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="4:22">
+      <c r="D15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="U19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="U22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="4:24">
+      <c r="D23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="U29" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="40:41">
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -5645,7 +6289,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -5680,13 +6324,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -5706,15 +6350,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -5773,7 +6417,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -5840,7 +6484,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -5878,13 +6522,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -5909,7 +6553,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5917,7 +6561,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -5966,7 +6610,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6023,7 +6667,7 @@
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -6057,7 +6701,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -6084,7 +6728,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6092,7 +6736,7 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
@@ -6163,7 +6807,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -6254,7 +6898,7 @@
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -6292,19 +6936,19 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6322,13 +6966,13 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7"/>
-      <c r="W19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -6377,7 +7021,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="11" t="s">
+      <c r="AA27" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6387,7 +7031,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7493,7 +8137,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -7536,10 +8180,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -7562,16 +8206,16 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="7"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -8653,7 +9297,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8714,7 +9358,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -8749,13 +9393,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -8775,15 +9419,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -8842,7 +9486,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -8913,7 +9557,7 @@
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -8947,7 +9591,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -8977,7 +9621,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -8985,10 +9629,10 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -9046,7 +9690,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9060,7 +9704,7 @@
   <sheetPr/>
   <dimension ref="B2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -9103,7 +9747,7 @@
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -9142,7 +9786,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -9156,7 +9800,6 @@
       <c r="B16" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="S16" s="1" t="s">
         <v>276</v>
       </c>
@@ -9168,24 +9811,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="9"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9225,7 +9868,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9084" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="20230326" sheetId="11" r:id="rId8"/>
     <sheet name="20230402" sheetId="12" r:id="rId9"/>
     <sheet name="20230415" sheetId="13" r:id="rId10"/>
+    <sheet name="20230514" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="354">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -4414,6 +4415,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: The boss gave me such </t>
     </r>
     <r>
@@ -4681,6 +4687,349 @@
   </si>
   <si>
     <t>dàn yuàn rú cǐ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What time is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>convenient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for you?</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你好，格林先生，我是Aaron。</t>
+  </si>
+  <si>
+    <t>A: Hello, Mr Green. This is Aaron speaking.</t>
+  </si>
+  <si>
+    <t>nǐ hǎo ，gé lín xiān shēng ，wǒ shì Aaron。</t>
+  </si>
+  <si>
+    <t>B: 你好，亚伦。</t>
+  </si>
+  <si>
+    <t>B: Hi, Aaron.</t>
+  </si>
+  <si>
+    <t>nǐ hǎo ，yà lún 。</t>
+  </si>
+  <si>
+    <t>A: 你想确认一下你的行程表，看看今天是否能和</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I would like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>your schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to see if</t>
+    </r>
+  </si>
+  <si>
+    <t>您见面。</t>
+  </si>
+  <si>
+    <t>i can meet you today.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wo xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>què rèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xing chéng biǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kàn kàn jīn tiān shì fǒu néng hé nín jiàn miàn </t>
+  </si>
+  <si>
+    <t>B: 恐怕我今天要开一整天的产品会议。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>afraid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i will be very much occupied with a </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kǒng pà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ jīn tiān yào kāi yī zhěng tiān de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chǎn </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>production meeting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> today.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pǐn huì yì </t>
+  </si>
+  <si>
+    <t>A:奥，您什么时候方便呢？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Well, what time is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>convenient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for you?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ào ，nín shen me shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fāng biàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 周四早上怎么样？</t>
+  </si>
+  <si>
+    <t>B: How about Thursday morning?</t>
+  </si>
+  <si>
+    <t>zhōu sì zǎo shàng zěn me yàng ？</t>
+  </si>
+  <si>
+    <t>A: 好的。</t>
+  </si>
+  <si>
+    <t>A: Fine.</t>
+  </si>
+  <si>
+    <t>hǎo de 。</t>
+  </si>
+  <si>
+    <t>B: 你可以估计一下我们的会面要多久。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>estimate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> how long our meeting will be?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gū jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià wǒ men de huì miàn yào duō jiǔ </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 大概半小时左右。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>About</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> half an hour or so.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dà gài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bàn xiǎo shí zuǒ yòu </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4737,6 +5086,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4752,12 +5113,6 @@
       <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4914,12 +5269,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5302,10 +5651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5314,34 +5663,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5353,98 +5699,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5460,6 +5809,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6036,8 +6386,8 @@
   <sheetPr/>
   <dimension ref="C2:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6122,7 +6472,7 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="4:22">
       <c r="D15" s="6" t="s">
@@ -6153,7 +6503,7 @@
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="7"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="4:28">
       <c r="D20" s="6" t="s">
@@ -6172,7 +6522,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -6181,7 +6531,7 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="7"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
@@ -6224,9 +6574,233 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>320</v>
       </c>
+    </row>
+    <row r="31" spans="40:41">
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AO31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="3:4">
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="U7" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22">
+      <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="U14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="V15" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="U17" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="6"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="U20" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="4:24">
+      <c r="D22" s="2"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="U23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="U29" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -6324,13 +6898,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -6350,15 +6924,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="7"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -6522,13 +7096,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -6553,7 +7127,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6561,7 +7135,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -6701,7 +7275,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -6728,7 +7302,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6736,7 +7310,7 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
@@ -6936,19 +7510,19 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6966,13 +7540,13 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9"/>
-      <c r="W19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -7021,7 +7595,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AA27" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7031,7 +7605,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8180,10 +8754,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -8206,16 +8780,16 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="7"/>
+      <c r="W22" s="9"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -9393,13 +9967,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -9419,15 +9993,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="7"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -9591,7 +10165,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -9621,7 +10195,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -9629,10 +10203,10 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="7"/>
+      <c r="W19" s="9"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -9786,7 +10360,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="7"/>
+      <c r="V13" s="9"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -9811,24 +10385,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="8"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="7"/>
+      <c r="V19" s="9"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="7" t="s">
         <v>281</v>
       </c>
     </row>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="20230402" sheetId="12" r:id="rId9"/>
     <sheet name="20230415" sheetId="13" r:id="rId10"/>
     <sheet name="20230514" sheetId="14" r:id="rId11"/>
+    <sheet name="20230521" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="404">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -4690,6 +4691,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">What time is </t>
     </r>
     <r>
@@ -4733,6 +4739,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: I would like to </t>
     </r>
     <r>
@@ -4778,6 +4789,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wo xiǎng </t>
     </r>
     <r>
@@ -4823,6 +4839,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: I am </t>
     </r>
     <r>
@@ -4845,6 +4866,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>kǒng pà</t>
     </r>
     <r>
@@ -4867,6 +4894,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>production meeting</t>
     </r>
     <r>
@@ -4886,6 +4919,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Well, what time is </t>
     </r>
     <r>
@@ -4908,6 +4946,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ào ，nín shen me shí hòu </t>
     </r>
     <r>
@@ -4951,6 +4994,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Can you </t>
     </r>
     <r>
@@ -4973,6 +5021,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ kě yǐ </t>
     </r>
     <r>
@@ -4998,6 +5051,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: </t>
     </r>
     <r>
@@ -5020,6 +5078,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> dà gài</t>
     </r>
     <r>
@@ -5030,6 +5094,471 @@
       </rPr>
       <t xml:space="preserve"> bàn xiǎo shí zuǒ yòu </t>
     </r>
+  </si>
+  <si>
+    <t>Moving into A new house.</t>
+  </si>
+  <si>
+    <t>A:  这地方不错，但是你需要一些家具。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:This is a nice place, but you need to get some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>furniture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè dì fāng bú cuò ，dàn shì nǐ xū yào yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiā jù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我原先是这样计划的，从我住的地方</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  I had planned to. i can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> some from my place,</t>
+    </r>
+  </si>
+  <si>
+    <t>搬一些过来，然后我父母那还有一些。</t>
+  </si>
+  <si>
+    <t>And there's some more at my parents'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yuán xiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shì zhè yàng jì huá de ，cóng wǒ zhù de dì fāng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xiē guò lái ，rán hòu wǒ fù mǔ nà hái yǒu yī xiē 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你有床吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Do you have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nǐ yóu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chuáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">窗 chuāng </t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>B: 当然有了， 我的老房子里有一张床，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Of course, i have. There is one my old house and i have </t>
+  </si>
+  <si>
+    <t>我父母家还有一张床。</t>
+  </si>
+  <si>
+    <t>another one from my parent's house.</t>
+  </si>
+  <si>
+    <t>dāng rán yǒu le ， wǒ de lǎo fáng zǐ lǐ yǒu yī zhāng chuáng ，</t>
+  </si>
+  <si>
+    <t>wǒ fù mǔ jiā hái yǒu yī zhāng chuáng 。</t>
+  </si>
+  <si>
+    <t>A: 很好啊， 你可以在这个房间放一张，</t>
+  </si>
+  <si>
+    <t>A:  That's good, you can put one in this room and put</t>
+  </si>
+  <si>
+    <t>在那间房间也放一张。</t>
+  </si>
+  <si>
+    <t>the other one in that room.</t>
+  </si>
+  <si>
+    <t>hěn hǎo ā ， nǐ kě yǐ zài zhè gè fáng jiān fàng yī zhāng ，</t>
+  </si>
+  <si>
+    <t>zài nà jiān fáng jiān yě fàng yī zhāng 。</t>
+  </si>
+  <si>
+    <t>B: 是啊， 是个好注意。如果你愿意的话，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  Yeah, it's a good idea, you can stay in my house for </t>
+  </si>
+  <si>
+    <t>你还可以在我家过夜呢。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the night if you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>would like to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì ā ， shì gè hǎo zhù yì 。rú guǒ nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yuàn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de huà ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hái kě yǐ zài wǒ jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>guò yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ne </t>
+    </r>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>A: 好啊， 顺便问一下， 我可以洗澡吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Yeah, by the way, can i take a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo ā ， shùn biàn wèn yī xià ， wǒ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xǐ zǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:当然可以， 可惜还没有热水。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Sure, but i don't have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hot water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dāng rán kě yǐ ， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kě xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hái méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rè shuǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>but, and need do more, may be can get it.</t>
+  </si>
+  <si>
+    <t>A:真的吗？</t>
+  </si>
+  <si>
+    <t>A  Really?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: 是啊， 他们明天才能帮我把煤气接上， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: No, they're coming tomorrow morning to </t>
+  </si>
+  <si>
+    <t>电话也是那时才能用。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">turn the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on, My phone should be working then too.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì ā ， tā men míng tiān cái néng bāng wǒ bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi qì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jiē shàng ，</t>
+    </r>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>diàn huà yě shì nà shí cái néng yòng 。</t>
   </si>
 </sst>
 </file>
@@ -6594,7 +7123,7 @@
   <sheetPr/>
   <dimension ref="B2:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -6620,7 +7149,6 @@
       <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="U4" s="1" t="s">
         <v>323</v>
@@ -6639,7 +7167,6 @@
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="6"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
@@ -6655,7 +7182,6 @@
       <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="U10" s="1" t="s">
         <v>329</v>
       </c>
@@ -6664,7 +7190,6 @@
       <c r="C11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="V11" s="1" t="s">
         <v>331</v>
       </c>
@@ -6754,7 +7279,6 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="V23" s="1"/>
       <c r="X23" s="9"/>
     </row>
     <row r="24" spans="3:21">
@@ -6771,7 +7295,6 @@
       <c r="B26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="U26" s="1" t="s">
         <v>349</v>
@@ -6790,7 +7313,6 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="6"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
@@ -6805,6 +7327,283 @@
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AT38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="W7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
+      <c r="C8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="X8" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="W14" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="9"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23">
+      <c r="C18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="W18" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="W22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC22" s="9"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC23" s="9"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:24">
+      <c r="D25" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="W26" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="W29" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="7"/>
+      <c r="D30" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="10:46">
+      <c r="J31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+    </row>
+    <row r="32" spans="3:23">
+      <c r="C32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23">
+      <c r="C35" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24">
+      <c r="D36" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28">
+      <c r="D37" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="20230415" sheetId="13" r:id="rId10"/>
     <sheet name="20230514" sheetId="14" r:id="rId11"/>
     <sheet name="20230521" sheetId="15" r:id="rId12"/>
+    <sheet name="20230528" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="441">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -5103,6 +5104,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:This is a nice place, but you need to get some </t>
     </r>
     <r>
@@ -5125,6 +5131,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">zhè dì fāng bú cuò ，dàn shì nǐ xū yào yī xiē </t>
     </r>
     <r>
@@ -5150,6 +5161,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  I had planned to. i can </t>
     </r>
     <r>
@@ -5178,6 +5194,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ </t>
     </r>
     <r>
@@ -5200,6 +5221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>bān</t>
     </r>
     <r>
@@ -5216,6 +5243,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Do you have a </t>
     </r>
     <r>
@@ -5238,6 +5270,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> nǐ yóu </t>
     </r>
     <r>
@@ -5311,6 +5348,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">the night if you </t>
     </r>
     <r>
@@ -5333,6 +5375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì ā ， shì gè hǎo zhù yì 。rú guǒ nǐ </t>
     </r>
     <r>
@@ -5356,6 +5404,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ hái kě yǐ zài wǒ jiā </t>
     </r>
     <r>
@@ -5385,6 +5439,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Yeah, by the way, can i take a </t>
     </r>
     <r>
@@ -5407,6 +5466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo ā ， shùn biàn wèn yī xià ， wǒ kě yǐ </t>
     </r>
     <r>
@@ -5433,6 +5498,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Sure, but i don't have </t>
     </r>
     <r>
@@ -5455,6 +5525,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dāng rán kě yǐ ， </t>
     </r>
     <r>
@@ -5512,6 +5587,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">turn the </t>
     </r>
     <r>
@@ -5534,6 +5614,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì ā ， tā men míng tiān cái néng bāng wǒ bǎ </t>
     </r>
     <r>
@@ -5559,6 +5644,450 @@
   </si>
   <si>
     <t>diàn huà yě shì nà shí cái néng yòng 。</t>
+  </si>
+  <si>
+    <t>Power Failure</t>
+  </si>
+  <si>
+    <t>A:  Sellers 先生， 我是你的住户 Steven，我们</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Mr Sellers, it's Steven speaking, your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tenant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>这里刚停电了，我应该怎么办？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We've just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suffered a power failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. What should</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sellers xiān shēng ， wǒ shì nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhù hù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Steven，wǒ men </t>
+    </r>
+  </si>
+  <si>
+    <t>i do?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè lǐ gāng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tíng diàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ，wǒ yīng gāi zěn me bàn ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Steven， 你有没有手电筒？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Alright, Steven, Do you have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flashlight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steven， nǐ yǒu méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shǒu diàn tǒng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 有的。</t>
+  </si>
+  <si>
+    <t>A: Yes, i do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yǒu de 。</t>
+  </si>
+  <si>
+    <t>B: 好的， 现在去地下室找电箱，打开看看保险丝</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Okay, now go down to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>basement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and find the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>circuit box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>有没有断。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open it and check if there are any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fuses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> blown out.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ， xiàn zài qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dì xià shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zhǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>diàn xiāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，dǎ kāi kàn kàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bǎo xiǎn sī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>yǒu méi yǒu duàn 。</t>
+  </si>
+  <si>
+    <t>A: 如何知道保险丝断了？</t>
+  </si>
+  <si>
+    <t>A:  How do i know if it's blown out?</t>
+  </si>
+  <si>
+    <t>rú hé zhī dào bǎo xiǎn sī duàn le ？</t>
+  </si>
+  <si>
+    <t>B:保险丝是黑色的，闻起来有焦味。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You'll see it's black and has burned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>smell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bǎo xiǎn sī shì hēi sè de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wén qǐ lái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu jiāo wèi 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 接下来我要做什么？</t>
+  </si>
+  <si>
+    <t>A:  Then what should i do?</t>
+  </si>
+  <si>
+    <t>jiē xià lái wǒ yào zuò shen me ？</t>
+  </si>
+  <si>
+    <t>B:取下断了的，在换上好的。你可以在架子上找到好的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>unscrew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the burnt fuses and replace them with the good ones.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>qǔ xià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> duàn le de ，zài huàn shàng hǎo de 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">you can find them on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ kě yǐ zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jià zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shàng zhǎo dào hǎo de.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好的，我现在试试看，有问题在给你打电话。</t>
+  </si>
+  <si>
+    <t>A:  Okay, i'll try, i'll call you if it doesn't work.</t>
+  </si>
+  <si>
+    <t>hǎo de ，wǒ xiàn zài shì shì kàn ，yǒu wèn tí zài gěi nǐ dǎ diàn huà</t>
   </si>
 </sst>
 </file>
@@ -5571,7 +6100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5622,6 +6151,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -5801,13 +6342,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -5822,12 +6369,6 @@
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6180,10 +6721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6192,37 +6733,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6231,98 +6766,104 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6339,6 +6880,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7001,7 +7544,7 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="9"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="4:22">
       <c r="D15" s="6" t="s">
@@ -7032,7 +7575,7 @@
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="4:28">
       <c r="D20" s="6" t="s">
@@ -7051,7 +7594,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -7060,7 +7603,7 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
@@ -7103,7 +7646,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7215,7 +7758,7 @@
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="9"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="3:22">
       <c r="C15" s="7" t="s">
@@ -7249,7 +7792,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="6"/>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
@@ -7269,7 +7812,7 @@
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="9"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -7279,7 +7822,7 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4" t="s">
@@ -7322,7 +7865,7 @@
       <c r="C30" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -7340,7 +7883,7 @@
   <sheetPr/>
   <dimension ref="C2:AT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -7438,7 +7981,7 @@
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="9"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="7"/>
@@ -7477,7 +8020,7 @@
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="9"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6" t="s">
@@ -7498,7 +8041,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="9"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -7507,7 +8050,7 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="9"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
@@ -7604,6 +8147,231 @@
       <c r="D38" s="1" t="s">
         <v>403</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AT31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="C4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="X4" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:25">
+      <c r="D5" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="4:25">
+      <c r="D6" s="5"/>
+      <c r="E6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="6"/>
+      <c r="E7" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
+      <c r="C8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="X8" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="C11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="X14" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="X18" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="6"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="X21" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC22" s="11"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2"/>
+      <c r="AC23" s="11"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="X24" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="X27" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25">
+      <c r="D28" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="X30" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="4:46">
+      <c r="D31" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7697,13 +8465,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -7723,15 +8491,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -7895,13 +8663,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -7926,7 +8694,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7934,7 +8702,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="13"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -8074,7 +8842,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -8101,7 +8869,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8109,7 +8877,7 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="13"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
@@ -8309,19 +9077,19 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8339,13 +9107,13 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="11"/>
-      <c r="W19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -8394,7 +9162,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="13" t="s">
+      <c r="AA27" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8404,7 +9172,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9553,10 +10321,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -9579,16 +10347,16 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="12"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -10766,13 +11534,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -10792,15 +11560,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -10964,7 +11732,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -10994,7 +11762,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -11002,10 +11770,10 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -11159,7 +11927,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="9"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -11184,17 +11952,17 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="9"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="20230514" sheetId="14" r:id="rId11"/>
     <sheet name="20230521" sheetId="15" r:id="rId12"/>
     <sheet name="20230528" sheetId="16" r:id="rId13"/>
+    <sheet name="20230611" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="485">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -5653,6 +5654,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Mr Sellers, it's Steven speaking, your </t>
     </r>
     <r>
@@ -5678,6 +5684,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">We've just </t>
     </r>
     <r>
@@ -5700,6 +5711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Sellers xiān shēng ， wǒ shì nǐ de </t>
     </r>
     <r>
@@ -5725,6 +5741,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè lǐ gāng </t>
     </r>
     <r>
@@ -5750,6 +5771,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Alright, Steven, Do you have a </t>
     </r>
     <r>
@@ -5772,6 +5798,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Steven， nǐ yǒu méi yǒu </t>
     </r>
     <r>
@@ -5806,6 +5837,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Okay, now go down to the </t>
     </r>
     <r>
@@ -5848,6 +5884,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Open it and check if there are any </t>
     </r>
     <r>
@@ -5870,6 +5911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ， xiàn zài qù </t>
     </r>
     <r>
@@ -5944,6 +5991,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: You'll see it's black and has burned </t>
     </r>
     <r>
@@ -5966,6 +6018,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>bǎo xiǎn sī shì hēi sè de ，</t>
     </r>
     <r>
@@ -6001,6 +6059,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  </t>
     </r>
     <r>
@@ -6023,6 +6086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>qǔ xià</t>
     </r>
     <r>
@@ -6037,6 +6106,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">you can find them on the </t>
     </r>
     <r>
@@ -6059,6 +6133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ kě yǐ zài </t>
     </r>
     <r>
@@ -6088,6 +6168,365 @@
   </si>
   <si>
     <t>hǎo de ，wǒ xiàn zài shì shì kàn ，yǒu wèn tí zài gěi nǐ dǎ diàn huà</t>
+  </si>
+  <si>
+    <t>Go for a run</t>
+  </si>
+  <si>
+    <t>A: Hey, Tom, 去跑步怎么样？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Hey, Tom, want to go for a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Hey, Tom, qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pǎo bù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zěn me yàng ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:不了，谢谢。我喜欢在早上跑步，今天起床后</t>
+  </si>
+  <si>
+    <t>B: No, thanks, i like to run in the morning,</t>
+  </si>
+  <si>
+    <t>我跑了几公里了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i ran a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>couple of KM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when i woke up today.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">bú le ，xiè xiè 。wǒ xǐ huān zài zǎo shàng pǎo bù ，jīn tiān qǐ chuáng hòu </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ pǎo le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jǐ gōng lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>A: 我也试着这样做，可是我起的不够早。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> do that, but i can't get up early </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> wǒ yě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shì zhe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zhè yàng zuò ，kě shì wǒ qǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bú gòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zǎo </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 一开始我也不行，可是慢慢会习惯的。</t>
+  </si>
+  <si>
+    <t>B: i couldn't either at first, but you get used to it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> yī kāi shǐ wǒ yě bú xi2ng ，kě shì màn màn huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xí guàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
+  </si>
+  <si>
+    <t>habit</t>
+  </si>
+  <si>
+    <t>slowly and slowly</t>
+  </si>
+  <si>
+    <t>A： 中午的时候太热了，我宁愿早上跑步。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  It's so hot at lunchtime, i'd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rather</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> run in the morning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhōng wǔ de shí hòu tài rè le ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>níng yuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zǎo shàng pǎo bù 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:你为什么不明天早上来呢？我出去的时候</t>
+  </si>
+  <si>
+    <t>B: Well, why don't you come tomorrow?</t>
+  </si>
+  <si>
+    <t>顺便经过你家。</t>
+  </si>
+  <si>
+    <t>i'll stop by your house on my way out.</t>
+  </si>
+  <si>
+    <t>nǐ wéi shen me bú míng tiān zǎo shàng lái ne ？wǒ chū qù de shí hòu</t>
+  </si>
+  <si>
+    <t>shùn biàn jīng guò nǐ jiā 。</t>
+  </si>
+  <si>
+    <t>A: 我尽力，但是不能保证一定可以准时起床，</t>
+  </si>
+  <si>
+    <t>A:  i could try, but i can't say for sure if i'll get up</t>
+  </si>
+  <si>
+    <t>你想几点钟去？</t>
+  </si>
+  <si>
+    <t>in time, What time do you want to go?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ jìn lì ，dàn shì bú néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī dìng kě yǐ zhǔn shí qǐ chuáng ，</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ xiǎng jǐ diǎn zhōng qù ？</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>in time</t>
+  </si>
+  <si>
+    <t>B:六点的时候我给你打个电话，大约六点半的时候</t>
+  </si>
+  <si>
+    <t>i'll give you a call around 6 and stop by around 6:30</t>
+  </si>
+  <si>
+    <t>我经过你这儿。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liù diǎn de shí hòu wǒ gěi nǐ dǎ gè diàn huà ，dà yuē liù diǎn bàn de shí hòu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ jīng guò nǐ zhè ér </t>
+  </si>
+  <si>
+    <t>A: 好的， 到时候见。</t>
+  </si>
+  <si>
+    <t>A:  Great , i'll see you then.</t>
+  </si>
+  <si>
+    <t>hǎo de ， dào shí hòu jiàn</t>
   </si>
 </sst>
 </file>
@@ -8160,8 +8599,8 @@
   <sheetPr/>
   <dimension ref="C2:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -8361,7 +8800,6 @@
       <c r="C30" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="X30" s="1" t="s">
         <v>439</v>
       </c>
@@ -8372,6 +8810,256 @@
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AT33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24">
+      <c r="D8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="D10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="W14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="P16" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="W17" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="6"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="3:33">
+      <c r="C20" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="W20" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="4:24">
+      <c r="D21" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC22" s="11"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC23" s="11"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="W24" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:24">
+      <c r="D25" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21">
+      <c r="D27" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23">
+      <c r="C28" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="W28" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="10"/>
+      <c r="D30" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="4:46">
+      <c r="D31" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+    </row>
+    <row r="32" spans="3:23">
+      <c r="C32" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>484</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="13"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="20230521" sheetId="15" r:id="rId12"/>
     <sheet name="20230528" sheetId="16" r:id="rId13"/>
     <sheet name="20230611" sheetId="17" r:id="rId14"/>
+    <sheet name="20230618" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="514">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -6177,6 +6178,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:Hey, Tom, want to go for a </t>
     </r>
     <r>
@@ -6199,6 +6205,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">A: Hey, Tom, qù </t>
     </r>
     <r>
@@ -6230,6 +6241,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i ran a </t>
     </r>
     <r>
@@ -6255,6 +6271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ pǎo le </t>
     </r>
     <r>
@@ -6283,6 +6304,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  i </t>
     </r>
     <r>
@@ -6322,6 +6348,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> wǒ yě </t>
     </r>
     <r>
@@ -6367,6 +6398,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> yī kāi shǐ wǒ yě bú xi2ng ，kě shì màn màn huì </t>
     </r>
     <r>
@@ -6399,6 +6436,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  It's so hot at lunchtime, i'd </t>
     </r>
     <r>
@@ -6421,6 +6463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">zhōng wǔ de shí hòu tài rè le ，wǒ </t>
     </r>
     <r>
@@ -6474,6 +6522,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǒ jìn lì ，dàn shì bú néng </t>
     </r>
     <r>
@@ -6527,6 +6581,325 @@
   </si>
   <si>
     <t>hǎo de ， dào shí hòu jiàn</t>
+  </si>
+  <si>
+    <t>You watch too much TV</t>
+  </si>
+  <si>
+    <t>A: 这个汤非常美味， jack? Jack!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:This </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>soup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is delicious, Jack? Jack!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> zhè gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> fēi cháng měi wèi ， jack? Jack!</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 对不起， 你刚才说什么？</t>
+  </si>
+  <si>
+    <t>B: i'm sorry, what were you saying?</t>
+  </si>
+  <si>
+    <t>duì bú qǐ ， nǐ gāng cái shuō shen me ？</t>
+  </si>
+  <si>
+    <t>just now</t>
+  </si>
+  <si>
+    <t>A: 我认为你看太多电视了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  i think you watch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> too much.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ rèn wéi nǐ kàn tài duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>diàn shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 不， 我很少看电视。</t>
+  </si>
+  <si>
+    <t>B: No, i hardly ever watch TV.</t>
+  </si>
+  <si>
+    <t>bú ， wǒ hěn shǎo kàn diàn shì 。</t>
+  </si>
+  <si>
+    <t>A: 你总是在手里拿着遥控器。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  You always have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>remote control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in your hands.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zǒng shì zài shǒu lǐ ná zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yáo kòng qì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 不， 我是时候会在手里拿着报纸。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  No, i sometimes have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>newspaper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in my hand.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú ， wǒ you shí hòu huì zài shǒu lǐ ná zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bào zhǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 而且， 你总是在电视前吃晚饭，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Also, you alway </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>have dinner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in front of the TV. </t>
+    </r>
+  </si>
+  <si>
+    <t>什么时候我和你谈话？你从来不和我谈话。</t>
+  </si>
+  <si>
+    <t>when do you talk me? you never talk.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ér qiě ， nǐ zǒng shì zài diàn shì qián chī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wǎn fàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>shen me shí hòu wǒ hé nǐ tán huà， nǐ cóng lái bú hé wǒ tán huà 。</t>
+  </si>
+  <si>
+    <t>B: 不， 我和你谈话， 在广告时我和你说话。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, i do. i talk with you during the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>commercials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bú ， wǒ hé nǐ tán huà ， zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guǎng gào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shí wǒ hé nǐ shuō huà 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6589,12 +6962,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -6608,6 +6975,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -7983,7 +8356,7 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="11"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="4:22">
       <c r="D15" s="6" t="s">
@@ -8014,7 +8387,7 @@
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="4:28">
       <c r="D20" s="6" t="s">
@@ -8033,7 +8406,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -8042,7 +8415,7 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
@@ -8085,7 +8458,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8197,19 +8570,19 @@
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="11"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="3:22">
       <c r="C15" s="7" t="s">
         <v>336</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="V15" s="8" t="s">
+      <c r="V15" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -8231,7 +8604,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="6"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
@@ -8251,7 +8624,7 @@
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="11"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -8261,7 +8634,7 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4" t="s">
@@ -8304,7 +8677,7 @@
       <c r="C30" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -8420,7 +8793,7 @@
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="7"/>
@@ -8430,10 +8803,10 @@
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -8459,7 +8832,7 @@
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6" t="s">
@@ -8480,7 +8853,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -8489,7 +8862,7 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
@@ -8695,7 +9068,7 @@
         <v>419</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="7"/>
@@ -8705,10 +9078,10 @@
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -8731,7 +9104,7 @@
       <c r="D19" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6"/>
@@ -8750,11 +9123,11 @@
       <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -8784,7 +9157,7 @@
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -8797,7 +9170,7 @@
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -8823,7 +9196,7 @@
   <sheetPr/>
   <dimension ref="C2:AT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8867,7 +9240,6 @@
         <v>445</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -8917,9 +9289,8 @@
       <c r="W14" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="X14" s="1"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="7"/>
@@ -8929,10 +9300,10 @@
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -8954,7 +9325,7 @@
     </row>
     <row r="19" spans="4:28">
       <c r="D19" s="6"/>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
@@ -8978,13 +9349,13 @@
       <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -8994,7 +9365,6 @@
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="X24" s="1"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:24">
@@ -9025,7 +9395,7 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="8"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
@@ -9036,7 +9406,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -9060,6 +9430,208 @@
       <c r="D33" s="1" t="s">
         <v>484</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AT31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
+      <c r="C4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="T4" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:20">
+      <c r="C7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="T7" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:20">
+      <c r="C13" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="T13" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29">
+      <c r="D14" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="3:20">
+      <c r="C16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="T16" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:28">
+      <c r="C19" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="T19" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="T22" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="T26" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="45:46">
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9153,13 +9725,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -9187,7 +9759,7 @@
       <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -9351,13 +9923,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -9530,7 +10102,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -9765,13 +10337,13 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
@@ -9801,7 +10373,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="13"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -11009,10 +11581,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="11"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -11044,7 +11616,7 @@
       <c r="D22" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="11"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -12222,13 +12794,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -12256,7 +12828,7 @@
       <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -12420,7 +12992,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -12461,7 +13033,7 @@
       <c r="D19" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -12615,7 +13187,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="11"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -12650,7 +13222,7 @@
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="11"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="20230528" sheetId="16" r:id="rId13"/>
     <sheet name="20230611" sheetId="17" r:id="rId14"/>
     <sheet name="20230618" sheetId="18" r:id="rId15"/>
+    <sheet name="20230624" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="552">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -6590,6 +6591,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:This </t>
     </r>
     <r>
@@ -6612,6 +6618,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> zhè gè </t>
     </r>
     <r>
@@ -6649,6 +6660,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  i think you watch </t>
     </r>
     <r>
@@ -6671,6 +6687,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ rèn wéi nǐ kàn tài duō </t>
     </r>
     <r>
@@ -6705,6 +6726,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  You always have a </t>
     </r>
     <r>
@@ -6727,6 +6753,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ zǒng shì zài shǒu lǐ ná zhe </t>
     </r>
     <r>
@@ -6753,6 +6785,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  No, i sometimes have a </t>
     </r>
     <r>
@@ -6775,6 +6812,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bú ， wǒ you shí hòu huì zài shǒu lǐ ná zhe </t>
     </r>
     <r>
@@ -6801,6 +6844,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Also, you alway </t>
     </r>
     <r>
@@ -6829,6 +6877,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ér qiě ， nǐ zǒng shì zài diàn shì qián chī </t>
     </r>
     <r>
@@ -6858,6 +6912,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yes, i do. i talk with you during the </t>
     </r>
     <r>
@@ -6880,6 +6939,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bú ， wǒ hé nǐ tán huà ， zài </t>
     </r>
     <r>
@@ -6900,6 +6965,456 @@
       </rPr>
       <t xml:space="preserve"> shí wǒ hé nǐ shuō huà 。</t>
     </r>
+  </si>
+  <si>
+    <t>Buying A house.</t>
+  </si>
+  <si>
+    <t>A: Julia, 我今天看的房子相当不错。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Julia, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apartment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i looked at today is pretty decent,</t>
+    </r>
+  </si>
+  <si>
+    <t>大概有120平米。</t>
+  </si>
+  <si>
+    <r>
+      <t>around 120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m²</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julia, wǒ jīn tiān kàn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fáng zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xiàng dāng bú cuò 。</t>
+    </r>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <r>
+      <t>dà gài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu 120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>píng mǐ</t>
+    </r>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>ping fang mi</t>
+  </si>
+  <si>
+    <t>li fang mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ci fang mi </t>
+  </si>
+  <si>
+    <t>5 ci fang mi</t>
+  </si>
+  <si>
+    <t>B: 好啊。 房子在哪里呀？</t>
+  </si>
+  <si>
+    <t>B: Great, Where is it?</t>
+  </si>
+  <si>
+    <t>hǎo ā 。 fáng zǐ zài nǎ lǐ ya ？</t>
+  </si>
+  <si>
+    <t>A: 100到120平米， 两个卧室，</t>
+  </si>
+  <si>
+    <r>
+      <t>A; A new two-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bedroom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> apartment around 100 to 120m²</t>
+    </r>
+  </si>
+  <si>
+    <t>皇后区的新房子。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Queens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100dào 120píng mǐ ， liǎng gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wò shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>huáng hòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> qū de xīn fáng zǐ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 周围环境怎么样？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: What about the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>surrounding area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>zhōu wéi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>huán jìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zěn me yàng ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 很安静， 治安很好，而且绿化也很棒。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; Very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quiet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>safe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and it's got a lot of trees and plants.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ān jìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhì ān hěn hǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě lǜ huà yě hěn bàng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:很好啊，交通便利吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: That's good, is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>location easily accessible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hěn hǎo ā ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiāo tōng biàn lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 便利，挨着公交车站。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Yeah, it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>near</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a bus stop.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>biàn lì ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>āi zhe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gōng jiāo chē zhàn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好， 也许我们可以买下这个房子。</t>
+  </si>
+  <si>
+    <t>B: Well, maybe we can buy this one then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo ， yě xǔ wǒ men kě yǐ mǎi xià zhè gè fáng zǐ </t>
   </si>
 </sst>
 </file>
@@ -6943,20 +7458,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -6981,6 +7496,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -7160,21 +7687,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7533,10 +8048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7545,37 +8060,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7584,98 +8093,104 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7694,6 +8209,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8307,13 +8824,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
@@ -8359,7 +8876,7 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -8383,20 +8900,20 @@
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>307</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
@@ -8419,7 +8936,7 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>312</v>
       </c>
       <c r="U24" s="2"/>
@@ -8439,7 +8956,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8452,7 +8969,7 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
@@ -8516,13 +9033,13 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -8573,10 +9090,10 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="V15" s="11" t="s">
         <v>337</v>
       </c>
@@ -8603,14 +9120,14 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
@@ -8620,7 +9137,7 @@
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
@@ -8640,7 +9157,7 @@
       <c r="C24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
@@ -8659,7 +9176,7 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="2"/>
@@ -8668,13 +9185,13 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="13" t="s">
         <v>353</v>
       </c>
       <c r="D30" s="10"/>
@@ -8732,13 +9249,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -8758,7 +9275,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8796,8 +9313,8 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="7" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -8826,7 +9343,7 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -8835,13 +9352,13 @@
       <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>379</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8866,7 +9383,7 @@
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>385</v>
       </c>
       <c r="Z24" s="2"/>
@@ -8889,7 +9406,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8900,13 +9417,13 @@
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -9012,7 +9529,7 @@
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1" t="s">
         <v>409</v>
       </c>
@@ -9021,7 +9538,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -9041,7 +9558,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -9071,8 +9588,8 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="7" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -9101,20 +9618,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>426</v>
       </c>
       <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
@@ -9133,7 +9650,7 @@
       <c r="C24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
@@ -9151,7 +9668,7 @@
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
@@ -9165,7 +9682,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9233,13 +9750,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -9293,8 +9810,8 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="7" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -9324,21 +9841,21 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -9361,7 +9878,7 @@
       <c r="C24" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
@@ -9381,7 +9898,7 @@
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -9401,7 +9918,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>479</v>
       </c>
     </row>
@@ -9443,7 +9960,7 @@
   <sheetPr/>
   <dimension ref="C2:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9480,13 +9997,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
@@ -9505,7 +10022,6 @@
       <c r="C10" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="T10" s="1" t="s">
         <v>494</v>
       </c>
@@ -9535,8 +10051,8 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:20">
@@ -9560,20 +10076,20 @@
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
       <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>504</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
@@ -9596,7 +10112,7 @@
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>509</v>
       </c>
       <c r="Z24" s="2"/>
@@ -9616,7 +10132,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>513</v>
       </c>
     </row>
@@ -9624,7 +10140,241 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="45:46">
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:AMP31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18">
+      <c r="C4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="R4" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:19">
+      <c r="D5" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="2:41">
+      <c r="B7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="R8" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29">
+      <c r="D14" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="R15" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="R18" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="7"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="C21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="R21" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="R24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="C27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="R27" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="9"/>
@@ -9690,7 +10440,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -9751,12 +10501,12 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>65</v>
       </c>
       <c r="W19" s="10"/>
@@ -9818,7 +10568,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -9885,7 +10635,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -9954,7 +10704,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9962,7 +10712,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -10011,7 +10761,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10068,7 +10818,7 @@
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -10129,7 +10879,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10137,7 +10887,7 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
@@ -10208,7 +10958,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -10299,7 +11049,7 @@
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -10349,7 +11099,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10367,12 +11117,12 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="13"/>
+      <c r="D19" s="15"/>
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:27">
@@ -10422,7 +11172,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="15" t="s">
+      <c r="AA27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
@@ -10432,7 +11182,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -11538,7 +12288,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -11607,13 +12357,13 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>213</v>
       </c>
       <c r="W22" s="10"/>
@@ -12698,7 +13448,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12759,7 +13509,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -12820,12 +13570,12 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>65</v>
       </c>
       <c r="W19" s="10"/>
@@ -12887,7 +13637,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -12958,7 +13708,7 @@
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -13022,7 +13772,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -13030,7 +13780,7 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>249</v>
       </c>
       <c r="W19" s="10"/>
@@ -13091,7 +13841,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13148,7 +13898,7 @@
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -13212,13 +13962,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="15"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
@@ -13229,7 +13979,7 @@
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -13269,7 +14019,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="15"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="20230611" sheetId="17" r:id="rId14"/>
     <sheet name="20230618" sheetId="18" r:id="rId15"/>
     <sheet name="20230624" sheetId="19" r:id="rId16"/>
+    <sheet name="20230702" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="589">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -6974,6 +6975,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Julia, the </t>
     </r>
     <r>
@@ -6999,6 +7005,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>around 120</t>
     </r>
     <r>
@@ -7013,6 +7024,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Julia, wǒ jīn tiān kàn de </t>
     </r>
     <r>
@@ -7038,6 +7054,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>dà gài</t>
     </r>
     <r>
@@ -7088,6 +7110,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>A; A new two-</t>
     </r>
     <r>
@@ -7113,6 +7140,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">in </t>
     </r>
     <r>
@@ -7135,6 +7167,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">100dào 120píng mǐ ， liǎng gè </t>
     </r>
     <r>
@@ -7157,6 +7194,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>huáng hòu</t>
     </r>
     <r>
@@ -7173,6 +7216,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: What about the </t>
     </r>
     <r>
@@ -7198,6 +7246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>zhōu wéi</t>
     </r>
     <r>
@@ -7233,6 +7287,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A; Very </t>
     </r>
     <r>
@@ -7272,6 +7331,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hěn </t>
     </r>
     <r>
@@ -7316,6 +7381,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: That's good, is the </t>
     </r>
     <r>
@@ -7338,6 +7408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>hěn hǎo ā ，</t>
     </r>
     <r>
@@ -7364,6 +7440,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Yeah, it's </t>
     </r>
     <r>
@@ -7386,6 +7467,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t>biàn lì ，</t>
     </r>
     <r>
@@ -7415,6 +7502,375 @@
   </si>
   <si>
     <t xml:space="preserve">hǎo ， yě xǔ wǒ men kě yǐ mǎi xià zhè gè fáng zǐ </t>
+  </si>
+  <si>
+    <t>Developing Business Skills</t>
+  </si>
+  <si>
+    <t>A:  你去哪里？</t>
+  </si>
+  <si>
+    <t>A: where are you going?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nǐ qù nǎ lǐ ？</t>
+  </si>
+  <si>
+    <t>B: 今天是星期二，我星期二晚上经常</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: it's Tuesday today, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> go to my class on </t>
+    </r>
+  </si>
+  <si>
+    <t>要去上课。</t>
+  </si>
+  <si>
+    <t>Tuesday night.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jīn tiān shì xīng qī èr ，wǒ xīng qī èr wǎn shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jīng cháng</t>
+    </r>
+  </si>
+  <si>
+    <t>yào qù shàng kè 。</t>
+  </si>
+  <si>
+    <t>A: 我没听说你要上什么课，跟我讲讲。</t>
+  </si>
+  <si>
+    <t>A:  i didn't know you were taking any kind of class.</t>
+  </si>
+  <si>
+    <t>wǒ méi tīng shuō nǐ yào shàng shen me kè ，</t>
+  </si>
+  <si>
+    <t>Tell me about it.</t>
+  </si>
+  <si>
+    <t>gēn wǒ jiǎng jiǎng 。</t>
+  </si>
+  <si>
+    <t>B: 我在学习怎么在商务中使用到数学。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; Well, i'm learning how to use math in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> environment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zài xué xí zěn me zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shāng wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zhōng shǐ yòng dào shù xué 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 学这个有什么用？</t>
+  </si>
+  <si>
+    <t>A: What for?</t>
+  </si>
+  <si>
+    <t>xué zhè gè yǒu shen me yòng ？</t>
+  </si>
+  <si>
+    <t>B: 现在人才市场竞争激烈，我想拓展一下有用的技能。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>job market</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>so competitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nowadays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rén cái shì chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jìng zhēng jī liè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>develop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> some useful skills.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tuò zhǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià yǒu yòng de jì néng </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 真是佩服你，课进展的如何？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  i really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>admire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you for that, How is it going?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> zhēn shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pèi fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ ，kè jìn zhǎn de rú hé ？</t>
+    </r>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>B: 一切顺利， 我在学习一些新的东西，同时也在复习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: it's going all right, i'm learning some things for </t>
+  </si>
+  <si>
+    <t>一些已经学过的知识技能。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the first time, but i'm also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>brushing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> up on some</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> yī qiē shùn lì ， wǒ zài xué xí yī xiē xīn de dōng xī ，</t>
+  </si>
+  <si>
+    <t>things that i already know.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tóng shí yě zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fù xí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xiē yǐ jīng xué guò de zhī shí jì néng 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7465,21 +7921,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7498,6 +7942,18 @@
       <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="6.4"/>
@@ -7681,6 +8137,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7688,12 +8150,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -8830,7 +9286,7 @@
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
@@ -8873,10 +9329,10 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="8"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -8900,20 +9356,20 @@
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>307</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
@@ -8923,7 +9379,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="10"/>
+      <c r="X22" s="8"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -8932,11 +9388,11 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="10"/>
+      <c r="X23" s="8"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>312</v>
       </c>
       <c r="U24" s="2"/>
@@ -8956,7 +9412,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8969,13 +9425,13 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9039,7 +9495,7 @@
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -9087,19 +9543,19 @@
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="8"/>
     </row>
     <row r="15" spans="3:22">
       <c r="C15" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="V15" s="11" t="s">
+      <c r="D15" s="6"/>
+      <c r="V15" s="9" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -9120,14 +9576,14 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7"/>
-      <c r="W19" s="10"/>
+      <c r="D19" s="6"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
@@ -9137,11 +9593,11 @@
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="10"/>
+      <c r="X22" s="8"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -9151,13 +9607,13 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="10"/>
+      <c r="X23" s="8"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
@@ -9176,7 +9632,7 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="2"/>
@@ -9185,7 +9641,7 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
@@ -9194,7 +9650,7 @@
       <c r="C30" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -9255,7 +9711,7 @@
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -9310,20 +9766,20 @@
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="13"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -9343,22 +9799,22 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>379</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9370,7 +9826,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -9379,11 +9835,11 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>385</v>
       </c>
       <c r="Z24" s="2"/>
@@ -9406,7 +9862,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9417,7 +9873,7 @@
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
@@ -9538,7 +9994,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -9585,20 +10041,20 @@
         <v>419</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="13"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -9618,20 +10074,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
@@ -9640,17 +10096,17 @@
       <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
@@ -9668,13 +10124,13 @@
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="11" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -9682,12 +10138,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -9756,7 +10212,7 @@
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -9807,20 +10263,20 @@
         <v>456</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="13"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -9841,21 +10297,21 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="7"/>
-      <c r="AB19" s="10"/>
+      <c r="D19" s="6"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -9866,19 +10322,19 @@
       <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
@@ -9898,7 +10354,7 @@
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -9912,18 +10368,18 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="11"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -10003,7 +10459,7 @@
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
@@ -10048,12 +10504,12 @@
         <v>498</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="AA15" s="11"/>
+      <c r="D15" s="6"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -10076,20 +10532,20 @@
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>504</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
@@ -10099,7 +10555,7 @@
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -10108,11 +10564,11 @@
       <c r="U23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>509</v>
       </c>
       <c r="Z24" s="2"/>
@@ -10132,18 +10588,18 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -10161,7 +10617,7 @@
   <sheetPr/>
   <dimension ref="A2:AMP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -10219,7 +10675,6 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
         <v>521</v>
       </c>
@@ -10257,7 +10712,6 @@
       <c r="C11" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="R11" s="1" t="s">
         <v>531</v>
       </c>
@@ -10276,27 +10730,27 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>535</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10313,20 +10767,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
       <c r="R21" s="1" t="s">
         <v>544</v>
       </c>
@@ -10335,17 +10789,17 @@
       <c r="D22" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
@@ -10363,7 +10817,7 @@
       <c r="C27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="R27" s="1" t="s">
         <v>550</v>
       </c>
@@ -10374,10 +10828,233 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="45:46">
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="3:22">
+      <c r="C5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="V5" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="3:22">
+      <c r="C8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="V8" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23">
+      <c r="D9" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22">
+      <c r="C12" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="V12" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29">
+      <c r="D14" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="V15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="V18" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="6"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="3:22">
+      <c r="C21" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="V21" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="V24" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="2"/>
+      <c r="L26" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="V27" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23">
+      <c r="D28" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="7"/>
+      <c r="D30" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -10440,7 +11117,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10475,13 +11152,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -10509,7 +11186,7 @@
       <c r="D19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -10568,7 +11245,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -10635,7 +11312,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -10673,13 +11350,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -10761,7 +11438,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10818,7 +11495,7 @@
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -10852,7 +11529,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -10958,7 +11635,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -11049,7 +11726,7 @@
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -11087,13 +11764,13 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
@@ -11123,7 +11800,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="15"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -12288,7 +12965,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -12331,10 +13008,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -12366,7 +13043,7 @@
       <c r="D22" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="10"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -13448,7 +14125,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13509,7 +14186,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -13544,13 +14221,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -13578,7 +14255,7 @@
       <c r="D19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -13637,7 +14314,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -13708,7 +14385,7 @@
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -13742,7 +14419,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -13783,7 +14460,7 @@
       <c r="D19" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -13841,7 +14518,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13898,7 +14575,7 @@
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -13937,7 +14614,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -13972,7 +14649,7 @@
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="10"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
@@ -14019,7 +14696,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="10" activeTab="16"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="20230618" sheetId="18" r:id="rId15"/>
     <sheet name="20230624" sheetId="19" r:id="rId16"/>
     <sheet name="20230702" sheetId="20" r:id="rId17"/>
+    <sheet name="20230709" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="633">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -7520,6 +7521,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: it's Tuesday today, i </t>
     </r>
     <r>
@@ -7548,6 +7554,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jīn tiān shì xīng qī èr ，wǒ xīng qī èr wǎn shàng </t>
     </r>
     <r>
@@ -7583,6 +7594,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B; Well, i'm learning how to use math in the </t>
     </r>
     <r>
@@ -7605,6 +7621,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǒ zài xué xí zěn me zài </t>
     </r>
     <r>
@@ -7639,6 +7660,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: The </t>
     </r>
     <r>
@@ -7678,6 +7704,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">xiàn zài </t>
     </r>
     <r>
@@ -7719,6 +7751,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i want to </t>
     </r>
     <r>
@@ -7741,6 +7778,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǒ xiǎng </t>
     </r>
     <r>
@@ -7767,6 +7810,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  i really </t>
     </r>
     <r>
@@ -7789,6 +7837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> zhēn shì </t>
     </r>
     <r>
@@ -7824,6 +7878,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">the first time, but i'm also </t>
     </r>
     <r>
@@ -7852,6 +7911,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tóng shí yě zài </t>
     </r>
     <r>
@@ -7871,12 +7935,493 @@
       </rPr>
       <t xml:space="preserve"> yī xiē yǐ jīng xué guò de zhī shí jì néng 。</t>
     </r>
+  </si>
+  <si>
+    <t>Thrift</t>
+  </si>
+  <si>
+    <t>A: 嘿 Steven， 你有很多的钱， 为什么还住在</t>
+  </si>
+  <si>
+    <t>A: Hey Steven, you have a large chunk of money,</t>
+  </si>
+  <si>
+    <t>那个旧的公寓里，而不是买一套别墅呢？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">but why do you still live in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> instead of</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hēi  Steven， nǐ yǒu hěn duō de qián ， </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">buying a new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>villa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wéi shen me hái zhù zài nà gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiù de gōng yù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lǐ ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ér bú shì mǎi yī tào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bié shù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我喜欢这儿， 喜欢周围的邻居们。而且我</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  I like to live here and enjoy my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>neighbor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'s</t>
+    </r>
+  </si>
+  <si>
+    <t>不认为因为我有钱就可以随意的挥霍。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">company, And i don't think i should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> money</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xǐ huān zhè ér ， xǐ huān zhōu wéi de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lín jū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> men 。</t>
+    </r>
+  </si>
+  <si>
+    <t>just because i have much of it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ér qiě wǒ bú rèn wéi yīn wéi wǒ yǒu qián jiù kě yǐ suí yì de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huī huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>langfei</t>
+  </si>
+  <si>
+    <t>A: 但是我发现你很舍不得花钱， 看看你开的车</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  But i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hate to part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with your money.</t>
+    </r>
+  </si>
+  <si>
+    <t>都破成什么样了。</t>
+  </si>
+  <si>
+    <t>Look at the car you dirve. it's such a junker.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dàn shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fā xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shě bú dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> huā qián ， </t>
+    </r>
+  </si>
+  <si>
+    <t>kàn kàn nǐ kāi de chē dōu pò chéng shen me yàng le 。</t>
+  </si>
+  <si>
+    <t>B: 哦， 那车是破了点，但是性能还很好。我觉得</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Oh, the car is old but still in good </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. i just</t>
+    </r>
+  </si>
+  <si>
+    <t>无论我们是贫穷还是富有，都应该节俭。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">think we should be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thrifty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> whether you're rich</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ò ， nà chē shì pò le diǎn ，dàn shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xìng néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>or not.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hái hěn hǎo 。wǒ jue dé wú lùn wǒ men shì pín qióng hái shì fù yǒu ，dōu yīng gāi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiē jiǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 可是，可是</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>A:  but， but</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kě shì ，kě shì</t>
+  </si>
+  <si>
+    <t>B: 可是什么？记住，节俭不仅仅是一大美德，而且</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  But what? Just remember that thrift is not only a </t>
+  </si>
+  <si>
+    <t>是一大财源。</t>
+  </si>
+  <si>
+    <r>
+      <t>great virtue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but alse a great revenue.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> kě shì shen me ？jì zhù ，jiē jiǎn bú jǐn jǐn shì yī dà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>měi dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě </t>
+    </r>
+  </si>
+  <si>
+    <t>shì yī dà cái yuán 。</t>
+  </si>
+  <si>
+    <t>A: 也许你说的对。</t>
+  </si>
+  <si>
+    <t>A; Maybe you're right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yě xǔ nǐ shuō de duì </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -7915,12 +8460,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7933,6 +8472,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7940,6 +8485,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -7960,12 +8511,6 @@
       <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7992,34 +8537,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8033,14 +8550,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8080,6 +8589,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8130,7 +8654,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8205,55 +8750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,31 +8774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8319,6 +8810,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8331,7 +8834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8355,7 +8882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8379,6 +8918,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8396,21 +8941,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8443,6 +8973,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8501,148 +9046,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8670,52 +9215,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -9280,13 +9825,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
@@ -9332,7 +9877,7 @@
       <c r="X14" s="8"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -9356,20 +9901,20 @@
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>307</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
@@ -9392,7 +9937,7 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>312</v>
       </c>
       <c r="U24" s="2"/>
@@ -9412,7 +9957,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9425,7 +9970,7 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
@@ -9489,13 +10034,13 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -9546,10 +10091,10 @@
       <c r="X14" s="8"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="V15" s="9" t="s">
         <v>337</v>
       </c>
@@ -9576,14 +10121,14 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
@@ -9593,7 +10138,7 @@
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
@@ -9613,7 +10158,7 @@
       <c r="C24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
@@ -9632,7 +10177,7 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="2"/>
@@ -9641,13 +10186,13 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="7" t="s">
         <v>353</v>
       </c>
       <c r="D30" s="8"/>
@@ -9705,13 +10250,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -9731,7 +10276,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9769,8 +10314,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="13"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="5" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -9799,7 +10344,7 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -9808,13 +10353,13 @@
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>379</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9839,7 +10384,7 @@
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>385</v>
       </c>
       <c r="Z24" s="2"/>
@@ -9862,7 +10407,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9873,13 +10418,13 @@
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="13"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -9985,7 +10530,7 @@
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
         <v>409</v>
       </c>
@@ -9994,7 +10539,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -10014,7 +10559,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="13"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -10044,8 +10589,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="13"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="5" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -10074,20 +10619,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>426</v>
       </c>
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
@@ -10106,7 +10651,7 @@
       <c r="C24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
@@ -10124,13 +10669,13 @@
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -10138,12 +10683,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -10206,13 +10751,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -10266,8 +10811,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="13"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="5" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
@@ -10297,21 +10842,21 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -10334,7 +10879,7 @@
       <c r="C24" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
@@ -10354,7 +10899,7 @@
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -10368,18 +10913,18 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -10453,13 +10998,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
@@ -10507,8 +11052,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="13"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
       <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:20">
@@ -10532,20 +11077,20 @@
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>504</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
@@ -10568,7 +11113,7 @@
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>509</v>
       </c>
       <c r="Z24" s="2"/>
@@ -10588,18 +11133,18 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="11"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -10675,7 +11220,7 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -10730,7 +11275,7 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>535</v>
       </c>
       <c r="AB14" s="2"/>
@@ -10740,7 +11285,7 @@
       <c r="C15" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
@@ -10750,7 +11295,7 @@
       <c r="A16" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10767,20 +11312,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>542</v>
       </c>
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="R21" s="1" t="s">
         <v>544</v>
       </c>
@@ -10799,7 +11344,7 @@
       <c r="C24" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
@@ -10817,7 +11362,7 @@
       <c r="C27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="R27" s="1" t="s">
         <v>550</v>
       </c>
@@ -10828,10 +11373,10 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -10848,6 +11393,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C2:AMP31"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="3:22">
+      <c r="C5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="V5" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="3:22">
+      <c r="C8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="V8" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23">
+      <c r="D9" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22">
+      <c r="C12" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="V12" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29">
+      <c r="D14" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="V15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="V18" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
+      <c r="D19" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="4:33">
+      <c r="D20" s="5"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="3:22">
+      <c r="C21" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="V21" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="D22" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="V24" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="2"/>
+      <c r="L26" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="V27" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23">
+      <c r="D28" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="45:46">
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -10866,199 +11634,219 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="3:22">
-      <c r="C5" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="U4" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:22">
+      <c r="D5" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="V5" s="1" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="4:1030">
       <c r="D6" s="1" t="s">
-        <v>555</v>
+        <v>594</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="3:22">
-      <c r="C8" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="V8" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="9" spans="4:23">
-      <c r="D9" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="U9" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22">
       <c r="D10" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
+        <v>600</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22">
       <c r="D11" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22">
-      <c r="C12" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="V12" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="4:29">
+        <v>602</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12" spans="4:28">
+      <c r="D12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="U13" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22">
       <c r="D14" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
-    </row>
-    <row r="15" spans="3:27">
-      <c r="C15" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="V15" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:22">
-      <c r="C18" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="4:27">
+      <c r="D16" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="U17" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22">
+      <c r="D18" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="V18" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="19" spans="4:28">
-      <c r="D19" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="AB19" s="8"/>
-    </row>
-    <row r="20" spans="4:33">
-      <c r="D20" s="6"/>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" ht="17" customHeight="1" spans="3:22">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22">
+      <c r="D19" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="V21" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="22" spans="4:29">
-      <c r="D22" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AC22" s="8"/>
+        <v>619</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="M21" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="4:4">
+      <c r="D22" s="5" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
-        <v>577</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="3:26">
-      <c r="C24" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="V24" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12">
-      <c r="D26" s="2"/>
-      <c r="L26" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="V27" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="4:23">
-      <c r="D28" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="4:23">
-      <c r="D29" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
-      <c r="D30" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="31" spans="45:46">
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+    <row r="24" spans="3:29">
+      <c r="C24" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="U24" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="C28" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="U28" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="45:46">
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11117,7 +11905,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -11245,7 +12033,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -11312,7 +12100,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -11438,7 +12226,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11495,7 +12283,7 @@
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -11635,7 +12423,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -11726,7 +12514,7 @@
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -12965,7 +13753,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -14125,7 +14913,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14186,7 +14974,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -14314,7 +15102,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -14385,7 +15173,7 @@
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -14518,7 +15306,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14575,7 +15363,7 @@
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -14656,7 +15444,7 @@
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -14696,7 +15484,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="10" activeTab="17"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="20230624" sheetId="19" r:id="rId16"/>
     <sheet name="20230702" sheetId="20" r:id="rId17"/>
     <sheet name="20230709" sheetId="21" r:id="rId18"/>
+    <sheet name="20230716" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="670">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -7950,6 +7951,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">but why do you still live in a </t>
     </r>
     <r>
@@ -7992,6 +7998,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">buying a new </t>
     </r>
     <r>
@@ -8014,6 +8025,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wéi shen me hái zhù zài nà gè </t>
     </r>
     <r>
@@ -8036,6 +8052,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ér bú shì mǎi yī tào </t>
     </r>
     <r>
@@ -8061,6 +8082,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  I like to live here and enjoy my </t>
     </r>
     <r>
@@ -8086,6 +8112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">company, And i don't think i should </t>
     </r>
     <r>
@@ -8108,6 +8139,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ xǐ huān zhè ér ， xǐ huān zhōu wéi de </t>
     </r>
     <r>
@@ -8133,6 +8169,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ér qiě wǒ bú rèn wéi yīn wéi wǒ yǒu qián jiù kě yǐ suí yì de </t>
     </r>
     <r>
@@ -8161,6 +8202,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  But i </t>
     </r>
     <r>
@@ -8206,6 +8252,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> dàn shì wǒ </t>
     </r>
     <r>
@@ -8251,6 +8302,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Oh, the car is old but still in good </t>
     </r>
     <r>
@@ -8276,6 +8332,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">think we should be </t>
     </r>
     <r>
@@ -8298,6 +8359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">ò ， nà chē shì pò le diǎn ，dàn shì </t>
     </r>
     <r>
@@ -8324,6 +8391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hái hěn hǎo 。wǒ jue dé wú lùn wǒ men shì pín qióng hái shì fù yǒu ，dōu yīng gāi </t>
     </r>
     <r>
@@ -8371,6 +8444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>great virtue</t>
     </r>
     <r>
@@ -8384,6 +8463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> kě shì shen me ？jì zhù ，jiē jiǎn bú jǐn jǐn shì yī dà </t>
     </r>
     <r>
@@ -8416,6 +8501,474 @@
   </si>
   <si>
     <t xml:space="preserve"> yě xǔ nǐ shuō de duì </t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>A: 我想提高自己的书写水平，而且</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>improve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>handwriting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and i've </t>
+    </r>
+  </si>
+  <si>
+    <t>我已经练习了好几个星期了，但还是</t>
+  </si>
+  <si>
+    <r>
+      <t>practiced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it for several weeks, but nothing</t>
+    </r>
+  </si>
+  <si>
+    <t>老样子。你看，我的字还是很难看。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">happened, You see, my handwriting is still </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tí gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zì jǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shū xiě shuǐ píng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ yǐ jīng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liàn xí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le hǎo jǐ gè xīng qī le ，dàn hái shì </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lǎo yàng zǐ 。nǐ kàn ，wǒ de zì hái shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nán kàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 加油， 练字是一个长期的过程，你必须</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Oh, come on. you know it's a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>long process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>耐心点。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">you have to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jiā yóu ， liàn zì shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cha2ng qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>de guò chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ bì xū </t>
+    </r>
+  </si>
+  <si>
+    <t>nài xīn diǎn</t>
+  </si>
+  <si>
+    <t>A: 我知道，但是我什么时候才能练好呢？</t>
+  </si>
+  <si>
+    <t>A: I know it, but i don't know when i can make it better.</t>
+  </si>
+  <si>
+    <t>wǒ zhī dào ，dàn shì wǒ shen me shí hòu cái néng liàn hǎo ne ？</t>
+  </si>
+  <si>
+    <t>B:Steven, 不管你干什么，最重要的就是坚持不懈。</t>
+  </si>
+  <si>
+    <t>B:  Steven, whatever you do, the most important thing is</t>
+  </si>
+  <si>
+    <t>所以你必须要坚持，时间越长越好。总有一天</t>
+  </si>
+  <si>
+    <r>
+      <t>perseverance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. So you have to hang on there, The longer</t>
+    </r>
+  </si>
+  <si>
+    <t>你会发现自己已经进步很多了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the better. Then someday, you will find you've already </t>
+  </si>
+  <si>
+    <t>Steven, bú guǎn nǐ gàn shen me ，zui zhòng yào de</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">made a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> jiù shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiān chí bú xiè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。suǒ yǐ nǐ bì xū yào jiān chí ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shí jiān yuè cha2ng yuè hǎo 。zǒng yǒu yī tiān nǐ huì fā xiàn zì jǐ yǐ jīng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jìn bù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hěn duō le </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 嗯，你说的对，我必须停止抱怨，每天坚持练习。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Yeah, you're right. i must stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>complaning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and stick to it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">èn ，nǐ shuō de duì ，wǒ bì xū tíng zhǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bào yuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>every day.</t>
+  </si>
+  <si>
+    <t>，měi tiān jiān chí liàn xí 。</t>
+  </si>
+  <si>
+    <t>B: 是啊，有志者事竟成。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yeah, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>where there is a will, there is a way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> shì ā ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǒu zhì zhě shì jìng chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8428,7 +8981,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8460,6 +9013,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8467,6 +9026,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -8493,12 +9058,6 @@
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8682,9 +9241,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8695,6 +9254,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -9061,16 +9626,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9079,119 +9641,122 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9212,6 +9777,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9825,13 +10391,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
@@ -9874,10 +10440,10 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="8"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -9901,20 +10467,20 @@
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>307</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
@@ -9924,7 +10490,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -9933,11 +10499,11 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>312</v>
       </c>
       <c r="U24" s="2"/>
@@ -9957,7 +10523,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9970,13 +10536,13 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>320</v>
       </c>
     </row>
@@ -10034,13 +10600,13 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -10088,19 +10654,19 @@
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="8"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="V15" s="9" t="s">
+      <c r="D15" s="6"/>
+      <c r="V15" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -10121,14 +10687,14 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="5"/>
-      <c r="W19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
@@ -10138,11 +10704,11 @@
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="8"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -10152,13 +10718,13 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
@@ -10177,7 +10743,7 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="2"/>
@@ -10186,16 +10752,16 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -10250,13 +10816,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -10276,7 +10842,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10311,20 +10877,20 @@
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -10344,22 +10910,22 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>379</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>380</v>
       </c>
     </row>
@@ -10371,7 +10937,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -10380,11 +10946,11 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>385</v>
       </c>
       <c r="Z24" s="2"/>
@@ -10407,7 +10973,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>390</v>
       </c>
     </row>
@@ -10418,13 +10984,13 @@
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="7"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -10530,7 +11096,7 @@
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1" t="s">
         <v>409</v>
       </c>
@@ -10539,7 +11105,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -10559,7 +11125,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -10586,20 +11152,20 @@
         <v>419</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -10619,20 +11185,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
@@ -10641,17 +11207,17 @@
       <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
@@ -10669,13 +11235,13 @@
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -10683,12 +11249,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -10751,13 +11317,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -10808,20 +11374,20 @@
         <v>456</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="9"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -10842,21 +11408,21 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="5"/>
-      <c r="AB19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -10867,19 +11433,19 @@
       <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
@@ -10899,7 +11465,7 @@
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -10913,18 +11479,18 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -10998,13 +11564,13 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
@@ -11049,12 +11615,12 @@
         <v>498</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="AA15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -11077,20 +11643,20 @@
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>504</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
@@ -11100,7 +11666,7 @@
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -11109,11 +11675,11 @@
       <c r="U23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>509</v>
       </c>
       <c r="Z24" s="2"/>
@@ -11133,18 +11699,18 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -11220,7 +11786,7 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -11275,27 +11841,27 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>535</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>539</v>
       </c>
     </row>
@@ -11312,20 +11878,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="R21" s="1" t="s">
         <v>544</v>
       </c>
@@ -11334,17 +11900,17 @@
       <c r="D22" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
@@ -11362,7 +11928,7 @@
       <c r="C27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="R27" s="1" t="s">
         <v>550</v>
       </c>
@@ -11373,10 +11939,10 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -11435,7 +12001,7 @@
       <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="10"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
@@ -11486,17 +12052,17 @@
         <v>566</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="4" t="s">
@@ -11516,20 +12082,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="3:22">
       <c r="C21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="V21" s="1" t="s">
         <v>574</v>
       </c>
@@ -11541,19 +12107,19 @@
       <c r="W22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="V24" s="1" t="s">
         <v>579</v>
       </c>
@@ -11574,7 +12140,7 @@
       <c r="C27" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="V27" s="1" t="s">
         <v>583</v>
       </c>
@@ -11588,7 +12154,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>586</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -11596,7 +12162,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1" t="s">
         <v>588</v>
       </c>
@@ -11617,7 +12183,7 @@
   <sheetPr/>
   <dimension ref="C2:AMP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -11730,13 +12296,13 @@
         <v>610</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
@@ -11764,16 +12330,16 @@
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="M21" s="1" t="s">
         <v>620</v>
       </c>
@@ -11786,13 +12352,13 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -11802,14 +12368,14 @@
       <c r="U24" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="7" t="s">
+      <c r="V25" s="9" t="s">
         <v>627</v>
       </c>
       <c r="Z25" s="2"/>
@@ -11828,7 +12394,7 @@
       <c r="C28" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="U28" s="1" t="s">
         <v>631</v>
       </c>
@@ -11839,10 +12405,239 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="6"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="45:46">
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:22">
+      <c r="D5" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22">
+      <c r="D11" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="U14" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="4:27">
+      <c r="D16" s="6"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="U17" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22">
+      <c r="D18" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22">
+      <c r="D19" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28">
+      <c r="C20" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="V20" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="3:33">
+      <c r="C21" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="3:4">
+      <c r="C22" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="C23" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="U23" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="C24" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="V24" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC24" s="10"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="V25" s="9"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="45:46">
       <c r="AS32" s="2"/>
@@ -11905,7 +12700,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -11940,13 +12735,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -11966,15 +12761,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -12033,7 +12828,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -12100,7 +12895,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -12138,13 +12933,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -12169,7 +12964,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -12177,7 +12972,7 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
@@ -12226,7 +13021,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -12283,7 +13078,7 @@
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -12317,7 +13112,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -12344,7 +13139,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12352,7 +13147,7 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
@@ -12423,7 +13218,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -12514,7 +13309,7 @@
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -12552,19 +13347,19 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12582,13 +13377,13 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15"/>
-      <c r="W19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -12637,7 +13432,7 @@
       <c r="D27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -12647,7 +13442,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -13753,7 +14548,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -13796,10 +14591,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -13822,16 +14617,16 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -14913,7 +15708,7 @@
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14974,7 +15769,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -15009,13 +15804,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -15035,15 +15830,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -15102,7 +15897,7 @@
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -15173,7 +15968,7 @@
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -15207,7 +16002,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -15237,7 +16032,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -15245,10 +16040,10 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -15306,7 +16101,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15363,7 +16158,7 @@
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -15402,7 +16197,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -15427,24 +16222,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -15484,7 +16279,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="11" activeTab="18"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="20230702" sheetId="20" r:id="rId17"/>
     <sheet name="20230709" sheetId="21" r:id="rId18"/>
     <sheet name="20230716" sheetId="22" r:id="rId19"/>
+    <sheet name="20230723" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="723">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -8510,6 +8511,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: I want to </t>
     </r>
     <r>
@@ -8552,6 +8558,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>practiced</t>
     </r>
     <r>
@@ -8568,6 +8580,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">happened, You see, my handwriting is still </t>
     </r>
     <r>
@@ -8590,6 +8607,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ xiǎng </t>
     </r>
     <r>
@@ -8629,6 +8651,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ yǐ jīng </t>
     </r>
     <r>
@@ -8651,6 +8678,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">lǎo yàng zǐ 。nǐ kàn ，wǒ de zì hái shì hěn </t>
     </r>
     <r>
@@ -8677,6 +8710,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Oh, come on. you know it's a </t>
     </r>
     <r>
@@ -8702,6 +8740,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">you have to be </t>
     </r>
     <r>
@@ -8724,6 +8767,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jiā yóu ， liàn zì shì yī gè </t>
     </r>
     <r>
@@ -8784,6 +8832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>perseverance</t>
     </r>
     <r>
@@ -8806,6 +8860,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">made a lot of </t>
     </r>
     <r>
@@ -8828,6 +8887,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> jiù shì </t>
     </r>
     <r>
@@ -8850,6 +8914,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shí jiān yuè cha2ng yuè hǎo 。zǒng yǒu yī tiān nǐ huì fā xiàn zì jǐ yǐ jīng </t>
     </r>
     <r>
@@ -8875,6 +8944,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Yeah, you're right. i must stop </t>
     </r>
     <r>
@@ -8897,6 +8971,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èn ，nǐ shuō de duì ，wǒ bì xū tíng zhǐ </t>
     </r>
     <r>
@@ -8928,6 +9007,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yeah, </t>
     </r>
     <r>
@@ -8950,6 +9034,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> shì ā ，</t>
     </r>
     <r>
@@ -8969,6 +9058,536 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Be late</t>
+  </si>
+  <si>
+    <t>A: John, 你今天早上迟到了， 你为什么总是</t>
+  </si>
+  <si>
+    <t>A:John, You're late this morning, Why are you</t>
+  </si>
+  <si>
+    <t>上班迟到。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>late</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for work?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">John, nǐ jīn tiān zǎo shàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chí dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ， nǐ wéi shen me zǒng shì </t>
+    </r>
+  </si>
+  <si>
+    <t>shàng bān chí dào 。</t>
+  </si>
+  <si>
+    <t>B: 很抱歉上班迟到了， 今天在城市广场发生了</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sorry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to be late for work, There was a traffic </t>
+    </r>
+  </si>
+  <si>
+    <t>交通事故，我被困在路上了。</t>
+  </si>
+  <si>
+    <r>
+      <t>accident</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>city square</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this morning. i'm stuck</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shàng bān chí dào le ， jīn tiān zài </t>
+    </r>
+  </si>
+  <si>
+    <t>on the road.</t>
+  </si>
+  <si>
+    <r>
+      <t>chéng shì guǎng chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> fā shēng le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiāo tōng shì gù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ bèi kùn zài lù shàng le </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你总有一个好的理由。但是你应该给经理提前</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: You always have a good </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for being late.</t>
+    </r>
+  </si>
+  <si>
+    <t>打个电话，说明一下自己的情况，你的经理</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">But you should call the manager </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>in advance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to</t>
+    </r>
+  </si>
+  <si>
+    <t>很生气。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">explain your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>situation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, he is so angry.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zǒng yǒu yī gè hǎo de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lǐ yóu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。dàn shì nǐ yīng gāi gěi jīng lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tí qián</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dǎ gè diàn huà ，shuō míng yī xià zì jǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qíng kuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ de jīng lǐ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hěn shēng qì </t>
+  </si>
+  <si>
+    <t>B: 真的吗？我也不愿意迟到，但是我家离公司太远了，</t>
+  </si>
+  <si>
+    <t>B: Really? i don't want to be late. But my house is too far</t>
+  </si>
+  <si>
+    <t>我每天早上六点就起床了，我想从明天开始我需要</t>
+  </si>
+  <si>
+    <t>from the office. i get up at six o'clock every morning.</t>
+  </si>
+  <si>
+    <t>五点起床。</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>i think i need to get up at five o'clock from tomorrow.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhēn de ma ？wǒ yě bú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yuàn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> chí dào ，dàn shì wǒ jiā lí gōng sī tài yuǎn le </t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ měi tiān zǎo shàng liù diǎn jiù qǐ chuáng le ，wǒ xiǎng cóng míng tiān kāi shǐ</t>
+  </si>
+  <si>
+    <t>wǒ xū yào wǔ diǎn qǐ chuáng。</t>
+  </si>
+  <si>
+    <t>A: 公司规定，如果你一个月迟到超过三次，你就会被开除。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: According to company </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regulations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. if you're late more then</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gōng sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guī dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，rú guǒ nǐ yī gè yuè chí dào </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">three times a month, you will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chāo guò sān cì ，nǐ jiù huì bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kāi chú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:是的，没错。我已经迟到三次了，我不想被开除，我</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Yes, you're right. i have been late three times. i don't want to </t>
+  </si>
+  <si>
+    <t>应该怎么办呢？</t>
+  </si>
+  <si>
+    <t>be fired, what should i do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shì de ，méi cuò 。wǒ yǐ jīng chí dào sān cì le ，wǒ bú xiǎng bèi kāi chú ，wǒ </t>
+  </si>
+  <si>
+    <t>yīng gāi zěn me bàn ne ？</t>
+  </si>
+  <si>
+    <t>A: 你应该去找经理好好解释下。或许情况没有</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: you should go to the manager's office to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>explain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. maybe the situation</t>
+    </r>
+  </si>
+  <si>
+    <t>想的那么糟糕。</t>
+  </si>
+  <si>
+    <t>is not as bad as we thought.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yīng gāi qù zhǎo jīng lǐ hǎo hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiě shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xià 。huò xǔ qíng kuàng méi yǒu </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xiǎng de nà me zāo gāo </t>
+  </si>
+  <si>
+    <t>B:好的， 我早会结束后去找经理。</t>
+  </si>
+  <si>
+    <t>B: i will go to the manager's office after the morning meeting.</t>
+  </si>
+  <si>
+    <t>hǎo de ， wǒ zǎo huì jié shù hòu qù zhǎo jīng lǐ</t>
   </si>
 </sst>
 </file>
@@ -9013,9 +9632,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9037,6 +9656,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9051,13 +9676,7 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9241,13 +9860,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -10440,7 +11059,7 @@
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="4:22">
       <c r="D15" s="6" t="s">
@@ -10471,7 +11090,7 @@
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="4:28">
       <c r="D20" s="6" t="s">
@@ -10490,7 +11109,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="10"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -10499,7 +11118,7 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="10"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4"/>
@@ -10542,7 +11161,7 @@
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>320</v>
       </c>
     </row>
@@ -10654,19 +11273,19 @@
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="10"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="9" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -10688,7 +11307,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="6"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
@@ -10708,7 +11327,7 @@
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="10"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -10718,7 +11337,7 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="10"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="4" t="s">
@@ -10758,10 +11377,10 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -10842,7 +11461,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10877,20 +11496,20 @@
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -10916,7 +11535,7 @@
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6" t="s">
@@ -10937,7 +11556,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -10946,7 +11565,7 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
@@ -10990,7 +11609,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -11125,7 +11744,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -11152,20 +11771,20 @@
         <v>419</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -11188,7 +11807,7 @@
       <c r="D19" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6"/>
@@ -11207,11 +11826,11 @@
       <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -11374,20 +11993,20 @@
         <v>456</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -11409,7 +12028,7 @@
     </row>
     <row r="19" spans="4:28">
       <c r="D19" s="6"/>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
@@ -11433,13 +12052,13 @@
       <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -11615,12 +12234,12 @@
         <v>498</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6"/>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -11647,7 +12266,7 @@
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6" t="s">
@@ -11666,7 +12285,7 @@
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -11675,7 +12294,7 @@
       <c r="U23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4"/>
@@ -11786,7 +12405,7 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -11841,11 +12460,11 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>535</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
@@ -11855,7 +12474,7 @@
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -11881,7 +12500,7 @@
       <c r="D19" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6"/>
@@ -11900,11 +12519,11 @@
       <c r="D22" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -12001,7 +12620,7 @@
       <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="12"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
@@ -12052,7 +12671,7 @@
         <v>566</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="10"/>
+      <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
@@ -12062,7 +12681,7 @@
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="4" t="s">
@@ -12085,7 +12704,7 @@
       <c r="D19" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="11"/>
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="6"/>
@@ -12107,13 +12726,13 @@
       <c r="W22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="11"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="4" t="s">
@@ -12296,13 +12915,13 @@
         <v>610</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="10"/>
+      <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
@@ -12333,7 +12952,7 @@
       <c r="D20" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="11"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
@@ -12358,7 +12977,7 @@
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -12368,14 +12987,14 @@
       <c r="U24" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="4"/>
       <c r="D25" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="9" t="s">
+      <c r="V25" s="10" t="s">
         <v>627</v>
       </c>
       <c r="Z25" s="2"/>
@@ -12426,8 +13045,8 @@
   <sheetPr/>
   <dimension ref="C2:AMP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -12493,7 +13112,6 @@
       <c r="C10" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="U10" s="1" t="s">
         <v>644</v>
       </c>
@@ -12512,7 +13130,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>648</v>
       </c>
     </row>
@@ -12530,11 +13148,11 @@
         <v>651</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="10"/>
+      <c r="AC15" s="11"/>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="6"/>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
@@ -12549,7 +13167,7 @@
       <c r="D18" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="10" t="s">
         <v>655</v>
       </c>
     </row>
@@ -12569,7 +13187,7 @@
       <c r="V20" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="11"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
@@ -12592,7 +13210,7 @@
       <c r="U23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="11"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -12602,14 +13220,14 @@
       <c r="V24" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="11"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="4" t="s">
         <v>666</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="V25" s="9"/>
+      <c r="V25" s="10"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="3:21">
@@ -12735,13 +13353,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -12769,7 +13387,7 @@
       <c r="D19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -12836,6 +13454,283 @@
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:24">
+      <c r="D5" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="X5" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24">
+      <c r="D9" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="4:24">
+      <c r="D10" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24">
+      <c r="D13" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="11"/>
+    </row>
+    <row r="16" spans="4:27">
+      <c r="D16" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23">
+      <c r="C18" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24">
+      <c r="D19" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="4:33">
+      <c r="D21" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="4:4">
+      <c r="D22" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC23" s="11"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="C24" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="W24" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC24" s="11"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="X25" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23">
+      <c r="C27" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="W27" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24">
+      <c r="D28" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23">
+      <c r="C31" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="32" spans="4:46">
+      <c r="D32" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23">
+      <c r="C35" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -12933,13 +13828,13 @@
     </row>
     <row r="13" spans="4:23">
       <c r="D13" s="4"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
@@ -13112,7 +14007,7 @@
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -13347,13 +14242,13 @@
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
@@ -13383,7 +14278,7 @@
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="16"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:27">
       <c r="C20" s="4" t="s">
@@ -14591,10 +15486,10 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
@@ -14626,7 +15521,7 @@
       <c r="D22" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="10"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="4"/>
@@ -15804,13 +16699,13 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
@@ -15838,7 +16733,7 @@
       <c r="D19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -16002,7 +16897,7 @@
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -16043,7 +16938,7 @@
       <c r="D19" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="4"/>
@@ -16197,7 +17092,7 @@
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -16232,14 +17127,14 @@
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="10"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="10" t="s">
         <v>281</v>
       </c>
     </row>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="14" activeTab="21"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="20230723" sheetId="23" r:id="rId20"/>
     <sheet name="20230730" sheetId="25" r:id="rId21"/>
     <sheet name="20230806" sheetId="26" r:id="rId22"/>
+    <sheet name="20230813" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="845">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -10195,6 +10196,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: I've heard that Tom is going to </t>
     </r>
     <r>
@@ -10217,6 +10223,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ tīng shuō Tom yào </t>
     </r>
     <r>
@@ -10242,6 +10253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: What? Are you </t>
     </r>
     <r>
@@ -10264,6 +10280,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shen me ？nǐ </t>
     </r>
     <r>
@@ -10289,6 +10310,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Yeah, he's going to move </t>
     </r>
     <r>
@@ -10311,6 +10337,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èn ， tā </t>
     </r>
     <r>
@@ -10345,6 +10376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: He's going to Canada and to live with </t>
     </r>
     <r>
@@ -10367,6 +10403,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tā zhǔn bèi qù jiā ná dà ，hé </t>
     </r>
     <r>
@@ -10398,6 +10439,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: What a </t>
     </r>
     <r>
@@ -10420,6 +10466,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhēn </t>
     </r>
     <r>
@@ -10463,6 +10514,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: i know that. But it's a pity for us to </t>
     </r>
     <r>
@@ -10494,6 +10550,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zhī dào ，dàn shì </t>
     </r>
     <r>
@@ -10516,6 +10577,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zhēn de xǐ huān Tom zuò wǒ men dé </t>
     </r>
     <r>
@@ -10541,6 +10607,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Me too. But anyway, we hope he lives </t>
     </r>
     <r>
@@ -10563,6 +10634,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> wǒ yě shì ，dàn </t>
     </r>
     <r>
@@ -10632,6 +10708,421 @@
   </si>
   <si>
     <t>granddaughter</t>
+  </si>
+  <si>
+    <t>Recommend a restaurant</t>
+  </si>
+  <si>
+    <t>A: 晚上你们两个有计划吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:Do you two have any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the evening?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǎn shàng nǐ men liǎng gè yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jì huá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我们正在考虑去吃附近得餐厅，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: We were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thinking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of checking out a restraurant</t>
+    </r>
+  </si>
+  <si>
+    <t>你有什么建议吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in  the neighborhood. Do you have any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suggestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men zhèng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kǎo lǜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qù chī fù jìn dé cān tīng ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yǒu shen me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiàn yì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A:我知道一家非常棒得意大利餐厅。餐品</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: I know this really nice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Italian place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. The food is fantastic</t>
+    </r>
+  </si>
+  <si>
+    <t>很棒，装饰也很棒，我推荐你们去一下。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is beautiful, i'd recommend giving it a try.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zhī dào yī jiā fēi cháng bàng dé yì dà lì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cān tīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。cān pǐn </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hěn bàng ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhuāng shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yě hěn bàng ，wǒ tuī jiàn nǐ men qù yī xià 。</t>
+    </r>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>B:其实，我对意大利食物并不是很喜欢。</t>
+  </si>
+  <si>
+    <t>B:  Actually, i'm not all that crazy about Italian food.</t>
+  </si>
+  <si>
+    <t>qí shí ，wǒ duì yì dà lì shí wù bìng bú shì hěn xǐ huān 。</t>
+  </si>
+  <si>
+    <t>A:要是那样得话，我知道一家很棒得小酒馆，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: In that case, i know a great </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>little bistro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. they make</t>
+    </r>
+  </si>
+  <si>
+    <t>他们做的海鲜很美味，鱼非常棒。</t>
+  </si>
+  <si>
+    <t>a really tasty seafood. The fish is outstanding.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yào shì nà yàng dé huà ，wǒ zhī dào yī jiā hěn bàng dé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiǎo jiǔ guǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>tā men zuò de hǎi xiān hěn měi wèi ，yú fēi cháng bàng 。</t>
+  </si>
+  <si>
+    <t>B:听起来不错，但是我海鲜过敏，所以。。。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: It sounds fantastic, But i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>allergic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to seafood. so.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tīng qǐ lái bú cuò ，dàn shì wǒ hǎi xiān </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guò mǐn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，suǒ yǐ </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好吧，我在想想。 哦，我知道一个很好得小地方，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Okay, well, let me think, Oh i know this great </t>
+  </si>
+  <si>
+    <t>店面很小，但是他们做的三明治很好吃。</t>
+  </si>
+  <si>
+    <t>little place, it's so small, but they do the most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo ba ，wǒ zài xiǎng xiǎng 。 ò ，wǒ zhī dào </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">amazing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sandwiches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>yī gè hěn hǎo dé xiǎo dì fāng ，diàn miàn hěn xiǎo ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dàn shì tā men zuò de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sān míng zhì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hěn hǎo chī 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14999,8 +15490,8 @@
   <sheetPr/>
   <dimension ref="B1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -15040,7 +15531,6 @@
       <c r="B6" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="U6" s="1" t="s">
         <v>768</v>
       </c>
@@ -15107,7 +15597,6 @@
       <c r="B18" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="U18" s="1" t="s">
         <v>782</v>
       </c>
@@ -15177,7 +15666,6 @@
       <c r="B28" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="U28" s="1" t="s">
         <v>798</v>
       </c>
@@ -15220,6 +15708,214 @@
       <c r="H33" s="1" t="s">
         <v>807</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20">
+      <c r="C11" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="3"/>
+      <c r="Q14" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="S15" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="27:27">
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="3:20">
+      <c r="C19" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="31" spans="19:19">
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="25:25">
+      <c r="Y32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="20230730" sheetId="25" r:id="rId21"/>
     <sheet name="20230806" sheetId="26" r:id="rId22"/>
     <sheet name="20230813" sheetId="27" r:id="rId23"/>
+    <sheet name="20230820" sheetId="28" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="870">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -10717,6 +10718,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:Do you two have any </t>
     </r>
     <r>
@@ -10739,6 +10745,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǎn shàng nǐ men liǎng gè yǒu </t>
     </r>
     <r>
@@ -10764,6 +10775,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: We were </t>
     </r>
     <r>
@@ -10789,6 +10805,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">in  the neighborhood. Do you have any </t>
     </r>
     <r>
@@ -10811,6 +10832,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ men zhèng zài </t>
     </r>
     <r>
@@ -10833,6 +10859,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ yǒu shen me </t>
     </r>
     <r>
@@ -10858,6 +10889,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: I know this really nice </t>
     </r>
     <r>
@@ -10883,6 +10919,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">and the </t>
     </r>
     <r>
@@ -10905,6 +10946,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zhī dào yī jiā fēi cháng bàng dé yì dà lì </t>
     </r>
     <r>
@@ -10927,6 +10973,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>hěn bàng ，</t>
     </r>
     <r>
@@ -10964,6 +11015,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: In that case, i know a great </t>
     </r>
     <r>
@@ -10992,6 +11048,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yào shì nà yàng dé huà ，wǒ zhī dào yī jiā hěn bàng dé </t>
     </r>
     <r>
@@ -11020,6 +11081,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: It sounds fantastic, But i'm </t>
     </r>
     <r>
@@ -11042,6 +11108,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tīng qǐ lái bú cuò ，dàn shì wǒ hǎi xiān </t>
     </r>
     <r>
@@ -11079,6 +11150,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">amazing </t>
     </r>
     <r>
@@ -11104,6 +11180,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">dàn shì tā men zuò de </t>
     </r>
     <r>
@@ -11122,6 +11203,357 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> hěn hǎo chī 。</t>
+    </r>
+  </si>
+  <si>
+    <t>Talking about our boss</t>
+  </si>
+  <si>
+    <t>A: 你认为咱们老板怎么样？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: How do you think about our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ rèn wéi zán men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lǎo bǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zěn me yàng ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 他是我共事过得最亲切得一个老板。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: He's the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nicest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> boss i've had.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tā shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gòng shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> guò dé zuì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qīn qiē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dé yī gè lǎo bǎn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 是的， 我想，他是管理层里最让人</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Yes, i think he's the most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>relaxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> person</t>
+    </r>
+  </si>
+  <si>
+    <t>放松得一个人。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ， wǒ xiǎng ，tā shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guǎn lǐ céng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lǐ zuì ràng rén </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fàng sōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dé yī gè rén 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 另外，他还说，我是办公室里最努力</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>What's more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, he said i was the hardest</t>
+    </r>
+  </si>
+  <si>
+    <t>的一个人。</t>
+  </si>
+  <si>
+    <r>
+      <t>working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> person in the office.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lìng wài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，tā hái shuō ，wǒ shì bàn gōng shì lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zuì nǔ lì </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">de yī gè rén </t>
+  </si>
+  <si>
+    <t>A: 那好呀， 也许你会得到晋升。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: That's good, Maybe you'll get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promoted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nà hǎo ya ， yě xǔ nǐ huì dé dào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jìn shēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我也希望如此。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hope so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ yě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xī wàng rú cǐ </t>
     </r>
   </si>
 </sst>
@@ -11162,13 +11594,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12815,12 +13247,12 @@
         <v>336</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -13041,10 +13473,10 @@
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -13316,10 +13748,10 @@
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -13538,10 +13970,10 @@
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -13774,7 +14206,7 @@
     <row r="15" spans="3:27">
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -13940,7 +14372,7 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -14009,7 +14441,7 @@
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -14155,7 +14587,7 @@
       <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
@@ -14216,7 +14648,7 @@
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="7" t="s">
@@ -14456,7 +14888,7 @@
       <c r="D16" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="5"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
@@ -14687,7 +15119,7 @@
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="8"/>
-      <c r="AA16" s="5"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
@@ -15066,7 +15498,7 @@
       <c r="D9" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="4" t="s">
         <v>680</v>
       </c>
     </row>
@@ -15079,7 +15511,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>683</v>
       </c>
     </row>
@@ -15118,7 +15550,7 @@
       <c r="D16" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="AA16" s="5"/>
+      <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="7" t="s">
@@ -15358,7 +15790,7 @@
       <c r="T12" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="W12" s="5"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
@@ -15374,7 +15806,7 @@
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>740</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -15560,7 +15992,7 @@
       <c r="U12" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="W12" s="5"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -15574,7 +16006,7 @@
       <c r="B15" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="U15" s="1" t="s">
         <v>777</v>
       </c>
@@ -15721,8 +16153,8 @@
   <sheetPr/>
   <dimension ref="B1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -15788,7 +16220,6 @@
       <c r="B10" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="S10" s="1" t="s">
         <v>819</v>
       </c>
@@ -15805,7 +16236,7 @@
       <c r="C12" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="W12" s="5"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -15822,7 +16253,7 @@
       <c r="B15" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="S15" s="1" t="s">
         <v>826</v>
       </c>
@@ -15865,7 +16296,6 @@
       <c r="B22" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="S22" s="1" t="s">
         <v>835</v>
       </c>
@@ -15879,7 +16309,6 @@
       <c r="B25" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="T25" s="1" t="s">
         <v>838</v>
       </c>
@@ -15910,6 +16339,160 @@
       <c r="C29" s="1" t="s">
         <v>844</v>
       </c>
+    </row>
+    <row r="31" spans="19:19">
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="25:25">
+      <c r="Y32" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AA32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="Q14" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="C15" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="25:25">
+      <c r="Y27" s="3"/>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" s="3"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="16" activeTab="23"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="20230806" sheetId="26" r:id="rId22"/>
     <sheet name="20230813" sheetId="27" r:id="rId23"/>
     <sheet name="20230820" sheetId="28" r:id="rId24"/>
+    <sheet name="20230827" sheetId="29" r:id="rId25"/>
+    <sheet name="20230903" sheetId="30" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="989">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11213,6 +11215,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: How do you think about our </t>
     </r>
     <r>
@@ -11235,6 +11242,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ rèn wéi zán men </t>
     </r>
     <r>
@@ -11260,6 +11272,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: He's the </t>
     </r>
     <r>
@@ -11282,6 +11299,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tā shì wǒ </t>
     </r>
     <r>
@@ -11324,6 +11346,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Yes, i think he's the most </t>
     </r>
     <r>
@@ -11349,6 +11376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">in </t>
     </r>
     <r>
@@ -11371,6 +11403,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ， wǒ xiǎng ，tā shì </t>
     </r>
     <r>
@@ -11393,6 +11430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>fàng sōng</t>
     </r>
     <r>
@@ -11409,6 +11452,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: </t>
     </r>
     <r>
@@ -11434,6 +11482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>working</t>
     </r>
     <r>
@@ -11447,6 +11501,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>lìng wài</t>
     </r>
     <r>
@@ -11475,6 +11535,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: That's good, Maybe you'll get </t>
     </r>
     <r>
@@ -11497,6 +11562,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> nà hǎo ya ， yě xǔ nǐ huì dé dào </t>
     </r>
     <r>
@@ -11522,6 +11592,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: I </t>
     </r>
     <r>
@@ -11544,6 +11619,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ yě </t>
     </r>
     <r>
@@ -11555,6 +11635,817 @@
       </rPr>
       <t xml:space="preserve">xī wàng rú cǐ </t>
     </r>
+  </si>
+  <si>
+    <t>Borrowing money</t>
+  </si>
+  <si>
+    <t>A: 你好，我来这里找Corleone先生。</t>
+  </si>
+  <si>
+    <t>A: Hello, i’m here to see Mr Corleone.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ hǎo ，wǒ lái zhè lǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Corleone xiān shēng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 先生，这边请。</t>
+  </si>
+  <si>
+    <t>B: Right this way. Sir.</t>
+  </si>
+  <si>
+    <t>xiān shēng ，zhè biān qǐng 。</t>
+  </si>
+  <si>
+    <t>C: Charlie！我有什么可以帮助你的呢？</t>
+  </si>
+  <si>
+    <t>C: Charlie. What can I do for you?</t>
+  </si>
+  <si>
+    <t>Charlie！wǒ yǒu shen me kě yǐ bāng zhù nǐ de ne ？</t>
+  </si>
+  <si>
+    <t>B:Corleone先生，真的很抱歉打扰您了，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Mr Corleone, i’m really sorry to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>trouble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you.</t>
+    </r>
+  </si>
+  <si>
+    <t>我需要您的帮助。</t>
+  </si>
+  <si>
+    <t>but I need your help.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Corleone xiān shēng ，zhēn de hěn bào qiàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dǎ rǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nín le ，</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ xū yào nín de bāng zhù 。</t>
+  </si>
+  <si>
+    <t>C: 做什么都行，Charlie！你的父亲就像我的兄弟。</t>
+  </si>
+  <si>
+    <t>C: Anything for you. Charlie, Your father was</t>
+  </si>
+  <si>
+    <t>zuò shen me dōu xíng  ，Charlie！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">like a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>brother</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nǐ de fù qīn jiù xiàng wǒ de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xiōng dì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 嗯先生，是这样的。这次经济危机让我破产了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Well, sir. You see. This </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>recession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hit</t>
+    </r>
+  </si>
+  <si>
+    <t>我丢了工作，还有很多债务。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>me pretty bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> my job and i’m</t>
+    </r>
+  </si>
+  <si>
+    <t>èn xiān shēng ，shì zhè yàng de 。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5565AF"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>debt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhè cì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jīng jì wēi jī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ràng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pò chǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>diū le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gōng zuò ，hái yǒu hěn duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF5565AF"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhài wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>C: 我明白了。你可以申请贷款。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C: I see. You’re </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>asking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>loan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ míng bái le 。nǐ kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00864B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shēn qǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dài kuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我想，或许你能帮上忙。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Well I just thought maybe you could  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xiǎng ，huò xǔ nǐ néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bāng shàng máng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>C: 什么？在这个时候？你知道的我也破产了。</t>
+  </si>
+  <si>
+    <t>C: What? At a time like this? I’m broke too.</t>
+  </si>
+  <si>
+    <t>shen me ？zài zhè gè shí hòu ？nǐ zhī dào de wǒ yě pò chǎn le 。</t>
+  </si>
+  <si>
+    <t>窗户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuāng hù </t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tài yáng </t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>男孩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nán hái </t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shū </t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hóng sè </t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lán sè </t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lǜ sè </t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǚ hái </t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>筷子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuài zǐ </t>
+  </si>
+  <si>
+    <t>Chopsticks</t>
+  </si>
+  <si>
+    <t>喝水</t>
+  </si>
+  <si>
+    <t>hē shuǐ</t>
+  </si>
+  <si>
+    <t>Drinking water</t>
+  </si>
+  <si>
+    <t>杯子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bēi zǐ </t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kā fēi </t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miàn bāo </t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>zhuō zǐ</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuò </t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yǐ zǐ </t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>小孩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiǎo hái </t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chāo shì </t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>壹</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>拾</t>
+  </si>
+  <si>
+    <t>顾客</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gù kè </t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>贰</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mǎi </t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mài </t>
+  </si>
+  <si>
+    <t>Selling</t>
+  </si>
+  <si>
+    <t>打折</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dǎ zhé </t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>打7折</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">líng shí </t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pí jiǔ </t>
+  </si>
+  <si>
+    <t>beer</t>
   </si>
 </sst>
 </file>
@@ -11567,7 +12458,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11583,6 +12474,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -11609,11 +12517,6 @@
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11827,6 +12730,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF5565AF"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -11870,12 +12779,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -12212,149 +13115,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -12364,6 +13272,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12423,6 +13333,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381635" y="356870"/>
+          <a:ext cx="2866390" cy="2836545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360045" y="3674110"/>
+          <a:ext cx="3108960" cy="3078480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360680" y="7185660"/>
+          <a:ext cx="3185160" cy="3185160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12723,8 +13764,8 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="3" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -12830,13 +13871,13 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="1" t="s">
@@ -12910,7 +13951,7 @@
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="2"/>
+      <c r="X34" s="3"/>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="1" t="s">
@@ -12921,12 +13962,12 @@
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="7"/>
+      <c r="C37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -12949,7 +13990,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -12966,30 +14007,30 @@
       <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="U4" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>293</v>
       </c>
     </row>
@@ -13007,29 +14048,29 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
       <c r="U13" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>299</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -13037,65 +14078,65 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="15"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="18"/>
     </row>
     <row r="23" spans="4:24">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>310</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="18"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>313</v>
       </c>
     </row>
@@ -13103,18 +14144,18 @@
       <c r="C26" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="U26" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -13122,19 +14163,19 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13157,7 +14198,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -13174,7 +14215,7 @@
       <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="U4" s="1" t="s">
         <v>323</v>
       </c>
@@ -13183,16 +14224,16 @@
       <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -13201,7 +14242,7 @@
       <c r="C8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
@@ -13223,45 +14264,45 @@
       <c r="C12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14"/>
       <c r="U14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="V15" s="4" t="s">
+      <c r="D15" s="15"/>
+      <c r="V15" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
       <c r="U17" s="1" t="s">
         <v>340</v>
       </c>
@@ -13270,57 +14311,57 @@
       <c r="C18" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="8"/>
-      <c r="W19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="15"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="2"/>
-      <c r="X22" s="11"/>
+      <c r="D22" s="3"/>
+      <c r="X22" s="18"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="18"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="U24" s="2"/>
+      <c r="D24" s="15"/>
+      <c r="U24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="U26" s="1" t="s">
         <v>349</v>
       </c>
@@ -13329,29 +14370,29 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13374,7 +14415,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -13391,24 +14432,24 @@
       <c r="C4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -13417,7 +14458,7 @@
       <c r="C8" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="X8" s="1" t="s">
         <v>361</v>
       </c>
@@ -13428,7 +14469,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -13441,7 +14482,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>366</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -13452,37 +14493,37 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14"/>
       <c r="W14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="3"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>374</v>
       </c>
     </row>
@@ -13490,28 +14531,28 @@
       <c r="C18" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="W18" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>380</v>
       </c>
     </row>
@@ -13519,30 +14560,30 @@
       <c r="C22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>383</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>386</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -13553,30 +14594,30 @@
       <c r="C26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="W26" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="3"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -13585,8 +14626,8 @@
       <c r="J31" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="1" t="s">
@@ -13651,7 +14692,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -13668,13 +14709,13 @@
       <c r="C4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="X4" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>407</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -13682,7 +14723,7 @@
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>409</v>
       </c>
@@ -13691,7 +14732,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -13700,7 +14741,7 @@
       <c r="C8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="X8" s="1" t="s">
         <v>413</v>
       </c>
@@ -13711,7 +14752,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="3"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -13722,42 +14763,42 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14"/>
       <c r="X14" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="3"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -13765,69 +14806,69 @@
       <c r="C18" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="X18" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="8"/>
-      <c r="AG20" s="2"/>
+      <c r="D20" s="15"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2"/>
-      <c r="AC23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="15"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="15"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="20" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -13835,12 +14876,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="16" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -13851,8 +14892,8 @@
       <c r="D31" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13875,7 +14916,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -13892,30 +14933,30 @@
       <c r="C4" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>447</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -13944,37 +14985,37 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14"/>
       <c r="W14" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="3"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="15" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
       </c>
@@ -13983,32 +15024,32 @@
       <c r="C17" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
       <c r="W17" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="8"/>
-      <c r="AB19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="15"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -14016,29 +15057,29 @@
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="15"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>471</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -14046,12 +15087,12 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -14065,18 +15106,18 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="20"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="9"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -14085,8 +15126,8 @@
       <c r="D31" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="1" t="s">
@@ -14122,7 +15163,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14139,30 +15180,30 @@
       <c r="C4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="T4" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14185,93 +15226,93 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
       <c r="T13" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="AA15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="T16" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="3:28">
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="15"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>507</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -14279,28 +15320,28 @@
       <c r="C26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="T26" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="13"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14323,7 +15364,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14340,13 +15381,13 @@
       <c r="C4" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="R4" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:19">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>517</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -14366,13 +15407,13 @@
       <c r="AJ6" s="1">
         <v>4</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="3"/>
     </row>
     <row r="7" spans="2:41">
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -14395,7 +15436,7 @@
       <c r="C8" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="R8" s="1" t="s">
         <v>528</v>
       </c>
@@ -14414,7 +15455,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>532</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -14422,117 +15463,117 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="15"/>
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="20" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="R18" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="8"/>
-      <c r="AG20" s="2"/>
+      <c r="D20" s="15"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
       <c r="R21" s="1" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2"/>
-      <c r="AC23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="15"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="3:18">
       <c r="C27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="15"/>
       <c r="R27" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14555,7 +15596,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14569,13 +15610,13 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" ht="13" customHeight="1" spans="3:22">
       <c r="C5" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="14"/>
       <c r="V5" s="1" t="s">
         <v>554</v>
       </c>
@@ -14584,16 +15625,16 @@
       <c r="D6" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="3"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="V8" s="1" t="s">
         <v>557</v>
       </c>
@@ -14620,13 +15661,13 @@
       <c r="C12" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
       <c r="V12" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>564</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -14634,90 +15675,90 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="15"/>
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="V18" s="1" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="8"/>
-      <c r="AG20" s="2"/>
+      <c r="D20" s="15"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="3:22">
       <c r="C21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
       <c r="V21" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>575</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AC22" s="11"/>
+      <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="15"/>
       <c r="V24" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="L26" s="1" t="s">
         <v>581</v>
       </c>
@@ -14726,13 +15767,13 @@
       <c r="C27" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="15"/>
       <c r="V27" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="14" t="s">
         <v>584</v>
       </c>
       <c r="W28" s="1" t="s">
@@ -14740,7 +15781,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>586</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -14748,14 +15789,14 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="9"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="1" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14778,7 +15819,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14795,13 +15836,13 @@
       <c r="C4" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="U4" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>592</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -14815,7 +15856,7 @@
       <c r="V6" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="3"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -14831,7 +15872,7 @@
       <c r="C9" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="U9" s="1" t="s">
         <v>599</v>
       </c>
@@ -14864,13 +15905,13 @@
       <c r="C13" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
       <c r="U13" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>608</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -14878,29 +15919,29 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="11"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="14"/>
       <c r="U17" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>614</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -14908,7 +15949,7 @@
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>616</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -14916,16 +15957,16 @@
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="AB20" s="11"/>
+      <c r="AB20" s="18"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="15"/>
       <c r="M21" s="1" t="s">
         <v>620</v>
       </c>
@@ -14935,44 +15976,44 @@
       <c r="U21" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" s="3"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2"/>
-      <c r="AC23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
       <c r="U24" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AC24" s="11"/>
+      <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>629</v>
       </c>
     </row>
@@ -14980,25 +16021,25 @@
       <c r="C28" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="15"/>
       <c r="U28" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="45:46">
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15021,7 +16062,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15038,16 +16079,16 @@
       <c r="C4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="U4" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="17" t="s">
         <v>637</v>
       </c>
     </row>
@@ -15058,7 +16099,7 @@
       <c r="V6" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="3"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -15071,7 +16112,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>642</v>
       </c>
     </row>
@@ -15097,7 +16138,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="19" t="s">
         <v>648</v>
       </c>
     </row>
@@ -15105,41 +16146,41 @@
       <c r="C14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14"/>
       <c r="U14" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="11"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="8"/>
-      <c r="AA16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="14"/>
       <c r="U17" s="1" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="10" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>656</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -15150,58 +16191,58 @@
       <c r="C20" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="15"/>
       <c r="V20" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AB20" s="11"/>
+      <c r="AB20" s="18"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="AG21" s="2"/>
+      <c r="D21" s="15"/>
+      <c r="AG21" s="3"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="3:4">
       <c r="C22" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="3:29">
       <c r="C23" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
       <c r="U23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
       <c r="V24" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AC24" s="11"/>
+      <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="V25" s="3"/>
-      <c r="Z25" s="2"/>
+      <c r="D25" s="15"/>
+      <c r="V25" s="10"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
       <c r="U26" s="1" t="s">
         <v>668</v>
       </c>
@@ -15210,23 +16251,23 @@
       <c r="C27" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="45:46">
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15249,7 +16290,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15266,18 +16307,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15285,13 +16326,13 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -15312,27 +16353,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -15343,21 +16384,21 @@
       <c r="W17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -15365,12 +16406,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15388,7 +16429,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15396,24 +16437,24 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="14"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -15444,7 +16485,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15461,16 +16502,16 @@
       <c r="C4" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:24">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="17"/>
       <c r="X5" s="1" t="s">
         <v>674</v>
       </c>
@@ -15479,7 +16520,7 @@
       <c r="D6" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="3"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -15495,10 +16536,10 @@
       </c>
     </row>
     <row r="9" spans="4:24">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="11" t="s">
         <v>680</v>
       </c>
     </row>
@@ -15511,7 +16552,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>683</v>
       </c>
     </row>
@@ -15524,7 +16565,7 @@
       </c>
     </row>
     <row r="13" spans="4:24">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>686</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -15532,7 +16573,7 @@
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>688</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -15540,20 +16581,20 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="11"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="14" t="s">
         <v>692</v>
       </c>
     </row>
@@ -15561,14 +16602,14 @@
       <c r="C18" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="V18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="V18" s="10"/>
       <c r="W18" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="19" spans="4:24">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>695</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -15576,7 +16617,7 @@
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>697</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -15585,48 +16626,48 @@
       <c r="X20" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="AB20" s="11"/>
+      <c r="AB20" s="18"/>
     </row>
     <row r="21" spans="4:33">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" s="3"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AC23" s="11"/>
+      <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
       <c r="W24" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="AC24" s="11"/>
+      <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="V25" s="3"/>
+      <c r="V25" s="10"/>
       <c r="X25" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>707</v>
       </c>
     </row>
@@ -15634,13 +16675,13 @@
       <c r="C27" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
       <c r="W27" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="28" spans="4:24">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="15" t="s">
         <v>710</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -15648,17 +16689,17 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="14" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="15" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="31" spans="3:23">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="16" t="s">
         <v>714</v>
       </c>
       <c r="W31" s="1" t="s">
@@ -15672,8 +16713,8 @@
       <c r="X32" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
@@ -15721,7 +16762,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1030" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -15790,7 +16831,7 @@
       <c r="T12" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
@@ -15801,12 +16842,12 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>740</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -15828,7 +16869,7 @@
       <c r="U17" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
@@ -15889,7 +16930,7 @@
       <c r="T27" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -15905,10 +16946,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="3"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15933,7 +16974,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1030" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -15992,7 +17033,7 @@
       <c r="U12" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -16000,13 +17041,13 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="12"/>
       <c r="U15" s="1" t="s">
         <v>777</v>
       </c>
@@ -16023,7 +17064,7 @@
       <c r="O17" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="1" t="s">
@@ -16092,7 +17133,7 @@
       <c r="C27" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="1" t="s">
@@ -16116,7 +17157,7 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="3"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -16128,7 +17169,7 @@
       <c r="H32" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="10"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
@@ -16164,7 +17205,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1030" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -16236,7 +17277,7 @@
       <c r="C12" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -16244,7 +17285,7 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="3"/>
+      <c r="C14" s="10"/>
       <c r="Q14" s="1" t="s">
         <v>824</v>
       </c>
@@ -16253,7 +17294,7 @@
       <c r="B15" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="12"/>
       <c r="S15" s="1" t="s">
         <v>826</v>
       </c>
@@ -16264,7 +17305,7 @@
       </c>
     </row>
     <row r="17" spans="27:27">
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
@@ -16328,7 +17369,7 @@
       <c r="T27" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
@@ -16341,10 +17382,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="3"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16358,8 +17399,8 @@
   <sheetPr/>
   <dimension ref="B1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -16369,7 +17410,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1030" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -16412,7 +17453,6 @@
       <c r="B9" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>853</v>
       </c>
@@ -16431,16 +17471,16 @@
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="10"/>
       <c r="Q14" s="1" t="s">
         <v>859</v>
       </c>
@@ -16449,12 +17489,12 @@
       <c r="C15" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="11" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>862</v>
       </c>
     </row>
@@ -16462,7 +17502,7 @@
       <c r="C17" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
@@ -16481,7 +17521,6 @@
       <c r="B21" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="Q21" s="1" t="s">
         <v>868</v>
       </c>
@@ -16492,18 +17531,725 @@
       </c>
     </row>
     <row r="27" spans="25:25">
-      <c r="Y27" s="3"/>
+      <c r="Y27" s="10"/>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="3"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AA47"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26">
+      <c r="C3" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="8" spans="27:27">
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="3:20">
+      <c r="C9" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20">
+      <c r="C12" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21">
+      <c r="D13" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20">
+      <c r="C16" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20">
+      <c r="C19" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21">
+      <c r="D20" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21">
+      <c r="D21" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20">
+      <c r="C24" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="3:20">
+      <c r="C27" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20">
+      <c r="C30" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="47" ht="23.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AW50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Y57" sqref="Y57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="22" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="23" max="30" width="2.62962962962963" style="2" customWidth="1"/>
+    <col min="31" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="23:33">
+      <c r="W3" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AG3" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="4:33">
+      <c r="D4" s="3"/>
+      <c r="T4" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AG4" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="23:33">
+      <c r="W5" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AG5" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="23:33">
+      <c r="W6" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AG6" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="7" spans="23:33">
+      <c r="W7" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AG7" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="23:33">
+      <c r="W8" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AG8" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="23:33">
+      <c r="W9" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AG9" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="12" spans="20:20">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="4:32">
+      <c r="D22" s="3"/>
+      <c r="W22" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AF22" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="23" spans="4:32">
+      <c r="D23" s="3"/>
+      <c r="W23" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AF23" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="24" spans="20:32">
+      <c r="T24" s="3"/>
+      <c r="W24" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AF24" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="25" spans="4:32">
+      <c r="D25" s="3"/>
+      <c r="W25" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AF25" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="26" spans="12:32">
+      <c r="L26" s="4"/>
+      <c r="W26" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AF26" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="27" spans="20:32">
+      <c r="T27" s="3"/>
+      <c r="W27" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AF27" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="4:32">
+      <c r="D28" s="3"/>
+      <c r="W28" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AF28" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="29" spans="23:32">
+      <c r="W29" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AF29" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="30" spans="23:32">
+      <c r="W30" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AF30" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="43" spans="23:45">
+      <c r="W43" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AG43" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="44" spans="23:49">
+      <c r="W44" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AG44" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="45" spans="23:46">
+      <c r="W45" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AG45" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="AT45" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="46" spans="23:33">
+      <c r="W46" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AG46" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1" spans="23:33">
+      <c r="W47" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AG47" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="48" spans="23:41">
+      <c r="W48" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AG48" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="AO48" s="8"/>
+    </row>
+    <row r="49" spans="22:33">
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AG49" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="50" spans="23:33">
+      <c r="W50" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AG50" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16521,7 +18267,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16538,18 +18284,18 @@
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -16557,13 +18303,13 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -16589,25 +18335,25 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="7"/>
-      <c r="W13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>96</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -16623,10 +18369,10 @@
       <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -16634,25 +18380,25 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="23"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="14"/>
       <c r="W22" s="1" t="s">
         <v>105</v>
       </c>
@@ -16666,24 +18412,24 @@
       <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="14"/>
       <c r="W25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16706,7 +18452,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16723,30 +18469,30 @@
       <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16764,17 +18510,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -16785,7 +18531,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16798,10 +18544,10 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16809,13 +18555,13 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="23"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="7"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>130</v>
       </c>
@@ -16824,12 +18570,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16850,7 +18596,7 @@
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>138</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -16858,7 +18604,7 @@
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="14" t="s">
         <v>140</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -16866,7 +18612,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -16874,13 +18620,13 @@
       <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
       <c r="V28" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -16942,7 +18688,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16954,30 +18700,30 @@
       <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="AA4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -16998,30 +18744,30 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>166</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>170</v>
       </c>
     </row>
@@ -17034,21 +18780,21 @@
       <c r="C17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="16"/>
-      <c r="W19" s="11"/>
+      <c r="D19" s="23"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:27">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="14" t="s">
         <v>175</v>
       </c>
       <c r="AA20" s="1" t="s">
@@ -17056,12 +18802,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
@@ -17077,7 +18823,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -17085,26 +18831,26 @@
       <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="14"/>
       <c r="AA26" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="18" t="s">
+      <c r="AA27" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="25" t="s">
         <v>187</v>
       </c>
     </row>
@@ -17129,7 +18875,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -17137,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:1025">
+    <row r="2" s="3" customFormat="1" spans="1:1025">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -18173,12 +19919,12 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="3:26">
       <c r="C6" s="1" t="s">
@@ -18197,7 +19943,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18210,7 +19956,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -18218,7 +19964,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -18244,7 +19990,7 @@
       <c r="C15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="14"/>
       <c r="Z15" s="1" t="s">
         <v>206</v>
       </c>
@@ -18253,16 +19999,16 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="11"/>
+      <c r="W16" s="18"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="11"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="14"/>
       <c r="Z18" s="1" t="s">
         <v>209</v>
       </c>
@@ -18273,41 +20019,41 @@
       </c>
     </row>
     <row r="20" spans="27:27">
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="3:26">
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="22"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="11"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="7"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="14"/>
       <c r="Z24" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:1025">
+    <row r="26" s="3" customFormat="1" spans="1:1025">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -19351,12 +21097,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -19364,13 +21110,13 @@
       <c r="C31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="14"/>
       <c r="Z31" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -19395,7 +21141,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -19412,18 +21158,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19431,13 +21177,13 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -19458,27 +21204,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -19489,21 +21235,21 @@
       <c r="W17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -19511,12 +21257,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -19534,7 +21280,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -19542,24 +21288,24 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="14"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -19590,7 +21336,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -19613,30 +21359,30 @@
       <c r="C4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="T4" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="15"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -19654,17 +21400,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="14"/>
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -19675,7 +21421,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -19691,10 +21437,10 @@
       <c r="T17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -19702,13 +21448,13 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="11"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>250</v>
       </c>
@@ -19717,13 +21463,13 @@
       <c r="C21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="14"/>
       <c r="T21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="14" t="s">
         <v>253</v>
       </c>
     </row>
@@ -19741,7 +21487,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -19749,21 +21495,21 @@
       <c r="C26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="14"/>
       <c r="T26" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -19786,7 +21532,7 @@
     <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1025" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -19803,30 +21549,30 @@
       <c r="B4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="13"/>
       <c r="S4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="7"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="15"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -19849,17 +21595,17 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="7"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="14"/>
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="11"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -19867,7 +21613,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
@@ -19881,37 +21627,37 @@
       <c r="C17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="23"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="11"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="7"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="14" t="s">
         <v>283</v>
       </c>
     </row>
@@ -19929,19 +21675,19 @@
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="7"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="7"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="7"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="8"/>
+      <c r="C29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="18" activeTab="25"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="20230820" sheetId="28" r:id="rId24"/>
     <sheet name="20230827" sheetId="29" r:id="rId25"/>
     <sheet name="20230903" sheetId="30" r:id="rId26"/>
+    <sheet name="20230917" sheetId="31" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1072">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -12446,6 +12447,255 @@
   </si>
   <si>
     <t>beer</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>dēng</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xué shēng </t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lǎo shī </t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yǎn jìng </t>
+  </si>
+  <si>
+    <t>Glasses</t>
+  </si>
+  <si>
+    <t>eyes ya3n ji1ng</t>
+  </si>
+  <si>
+    <t>近视</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jìn shì </t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>黑板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hēi bǎn </t>
+  </si>
+  <si>
+    <t>Blackboard</t>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gāng bǐ </t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>粉笔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fěn bǐ </t>
+  </si>
+  <si>
+    <t>chalk</t>
+  </si>
+  <si>
+    <t>在明亮的教室里面，学生们都趴在桌子上认真学习。</t>
+  </si>
+  <si>
+    <t>focus on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zài míng liàng de jiāo shì lǐ miàn ，xué shēng men dōu pā zài zhuō zǐ shàng rèn zhēn xué xí </t>
+  </si>
+  <si>
+    <t>In the bright classroom, students are all lying on their desks studying diligently</t>
+  </si>
+  <si>
+    <t>餐厅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cān tīng </t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niú nǎi </t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>美食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">měi shí </t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>饭</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>黄头发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huáng tóu fā </t>
+  </si>
+  <si>
+    <t>Yellow hair</t>
+  </si>
+  <si>
+    <t>肌肉</t>
+  </si>
+  <si>
+    <t>jī ròu</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fú wù yuán </t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>金发碧眼</t>
+  </si>
+  <si>
+    <t>Blond hair and blue eyes</t>
+  </si>
+  <si>
+    <t>在一个小饭馆里面，</t>
+  </si>
+  <si>
+    <t>zài yī gè xiǎo fàn guǎn lǐ miàn ，</t>
+  </si>
+  <si>
+    <t>一个黄头发的有着强壮肌肉的男人正趴在桌子上认真的吃着美味的食物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yī gè huáng tóu fā de yǒu zhe qiáng zhuàng jī ròu de nán rén </t>
+  </si>
+  <si>
+    <t>zhèng pā zài zhuō zǐ shàng rèn zhēn de chī zhe měi wèi de shí wù</t>
+  </si>
+  <si>
+    <t>In a small restaurant,</t>
+  </si>
+  <si>
+    <t>A man with yellow hair and strong muscles is lying on the table, eating delicious food seriously</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shàng hǎi </t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huǒ chē </t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niǎo </t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>天空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiān kōng </t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>铁轨</t>
+  </si>
+  <si>
+    <t>tiě guǐ</t>
+  </si>
+  <si>
+    <t>Rail tracks</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>qiáo</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>一辆快速的火车从远方飞来，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yī liàng kuài sù de huǒ chē cóng yuǎn fāng fēi lái ， </t>
+  </si>
+  <si>
+    <t>在远方可以看到上海，还有鸟儿在自由的飞翔。</t>
+  </si>
+  <si>
+    <t>zài yuǎn fāng kě yǐ kàn dào shàng hǎi ，hái yǒu niǎo ér zài zì yóu de fēi xiáng</t>
+  </si>
+  <si>
+    <t>freedom</t>
+  </si>
+  <si>
+    <t>A fast train flew in from afar,</t>
+  </si>
+  <si>
+    <t>In the distance, you can see Shanghai, and there are birds flying freely.</t>
   </si>
 </sst>
 </file>
@@ -13250,19 +13500,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -13457,6 +13707,179 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122555</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375920" y="361315"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360680" y="4739640"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360680" y="4739640"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360680" y="8956040"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -13764,8 +14187,8 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1021" max="1025" width="2.63888888888889" style="3" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -13871,13 +14294,13 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="1" t="s">
@@ -13951,7 +14374,7 @@
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="3"/>
+      <c r="X34" s="2"/>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="1" t="s">
@@ -13962,12 +14385,12 @@
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="14"/>
+      <c r="C37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13990,7 +14413,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14007,13 +14430,13 @@
       <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="U4" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -14030,7 +14453,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -14048,25 +14471,25 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="U13" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>299</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="4:22">
@@ -14078,17 +14501,17 @@
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
@@ -14104,7 +14527,7 @@
       <c r="D20" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="15"/>
@@ -14113,14 +14536,14 @@
       <c r="C22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="4:24">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>310</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -14129,14 +14552,14 @@
       <c r="X23" s="18"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="14"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -14144,7 +14567,7 @@
       <c r="C26" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="U26" s="1" t="s">
         <v>315</v>
       </c>
@@ -14155,7 +14578,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -14174,8 +14597,8 @@
       </c>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14198,7 +14621,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14215,7 +14638,7 @@
       <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="U4" s="1" t="s">
         <v>323</v>
       </c>
@@ -14224,7 +14647,7 @@
       <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="21"/>
@@ -14242,7 +14665,7 @@
       <c r="C8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
@@ -14264,45 +14687,45 @@
       <c r="C12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="U14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="18"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>336</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="12" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
       <c r="U17" s="1" t="s">
         <v>340</v>
       </c>
@@ -14311,7 +14734,7 @@
       <c r="C18" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
       <c r="D19" s="15"/>
@@ -14325,7 +14748,7 @@
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
@@ -14334,34 +14757,34 @@
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:24">
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="X22" s="18"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
       <c r="X23" s="18"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>347</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="U26" s="1" t="s">
         <v>349</v>
       </c>
@@ -14373,7 +14796,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="1" t="s">
@@ -14385,14 +14808,14 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>353</v>
       </c>
       <c r="D30" s="18"/>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14415,7 +14838,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14432,13 +14855,13 @@
       <c r="C4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>357</v>
       </c>
     </row>
@@ -14458,7 +14881,7 @@
       <c r="C8" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="X8" s="1" t="s">
         <v>361</v>
       </c>
@@ -14469,7 +14892,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>363</v>
       </c>
     </row>
@@ -14482,7 +14905,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>366</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -14493,37 +14916,37 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="15" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>374</v>
       </c>
     </row>
@@ -14531,7 +14954,7 @@
       <c r="C18" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="W18" s="1" t="s">
         <v>376</v>
       </c>
@@ -14549,7 +14972,7 @@
       <c r="D20" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="15" t="s">
@@ -14560,14 +14983,14 @@
       <c r="C22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>383</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -14576,14 +14999,14 @@
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>386</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -14594,7 +15017,7 @@
       <c r="C26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="W26" s="1" t="s">
         <v>389</v>
       </c>
@@ -14605,7 +15028,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
@@ -14617,7 +15040,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="10"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -14626,8 +15049,8 @@
       <c r="J31" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="1" t="s">
@@ -14692,7 +15115,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14709,13 +15132,13 @@
       <c r="C4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="X4" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:25">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>407</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -14741,7 +15164,7 @@
       <c r="C8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="X8" s="1" t="s">
         <v>413</v>
       </c>
@@ -14752,7 +15175,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -14763,42 +15186,42 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="X14" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="15" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="11"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -14806,7 +15229,7 @@
       <c r="C18" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="X18" s="1" t="s">
         <v>425</v>
       </c>
@@ -14819,7 +15242,7 @@
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="15"/>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
@@ -14831,32 +15254,32 @@
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>430</v>
       </c>
       <c r="D24" s="15"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27" s="1" t="s">
@@ -14892,8 +15315,8 @@
       <c r="D31" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14916,7 +15339,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -14933,13 +15356,13 @@
       <c r="C4" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>444</v>
       </c>
     </row>
@@ -14956,7 +15379,7 @@
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>447</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -14985,37 +15408,37 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="W14" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="15" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
       </c>
@@ -15024,13 +15447,13 @@
       <c r="C17" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
       <c r="W17" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>462</v>
       </c>
     </row>
@@ -15046,7 +15469,7 @@
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
       <c r="D21" s="15" t="s">
@@ -15057,29 +15480,29 @@
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>469</v>
       </c>
       <c r="D24" s="15"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:24">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>471</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -15087,7 +15510,7 @@
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15126,8 +15549,8 @@
       <c r="D31" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
     <row r="32" spans="3:23">
       <c r="C32" s="1" t="s">
@@ -15163,7 +15586,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15180,13 +15603,13 @@
       <c r="C4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="T4" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>488</v>
       </c>
     </row>
@@ -15203,7 +15626,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15226,45 +15649,45 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="T13" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="15"/>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="T16" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:28">
       <c r="C19" s="1" t="s">
@@ -15280,7 +15703,7 @@
       <c r="D20" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="15"/>
@@ -15289,14 +15712,14 @@
       <c r="C22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>507</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -15305,14 +15728,14 @@
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -15320,7 +15743,7 @@
       <c r="C26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="T26" s="1" t="s">
         <v>512</v>
       </c>
@@ -15340,8 +15763,8 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15364,7 +15787,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15381,13 +15804,13 @@
       <c r="C4" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="R4" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:19">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>517</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -15407,13 +15830,13 @@
       <c r="AJ6" s="1">
         <v>4</v>
       </c>
-      <c r="AMP6" s="3"/>
+      <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="2:41">
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -15436,7 +15859,7 @@
       <c r="C8" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="R8" s="1" t="s">
         <v>528</v>
       </c>
@@ -15455,7 +15878,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>532</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -15463,7 +15886,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>534</v>
       </c>
     </row>
@@ -15471,7 +15894,7 @@
       <c r="D14" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
@@ -15482,7 +15905,7 @@
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -15493,13 +15916,13 @@
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="R18" s="1" t="s">
         <v>541</v>
       </c>
@@ -15512,7 +15935,7 @@
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="15"/>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
@@ -15524,32 +15947,32 @@
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>545</v>
       </c>
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>546</v>
       </c>
       <c r="D24" s="15"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:18">
       <c r="C27" s="1" t="s">
@@ -15561,7 +15984,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>551</v>
       </c>
     </row>
@@ -15572,8 +15995,8 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15596,7 +16019,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15610,13 +16033,13 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" ht="13" customHeight="1" spans="3:22">
       <c r="C5" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="10"/>
       <c r="V5" s="1" t="s">
         <v>554</v>
       </c>
@@ -15625,16 +16048,16 @@
       <c r="D6" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="AMP6" s="3"/>
+      <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="V8" s="1" t="s">
         <v>557</v>
       </c>
@@ -15661,13 +16084,13 @@
       <c r="C12" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
       <c r="V12" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>564</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -15675,10 +16098,10 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="18"/>
     </row>
     <row r="15" spans="3:27">
@@ -15689,21 +16112,21 @@
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="V18" s="1" t="s">
         <v>571</v>
       </c>
@@ -15716,7 +16139,7 @@
     </row>
     <row r="20" spans="4:33">
       <c r="D20" s="15"/>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="2"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="3:22">
       <c r="C21" s="1" t="s">
@@ -15728,7 +16151,7 @@
       </c>
     </row>
     <row r="22" spans="4:29">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>575</v>
       </c>
       <c r="W22" s="1" t="s">
@@ -15737,28 +16160,28 @@
       <c r="AC22" s="18"/>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>577</v>
       </c>
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>578</v>
       </c>
       <c r="D24" s="15"/>
       <c r="V24" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="L26" s="1" t="s">
         <v>581</v>
       </c>
@@ -15773,7 +16196,7 @@
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>584</v>
       </c>
       <c r="W28" s="1" t="s">
@@ -15795,8 +16218,8 @@
       </c>
     </row>
     <row r="31" spans="45:46">
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15819,7 +16242,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -15836,13 +16259,13 @@
       <c r="C4" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="U4" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>592</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -15856,7 +16279,7 @@
       <c r="V6" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="AMP6" s="3"/>
+      <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -15872,7 +16295,7 @@
       <c r="C9" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="U9" s="1" t="s">
         <v>599</v>
       </c>
@@ -15905,13 +16328,13 @@
       <c r="C13" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="U13" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>608</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -15919,29 +16342,29 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="2"/>
       <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="10"/>
       <c r="U17" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>614</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -15949,7 +16372,7 @@
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>616</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -15976,7 +16399,7 @@
       <c r="U21" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AG21" s="3"/>
+      <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
       <c r="D22" s="15" t="s">
@@ -15984,36 +16407,36 @@
       </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="AC23" s="18"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="U24" s="1" t="s">
         <v>625</v>
       </c>
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="14"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>629</v>
       </c>
     </row>
@@ -16027,7 +16450,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="10" t="s">
         <v>632</v>
       </c>
     </row>
@@ -16038,8 +16461,8 @@
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="45:46">
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16062,7 +16485,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16079,13 +16502,13 @@
       <c r="C4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="U4" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>636</v>
       </c>
       <c r="V5" s="17" t="s">
@@ -16099,7 +16522,7 @@
       <c r="V6" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AMP6" s="3"/>
+      <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -16112,7 +16535,7 @@
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>642</v>
       </c>
     </row>
@@ -16146,41 +16569,41 @@
       <c r="C14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="U14" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="2"/>
       <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="15"/>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="10"/>
       <c r="U17" s="1" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" s="11" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>656</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -16202,7 +16625,7 @@
         <v>660</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="AG21" s="3"/>
+      <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="3:4">
       <c r="C22" s="1" t="s">
@@ -16214,7 +16637,7 @@
       <c r="C23" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="U23" s="1" t="s">
         <v>663</v>
       </c>
@@ -16224,25 +16647,25 @@
       <c r="C24" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="V24" s="1" t="s">
         <v>665</v>
       </c>
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>666</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="V25" s="10"/>
-      <c r="Z25" s="3"/>
+      <c r="V25" s="11"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="U26" s="1" t="s">
         <v>668</v>
       </c>
@@ -16251,13 +16674,13 @@
       <c r="C27" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="14"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="15"/>
@@ -16266,8 +16689,8 @@
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="45:46">
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16290,7 +16713,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16307,18 +16730,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16332,7 +16755,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16353,12 +16776,12 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
       <c r="W13" s="18"/>
@@ -16373,7 +16796,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -16384,7 +16807,7 @@
       <c r="W17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="22" t="s">
@@ -16398,7 +16821,7 @@
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -16406,12 +16829,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -16429,7 +16852,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -16437,18 +16860,18 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="10"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
@@ -16485,7 +16908,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="1031" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -16502,13 +16925,13 @@
       <c r="C4" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:24">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>673</v>
       </c>
       <c r="V5" s="17"/>
@@ -16520,7 +16943,7 @@
       <c r="D6" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="AMP6" s="3"/>
+      <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="1" t="s">
@@ -16536,10 +16959,10 @@
       </c>
     </row>
     <row r="9" spans="4:24">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="12" t="s">
         <v>680</v>
       </c>
     </row>
@@ -16552,7 +16975,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>683</v>
       </c>
     </row>
@@ -16565,7 +16988,7 @@
       </c>
     </row>
     <row r="13" spans="4:24">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>686</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -16573,7 +16996,7 @@
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>688</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -16581,20 +17004,20 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="2"/>
       <c r="AC15" s="18"/>
     </row>
     <row r="16" spans="4:27">
       <c r="D16" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>692</v>
       </c>
     </row>
@@ -16602,14 +17025,14 @@
       <c r="C18" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="V18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="V18" s="11"/>
       <c r="W18" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="19" spans="4:24">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>695</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -16632,7 +17055,7 @@
       <c r="D21" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="AG21" s="3"/>
+      <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
       <c r="D22" s="15" t="s">
@@ -16640,7 +17063,7 @@
       </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>702</v>
       </c>
       <c r="AC23" s="18"/>
@@ -16649,25 +17072,25 @@
       <c r="C24" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="W24" s="1" t="s">
         <v>704</v>
       </c>
       <c r="AC24" s="18"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="14"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="V25" s="10"/>
+      <c r="V25" s="11"/>
       <c r="X25" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>707</v>
       </c>
     </row>
@@ -16675,7 +17098,7 @@
       <c r="C27" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="W27" s="1" t="s">
         <v>709</v>
       </c>
@@ -16689,7 +17112,7 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="10" t="s">
         <v>712</v>
       </c>
     </row>
@@ -16713,8 +17136,8 @@
       <c r="X32" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
@@ -16762,7 +17185,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="3"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -16831,7 +17254,7 @@
       <c r="T12" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
@@ -16842,12 +17265,12 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>740</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -16869,7 +17292,7 @@
       <c r="U17" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
@@ -16930,7 +17353,7 @@
       <c r="T27" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="11"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -16946,10 +17369,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="10"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16974,7 +17397,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="3"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -17033,7 +17456,7 @@
       <c r="U12" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -17041,13 +17464,13 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="U15" s="1" t="s">
         <v>777</v>
       </c>
@@ -17064,7 +17487,7 @@
       <c r="O17" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="1" t="s">
@@ -17133,7 +17556,7 @@
       <c r="C27" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="11"/>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="1" t="s">
@@ -17157,7 +17580,7 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="10"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -17169,7 +17592,7 @@
       <c r="H32" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="11"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
@@ -17205,7 +17628,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="3"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -17277,7 +17700,7 @@
       <c r="C12" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -17285,7 +17708,7 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="Q14" s="1" t="s">
         <v>824</v>
       </c>
@@ -17294,7 +17717,7 @@
       <c r="B15" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="S15" s="1" t="s">
         <v>826</v>
       </c>
@@ -17305,7 +17728,7 @@
       </c>
     </row>
     <row r="17" spans="27:27">
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
@@ -17369,7 +17792,7 @@
       <c r="T27" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="11"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
@@ -17382,10 +17805,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="10"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17410,7 +17833,7 @@
     <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="3"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -17471,16 +17894,16 @@
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="Q14" s="1" t="s">
         <v>859</v>
       </c>
@@ -17489,12 +17912,12 @@
       <c r="C15" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>862</v>
       </c>
     </row>
@@ -17502,7 +17925,7 @@
       <c r="C17" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
@@ -17531,13 +17954,13 @@
       </c>
     </row>
     <row r="27" spans="25:25">
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="11"/>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="10"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17560,7 +17983,7 @@
     <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -17580,10 +18003,10 @@
       <c r="T3" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>873</v>
       </c>
     </row>
@@ -17601,7 +18024,7 @@
       </c>
     </row>
     <row r="8" spans="27:27">
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="1" t="s">
@@ -17620,7 +18043,7 @@
       <c r="C12" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>881</v>
       </c>
     </row>
@@ -17633,7 +18056,7 @@
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>884</v>
       </c>
     </row>
@@ -17651,16 +18074,16 @@
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>890</v>
       </c>
     </row>
@@ -17668,7 +18091,7 @@
       <c r="C19" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="2" t="s">
         <v>892</v>
       </c>
     </row>
@@ -17676,7 +18099,7 @@
       <c r="D20" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="3" t="s">
         <v>894</v>
       </c>
     </row>
@@ -17684,17 +18107,17 @@
       <c r="D21" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="2" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>898</v>
       </c>
     </row>
@@ -17702,28 +18125,28 @@
       <c r="C24" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="2" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="26" spans="12:12">
-      <c r="L26" s="4"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="3:20">
       <c r="C27" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="2" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>904</v>
       </c>
     </row>
@@ -17753,7 +18176,7 @@
   <sheetPr/>
   <dimension ref="C1:AW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
@@ -17761,10 +18184,8 @@
   <cols>
     <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="22" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="23" max="30" width="2.62962962962963" style="2" customWidth="1"/>
-    <col min="31" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -17773,327 +18194,226 @@
       </c>
     </row>
     <row r="3" spans="23:33">
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="2" t="s">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
       <c r="AG3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="4" spans="4:33">
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="T4" s="1" t="s">
         <v>910</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
       <c r="AG4" s="1" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="5" spans="23:33">
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
       <c r="AG5" s="1" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="6" spans="23:33">
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
       <c r="AG6" s="1" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="7" spans="23:33">
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
       <c r="AG7" s="1" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="8" spans="23:33">
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
       <c r="AG8" s="1" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="9" spans="23:33">
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
       <c r="AG9" s="1" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="12" spans="20:20">
-      <c r="T12" s="3"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="Z17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="20:20">
-      <c r="T19" s="3"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="21:21">
-      <c r="U20" s="4"/>
+      <c r="U20" s="3"/>
     </row>
     <row r="21" spans="21:21">
-      <c r="U21" s="3"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" spans="4:32">
-      <c r="D22" s="3"/>
-      <c r="W22" s="2" t="s">
+      <c r="D22" s="2"/>
+      <c r="W22" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
       <c r="AF22" s="1" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="23" spans="4:32">
-      <c r="D23" s="3"/>
-      <c r="W23" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="W23" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2" t="s">
+      <c r="AA23" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
       <c r="AF23" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="24" spans="20:32">
-      <c r="T24" s="3"/>
-      <c r="W24" s="2" t="s">
+      <c r="T24" s="2"/>
+      <c r="W24" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2" t="s">
+      <c r="AA24" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
       <c r="AF24" s="1" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="25" spans="4:32">
-      <c r="D25" s="3"/>
-      <c r="W25" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="W25" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
       <c r="AF25" s="1" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="26" spans="12:32">
-      <c r="L26" s="4"/>
-      <c r="W26" s="2" t="s">
+      <c r="L26" s="3"/>
+      <c r="W26" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2" t="s">
+      <c r="AA26" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
       <c r="AF26" s="1" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="27" spans="20:32">
-      <c r="T27" s="3"/>
-      <c r="W27" s="2" t="s">
+      <c r="T27" s="2"/>
+      <c r="W27" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2" t="s">
+      <c r="AA27" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
       <c r="AF27" s="1" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="28" spans="4:32">
-      <c r="D28" s="3"/>
-      <c r="W28" s="2" t="s">
+      <c r="D28" s="2"/>
+      <c r="W28" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
       <c r="AF28" s="1" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="29" spans="23:32">
-      <c r="W29" s="2" t="s">
+      <c r="W29" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
       <c r="AF29" s="1" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="30" spans="23:32">
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2" t="s">
+      <c r="AA30" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
       <c r="AF30" s="1" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="43" spans="23:45">
-      <c r="W43" s="2" t="s">
+      <c r="W43" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2" t="s">
+      <c r="AA43" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
       <c r="AG43" s="1" t="s">
         <v>959</v>
       </c>
@@ -18102,18 +18422,12 @@
       </c>
     </row>
     <row r="44" spans="23:49">
-      <c r="W44" s="2" t="s">
+      <c r="W44" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2" t="s">
+      <c r="AA44" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
       <c r="AG44" s="1" t="s">
         <v>963</v>
       </c>
@@ -18131,18 +18445,12 @@
       </c>
     </row>
     <row r="45" spans="23:46">
-      <c r="W45" s="2" t="s">
+      <c r="W45" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2" t="s">
+      <c r="AA45" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
       <c r="AG45" s="1" t="s">
         <v>970</v>
       </c>
@@ -18154,95 +18462,575 @@
       </c>
     </row>
     <row r="46" spans="23:33">
-      <c r="W46" s="2" t="s">
+      <c r="W46" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2" t="s">
+      <c r="AA46" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
       <c r="AG46" s="1" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1" spans="23:33">
-      <c r="W47" s="2" t="s">
+      <c r="W47" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2" t="s">
+      <c r="AA47" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
       <c r="AG47" s="1" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="48" spans="23:41">
-      <c r="W48" s="2" t="s">
+      <c r="W48" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2" t="s">
+      <c r="AA48" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
       <c r="AG48" s="1" t="s">
         <v>981</v>
       </c>
       <c r="AL48" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="AO48" s="8"/>
+      <c r="AO48" s="9"/>
     </row>
     <row r="49" spans="22:33">
       <c r="V49" s="1">
         <v>0</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="W49" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2" t="s">
+      <c r="AA49" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
       <c r="AG49" s="1" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="50" spans="23:33">
-      <c r="W50" s="2" t="s">
+      <c r="W50" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2" t="s">
+      <c r="AA50" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
       <c r="AG50" s="1" t="s">
         <v>988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AY68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AI34" sqref="AI34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="26:34">
+      <c r="Z3" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AH3" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="4:34">
+      <c r="D4"/>
+      <c r="Z4" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="5" spans="26:34">
+      <c r="Z5" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AH5" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="26:39">
+      <c r="Z6" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AH6" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="26:34">
+      <c r="Z7" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AH7" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="26:34">
+      <c r="Z8" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AH8" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="26:34">
+      <c r="Z9" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AH9" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="26:34">
+      <c r="Z10" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AH10" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="12" spans="20:20">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="26:51">
+      <c r="Z13" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26">
+      <c r="D14" s="2"/>
+      <c r="Z14" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="15" spans="26:26">
+      <c r="Z15" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="20:20">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="20:20">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" ht="14.4" spans="3:36">
+      <c r="C28"/>
+      <c r="D28" s="2"/>
+      <c r="Z28" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AJ28" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29" spans="26:36">
+      <c r="Z29" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AJ29" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="30" spans="26:45">
+      <c r="Z30" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AJ30" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="31" spans="26:36">
+      <c r="Z31" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AJ31" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="32" spans="26:36">
+      <c r="Z32" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AJ32" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="33" spans="26:36">
+      <c r="Z33" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AJ33" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="26:31">
+      <c r="Z35" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="38" spans="26:26">
+      <c r="Z38" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="39" spans="26:26">
+      <c r="Z39" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="26:26">
+      <c r="Z40" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="41" spans="26:26">
+      <c r="Z41" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="42" spans="26:26">
+      <c r="Z42" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="45" spans="26:26">
+      <c r="Z45" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="46" spans="26:26">
+      <c r="Z46" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1"/>
+    <row r="48" spans="41:41">
+      <c r="AO48" s="9"/>
+    </row>
+    <row r="52" ht="14.4" spans="3:3">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="26:35">
+      <c r="Z53" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AI53" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="54" spans="26:35">
+      <c r="Z54" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AI54" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="26:35">
+      <c r="Z55" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AI55" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="56" spans="26:35">
+      <c r="Z56" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AI56" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="57" spans="26:35">
+      <c r="Z57" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AI57" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="58" spans="26:35">
+      <c r="Z58" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AI58" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="62" spans="26:26">
+      <c r="Z62" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="63" spans="26:26">
+      <c r="Z63" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="64" spans="26:26">
+      <c r="Z64" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="65" spans="26:26">
+      <c r="Z65" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="66" spans="46:46">
+      <c r="AT66" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="67" spans="26:26">
+      <c r="Z67" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="68" spans="26:26">
+      <c r="Z68" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -18267,7 +19055,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -18284,18 +19072,18 @@
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -18309,7 +19097,7 @@
       </c>
     </row>
     <row r="8" spans="4:24">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -18335,12 +19123,12 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="3:23">
@@ -18353,7 +19141,7 @@
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>96</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -18369,7 +19157,7 @@
       <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="22" t="s">
@@ -18386,19 +19174,19 @@
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="14"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="14"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="10"/>
       <c r="W22" s="1" t="s">
         <v>105</v>
       </c>
@@ -18412,21 +19200,21 @@
       <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="10"/>
       <c r="W25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="14"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="15"/>
@@ -18452,7 +19240,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -18469,18 +19257,18 @@
       <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
@@ -18492,7 +19280,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18510,13 +19298,13 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
@@ -18531,7 +19319,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18544,7 +19332,7 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="22" t="s">
@@ -18561,7 +19349,7 @@
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="14"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>130</v>
       </c>
@@ -18570,12 +19358,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -18596,7 +19384,7 @@
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>138</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -18604,7 +19392,7 @@
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>140</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -18612,7 +19400,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -18620,7 +19408,7 @@
       <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="10"/>
       <c r="V28" s="1" t="s">
         <v>144</v>
       </c>
@@ -18688,7 +19476,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -18700,18 +19488,18 @@
       <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="AA4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
@@ -18723,7 +19511,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -18744,12 +19532,12 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>166</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -18780,7 +19568,7 @@
       <c r="C17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -18794,7 +19582,7 @@
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:27">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>175</v>
       </c>
       <c r="AA20" s="1" t="s">
@@ -18802,12 +19590,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
@@ -18823,7 +19611,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -18831,13 +19619,13 @@
       <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="10"/>
       <c r="AA26" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>184</v>
       </c>
       <c r="AA27" s="25" t="s">
@@ -18845,7 +19633,7 @@
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18875,7 +19663,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -18883,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:1025">
+    <row r="2" s="2" customFormat="1" spans="1:1025">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -19919,12 +20707,12 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="3:26">
       <c r="C6" s="1" t="s">
@@ -19943,7 +20731,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -19964,7 +20752,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -19990,7 +20778,7 @@
       <c r="C15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="10"/>
       <c r="Z15" s="1" t="s">
         <v>206</v>
       </c>
@@ -20008,7 +20796,7 @@
       <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="10"/>
       <c r="Z18" s="1" t="s">
         <v>209</v>
       </c>
@@ -20019,7 +20807,7 @@
       </c>
     </row>
     <row r="20" spans="27:27">
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="3:26">
       <c r="C21" s="1" t="s">
@@ -20037,23 +20825,23 @@
       <c r="W22" s="18"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="14"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="10"/>
       <c r="Z24" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:1025">
+    <row r="26" s="2" customFormat="1" spans="1:1025">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -21097,12 +21885,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -21110,7 +21898,7 @@
       <c r="C31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="10"/>
       <c r="Z31" s="1" t="s">
         <v>224</v>
       </c>
@@ -21141,7 +21929,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -21158,18 +21946,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21183,7 +21971,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -21204,12 +21992,12 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
       <c r="W13" s="18"/>
@@ -21224,7 +22012,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -21235,7 +22023,7 @@
       <c r="W17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="22" t="s">
@@ -21249,7 +22037,7 @@
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -21257,12 +22045,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -21280,7 +22068,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21288,18 +22076,18 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="10"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
@@ -21336,7 +22124,7 @@
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -21359,18 +22147,18 @@
       <c r="C4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="T4" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="14"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
@@ -21382,7 +22170,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21400,13 +22188,13 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="10"/>
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
@@ -21421,7 +22209,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>243</v>
       </c>
     </row>
@@ -21437,7 +22225,7 @@
       <c r="T17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
       <c r="D18" s="22" t="s">
@@ -21454,7 +22242,7 @@
       <c r="W19" s="18"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="14"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>250</v>
       </c>
@@ -21463,13 +22251,13 @@
       <c r="C21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="10"/>
       <c r="T21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>253</v>
       </c>
     </row>
@@ -21487,7 +22275,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -21495,18 +22283,18 @@
       <c r="C26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="10"/>
       <c r="T26" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="14"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="15"/>
@@ -21532,7 +22320,7 @@
     <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
     <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="3"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -21549,18 +22337,18 @@
       <c r="B4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="S4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="14"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="1" t="s">
@@ -21572,7 +22360,7 @@
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -21595,13 +22383,13 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="14"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="10"/>
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
@@ -21613,7 +22401,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
@@ -21627,7 +22415,7 @@
       <c r="C17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="22"/>
@@ -21643,21 +22431,21 @@
       <c r="V19" s="18"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="14"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="11" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -21675,16 +22463,16 @@
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="14"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="14"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="14"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="14"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="15"/>

--- a/learn_chinese2023.xlsx
+++ b/learn_chinese2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="19" activeTab="26"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="20221231" sheetId="4" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="20230827" sheetId="29" r:id="rId25"/>
     <sheet name="20230903" sheetId="30" r:id="rId26"/>
     <sheet name="20230917" sheetId="31" r:id="rId27"/>
+    <sheet name="20231001" sheetId="32" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="1126">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -12696,6 +12697,168 @@
   </si>
   <si>
     <t>In the distance, you can see Shanghai, and there are birds flying freely.</t>
+  </si>
+  <si>
+    <t>月亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuè liàng  </t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>月饼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuè bǐng  </t>
+  </si>
+  <si>
+    <t>Mooncakes</t>
+  </si>
+  <si>
+    <t>tiān kōng</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>yún</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huā  </t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>中秋节大家喜欢在家里围着桌子吃月饼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhōng qiū jiē dà jiā xǐ huān zài jiā lǐ wéi zhe zhuō zǐ chī yuè bǐng </t>
+  </si>
+  <si>
+    <t>People like to eat moon cakes around the table at home on Mid-Autumn Festival</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qǐ é  </t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shuǐ guǒ </t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mào zǐ </t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎi  </t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">píng guǒ  </t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lí  </t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>一只企鹅在水果做的帽子里面玩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yī zhī qǐ é zài shuǐ guǒ zuò de mào zǐ lǐ miàn wán </t>
+  </si>
+  <si>
+    <t>A penguin is playing inside a fruit hat</t>
+  </si>
+  <si>
+    <t>爬山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pá shān </t>
+  </si>
+  <si>
+    <t>Mountain climbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sun</t>
+  </si>
+  <si>
+    <t>日出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rì chū </t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chéng gōng </t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>男人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nán rén </t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>一个男人在爬山， 最后他成功看到了日出。</t>
+  </si>
+  <si>
+    <t>yī gè nán rén zài pá shān ， zuì hòu tā chéng gōng kàn dào le rì chū 。</t>
+  </si>
+  <si>
+    <t>A man was climbing a mountain, and in the end he successfully saw the sunrise.</t>
   </si>
 </sst>
 </file>
@@ -13495,20 +13658,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -13889,6 +14050,137 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="350520"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="4747260"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="8963660"/>
+          <a:ext cx="3901440" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -14294,13 +14586,13 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="1" t="s">
@@ -14385,12 +14677,12 @@
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="10"/>
+      <c r="C37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14430,24 +14722,24 @@
       <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="U4" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="U7" s="1" t="s">
         <v>292</v>
       </c>
@@ -14471,29 +14763,29 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="U13" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>299</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>300</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="18"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>301</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -14517,20 +14809,20 @@
       <c r="C19" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
       <c r="U19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>307</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="3:24">
       <c r="C22" s="1" t="s">
@@ -14540,7 +14832,7 @@
       <c r="U22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="X22" s="18"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="4:24">
       <c r="D23" s="2" t="s">
@@ -14549,11 +14841,11 @@
       <c r="V23" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="18"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="13" t="s">
         <v>312</v>
       </c>
       <c r="U24" s="2"/>
@@ -14573,7 +14865,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>316</v>
       </c>
     </row>
@@ -14586,13 +14878,13 @@
       <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="U29" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -14638,7 +14930,7 @@
       <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="U4" s="1" t="s">
         <v>323</v>
       </c>
@@ -14647,16 +14939,16 @@
       <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="U7" s="1" t="s">
         <v>326</v>
       </c>
@@ -14687,36 +14979,36 @@
       <c r="C12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="U14" s="1" t="s">
         <v>335</v>
       </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="18"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="V15" s="12" t="s">
+      <c r="D15" s="13"/>
+      <c r="V15" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="2"/>
@@ -14737,14 +15029,14 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15"/>
-      <c r="W19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="U20" s="1" t="s">
         <v>343</v>
       </c>
@@ -14754,11 +15046,11 @@
       <c r="C21" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="4:24">
       <c r="D22" s="2"/>
-      <c r="X22" s="18"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="1" t="s">
@@ -14768,13 +15060,13 @@
       <c r="U23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X23" s="18"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
@@ -14793,7 +15085,7 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="2"/>
@@ -14802,16 +15094,16 @@
       <c r="B29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="U29" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="40:41">
       <c r="AN31" s="2"/>
@@ -14855,24 +15147,24 @@
       <c r="C4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="W7" s="1" t="s">
         <v>359</v>
       </c>
@@ -14892,7 +15184,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>363</v>
       </c>
     </row>
@@ -14905,7 +15197,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>366</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -14916,31 +15208,31 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="W14" s="1" t="s">
         <v>370</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="11"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="13" t="s">
         <v>371</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>373</v>
       </c>
@@ -14960,22 +15252,22 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>377</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>379</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>380</v>
       </c>
     </row>
@@ -14987,7 +15279,7 @@
       <c r="W22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -14996,11 +15288,11 @@
       <c r="X23" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="13" t="s">
         <v>385</v>
       </c>
       <c r="Z24" s="2"/>
@@ -15023,7 +15315,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>390</v>
       </c>
     </row>
@@ -15034,13 +15326,13 @@
       <c r="C29" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="W29" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1" t="s">
         <v>393</v>
       </c>
@@ -15132,13 +15424,13 @@
       <c r="C4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="X4" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:25">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>407</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -15146,7 +15438,7 @@
       </c>
     </row>
     <row r="6" spans="4:25">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>409</v>
       </c>
@@ -15155,7 +15447,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1" t="s">
         <v>411</v>
       </c>
@@ -15175,7 +15467,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="11"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="3:24">
       <c r="C11" s="1" t="s">
@@ -15186,36 +15478,36 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="X14" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="11"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="13" t="s">
         <v>420</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>422</v>
       </c>
@@ -15235,20 +15527,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:24">
       <c r="C21" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="X21" s="1" t="s">
         <v>428</v>
       </c>
@@ -15257,17 +15549,17 @@
       <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="X24" s="1" t="s">
         <v>431</v>
       </c>
@@ -15285,13 +15577,13 @@
       <c r="C27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
       <c r="X27" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="28" spans="4:25">
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>435</v>
       </c>
       <c r="Y28" s="1" t="s">
@@ -15299,12 +15591,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>438</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -15356,24 +15648,24 @@
       <c r="C4" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="3:23">
       <c r="C7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="W7" s="1" t="s">
         <v>446</v>
       </c>
@@ -15408,36 +15700,36 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="W14" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="11"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="13" t="s">
         <v>457</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="P16" s="1" t="s">
         <v>459</v>
@@ -15458,21 +15750,21 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="15"/>
-      <c r="AB19" s="18"/>
+      <c r="D19" s="13"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="3:33">
       <c r="C20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="W20" s="1" t="s">
         <v>464</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:24">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>465</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -15483,19 +15775,19 @@
       <c r="D22" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="W24" s="1" t="s">
         <v>470</v>
       </c>
@@ -15515,7 +15807,7 @@
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>474</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -15529,18 +15821,18 @@
       <c r="C28" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="W28" s="1" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="16"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="1" t="s">
         <v>480</v>
       </c>
@@ -15603,24 +15895,24 @@
       <c r="C4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="T4" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="T7" s="1" t="s">
         <v>490</v>
       </c>
@@ -15649,28 +15941,28 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:20">
       <c r="C13" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="T13" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>498</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
-      <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="AA15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
@@ -15693,20 +15985,20 @@
       <c r="C19" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
       <c r="T19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>504</v>
       </c>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="3:29">
       <c r="C22" s="1" t="s">
@@ -15716,7 +16008,7 @@
       <c r="T22" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
@@ -15725,11 +16017,11 @@
       <c r="U23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="13" t="s">
         <v>509</v>
       </c>
       <c r="Z24" s="2"/>
@@ -15749,18 +16041,18 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="16"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -15804,13 +16096,13 @@
       <c r="C4" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="R4" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:19">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>517</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -15836,7 +16128,7 @@
       <c r="B7" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>521</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -15878,7 +16170,7 @@
       </c>
     </row>
     <row r="12" spans="4:19">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>532</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -15886,32 +16178,32 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>535</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="R15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>539</v>
       </c>
     </row>
@@ -15928,20 +16220,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="3:18">
       <c r="C21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="R21" s="1" t="s">
         <v>544</v>
       </c>
@@ -15950,17 +16242,17 @@
       <c r="D22" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="R24" s="1" t="s">
         <v>547</v>
       </c>
@@ -15978,21 +16270,21 @@
       <c r="C27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
       <c r="R27" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="16"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="45:46">
       <c r="AS31" s="2"/>
@@ -16033,13 +16325,13 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" ht="13" customHeight="1" spans="3:22">
       <c r="C5" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="5"/>
       <c r="V5" s="1" t="s">
         <v>554</v>
       </c>
@@ -16051,7 +16343,7 @@
       <c r="AMP6" s="2"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="13"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="3:22">
       <c r="C8" s="1" t="s">
@@ -16084,13 +16376,13 @@
       <c r="C12" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
       <c r="V12" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>564</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -16098,24 +16390,24 @@
       </c>
     </row>
     <row r="14" spans="4:29">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>566</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="18"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="V15" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>569</v>
       </c>
     </row>
@@ -16132,20 +16424,20 @@
       </c>
     </row>
     <row r="19" spans="4:28">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="4:33">
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="AG20" s="2"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="3:22">
       <c r="C21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="V21" s="1" t="s">
         <v>574</v>
       </c>
@@ -16157,19 +16449,19 @@
       <c r="W22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AC22" s="18"/>
+      <c r="AC22" s="16"/>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="V24" s="1" t="s">
         <v>579</v>
       </c>
@@ -16190,13 +16482,13 @@
       <c r="C27" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
       <c r="V27" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>584</v>
       </c>
       <c r="W28" s="1" t="s">
@@ -16204,7 +16496,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>586</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -16212,7 +16504,7 @@
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="16"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="1" t="s">
         <v>588</v>
       </c>
@@ -16259,13 +16551,13 @@
       <c r="C4" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="U4" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>592</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -16328,13 +16620,13 @@
       <c r="C13" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="U13" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>608</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -16342,23 +16634,23 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>610</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="18"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="AA16" s="12"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="5"/>
       <c r="U17" s="1" t="s">
         <v>613</v>
       </c>
@@ -16380,16 +16672,16 @@
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="M21" s="1" t="s">
         <v>620</v>
       </c>
@@ -16402,13 +16694,13 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="23" spans="4:29">
       <c r="D23" s="2"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -16418,14 +16710,14 @@
       <c r="U24" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AC24" s="18"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="10"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="9" t="s">
         <v>627</v>
       </c>
       <c r="Z25" s="2"/>
@@ -16444,21 +16736,21 @@
       <c r="C28" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="13"/>
       <c r="U28" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="16"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="45:46">
       <c r="AS32" s="2"/>
@@ -16502,16 +16794,16 @@
       <c r="C4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="U4" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="15" t="s">
         <v>637</v>
       </c>
     </row>
@@ -16561,7 +16853,7 @@
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>648</v>
       </c>
     </row>
@@ -16569,27 +16861,27 @@
       <c r="C14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="U14" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>651</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="18"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="15"/>
-      <c r="AA16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="5"/>
       <c r="U17" s="1" t="s">
         <v>653</v>
       </c>
@@ -16598,7 +16890,7 @@
       <c r="D18" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="9" t="s">
         <v>655</v>
       </c>
     </row>
@@ -16614,24 +16906,24 @@
       <c r="C20" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="V20" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="3:33">
       <c r="C21" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="3:4">
       <c r="C22" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="3:29">
       <c r="C23" s="1" t="s">
@@ -16641,7 +16933,7 @@
       <c r="U23" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -16651,14 +16943,14 @@
       <c r="V24" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AC24" s="18"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="V25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="V25" s="9"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="3:21">
@@ -16677,16 +16969,16 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="15"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="16"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="45:46">
       <c r="AS32" s="2"/>
@@ -16730,18 +17022,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16749,7 +17041,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -16776,27 +17068,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -16810,18 +17102,18 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -16829,12 +17121,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -16852,7 +17144,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -16860,24 +17152,24 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -16925,16 +17217,16 @@
       <c r="C4" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:24">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="15"/>
       <c r="X5" s="1" t="s">
         <v>674</v>
       </c>
@@ -16962,7 +17254,7 @@
       <c r="D9" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="10" t="s">
         <v>680</v>
       </c>
     </row>
@@ -16975,7 +17267,7 @@
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>683</v>
       </c>
     </row>
@@ -16988,7 +17280,7 @@
       </c>
     </row>
     <row r="13" spans="4:24">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>686</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -16996,7 +17288,7 @@
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>688</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -17004,20 +17296,20 @@
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>690</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="18"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="AA16" s="12"/>
+      <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="5" t="s">
         <v>692</v>
       </c>
     </row>
@@ -17026,7 +17318,7 @@
         <v>693</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="V18" s="11"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="1" t="s">
         <v>694</v>
       </c>
@@ -17040,7 +17332,7 @@
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>697</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -17049,16 +17341,16 @@
       <c r="X20" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="AB20" s="18"/>
+      <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="4:33">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>700</v>
       </c>
       <c r="AG21" s="2"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>701</v>
       </c>
     </row>
@@ -17066,7 +17358,7 @@
       <c r="D23" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="3:29">
       <c r="C24" s="1" t="s">
@@ -17076,14 +17368,14 @@
       <c r="W24" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="AC24" s="18"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="10"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="9"/>
       <c r="X25" s="1" t="s">
         <v>706</v>
       </c>
@@ -17104,7 +17396,7 @@
       </c>
     </row>
     <row r="28" spans="4:24">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>710</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -17112,17 +17404,17 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="5" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="31" spans="3:23">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>714</v>
       </c>
       <c r="W31" s="1" t="s">
@@ -17254,7 +17546,7 @@
       <c r="T12" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="1" t="s">
@@ -17265,12 +17557,12 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>740</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -17292,7 +17584,7 @@
       <c r="U17" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
@@ -17353,7 +17645,7 @@
       <c r="T27" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="Y27" s="11"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -17369,10 +17661,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="11"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="11"/>
+      <c r="Y32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17456,7 +17748,7 @@
       <c r="U12" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -17464,13 +17756,13 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="U15" s="1" t="s">
         <v>777</v>
       </c>
@@ -17487,7 +17779,7 @@
       <c r="O17" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="1" t="s">
@@ -17556,7 +17848,7 @@
       <c r="C27" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Y27" s="11"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="1" t="s">
@@ -17580,7 +17872,7 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="11"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="2:25">
       <c r="B32" s="1" t="s">
@@ -17592,7 +17884,7 @@
       <c r="H32" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="Y32" s="11"/>
+      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
@@ -17700,7 +17992,7 @@
       <c r="C12" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
@@ -17708,7 +18000,7 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
       <c r="Q14" s="1" t="s">
         <v>824</v>
       </c>
@@ -17717,7 +18009,7 @@
       <c r="B15" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="S15" s="1" t="s">
         <v>826</v>
       </c>
@@ -17728,7 +18020,7 @@
       </c>
     </row>
     <row r="17" spans="27:27">
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
@@ -17792,7 +18084,7 @@
       <c r="T27" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="Y27" s="11"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
@@ -17805,10 +18097,10 @@
       </c>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="11"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="11"/>
+      <c r="Y32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17894,16 +18186,16 @@
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="9"/>
       <c r="Q14" s="1" t="s">
         <v>859</v>
       </c>
@@ -17912,12 +18204,12 @@
       <c r="C15" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="10" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>862</v>
       </c>
     </row>
@@ -17925,7 +18217,7 @@
       <c r="C17" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="9"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
@@ -17954,13 +18246,13 @@
       </c>
     </row>
     <row r="27" spans="25:25">
-      <c r="Y27" s="11"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="31" spans="19:19">
-      <c r="S31" s="11"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="25:25">
-      <c r="Y32" s="11"/>
+      <c r="Y32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -18080,7 +18372,7 @@
       <c r="U17" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2" t="s">
@@ -18260,7 +18552,7 @@
       <c r="W8" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="5" t="s">
         <v>925</v>
       </c>
       <c r="AG8" s="1" t="s">
@@ -18287,7 +18579,7 @@
     <row r="17" spans="4:26">
       <c r="D17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
@@ -18496,7 +18788,7 @@
       <c r="AL48" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="AO48" s="9"/>
+      <c r="AO48" s="8"/>
     </row>
     <row r="49" spans="22:33">
       <c r="V49" s="1">
@@ -18536,7 +18828,7 @@
   <sheetPr/>
   <dimension ref="C1:AY68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AI34" sqref="AI34"/>
     </sheetView>
   </sheetViews>
@@ -18554,64 +18846,46 @@
       </c>
     </row>
     <row r="3" spans="26:34">
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
       <c r="AH3" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="4:34">
       <c r="D4"/>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="1"/>
       <c r="AH4" s="1" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="5" spans="26:34">
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
       <c r="AH5" s="1" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="6" spans="26:39">
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
       <c r="AH6" s="1" t="s">
         <v>1000</v>
       </c>
@@ -18620,61 +18894,46 @@
       </c>
     </row>
     <row r="7" spans="26:34">
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
       <c r="AH7" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="8" spans="26:34">
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5" t="s">
+      <c r="AA8" s="5"/>
+      <c r="AC8" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
       <c r="AH8" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="9" spans="26:34">
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
       <c r="AH9" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="10" spans="26:34">
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
       <c r="AH10" s="1" t="s">
         <v>1013</v>
       </c>
@@ -18704,7 +18963,7 @@
     <row r="17" spans="4:26">
       <c r="D17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2"/>
@@ -18739,55 +18998,34 @@
     <row r="28" ht="14.4" spans="3:36">
       <c r="C28"/>
       <c r="D28" s="2"/>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
       <c r="AJ28" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="29" spans="26:36">
-      <c r="Z29" s="5" t="s">
+      <c r="Z29" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5" t="s">
+      <c r="AD29" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
       <c r="AJ29" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="30" spans="26:45">
-      <c r="Z30" s="5" t="s">
+      <c r="Z30" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5" t="s">
+      <c r="AD30" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
       <c r="AJ30" s="1" t="s">
         <v>1026</v>
       </c>
@@ -18799,55 +19037,34 @@
       </c>
     </row>
     <row r="31" spans="26:36">
-      <c r="Z31" s="5" t="s">
+      <c r="Z31" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5" t="s">
+      <c r="AD31" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
       <c r="AJ31" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="32" spans="26:36">
-      <c r="Z32" s="5" t="s">
+      <c r="Z32" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5" t="s">
+      <c r="AD32" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
       <c r="AJ32" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="33" spans="26:36">
-      <c r="Z33" s="5" t="s">
+      <c r="Z33" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5" t="s">
+      <c r="AD33" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
       <c r="AJ33" s="1" t="s">
         <v>1037</v>
       </c>
@@ -18897,103 +19114,73 @@
     </row>
     <row r="47" ht="14" customHeight="1"/>
     <row r="48" spans="41:41">
-      <c r="AO48" s="9"/>
+      <c r="AO48" s="8"/>
     </row>
     <row r="52" ht="14.4" spans="3:3">
       <c r="C52"/>
     </row>
     <row r="53" spans="26:35">
-      <c r="Z53" s="5" t="s">
+      <c r="Z53" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5" t="s">
+      <c r="AC53" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
       <c r="AI53" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="54" spans="26:35">
-      <c r="Z54" s="5" t="s">
+      <c r="Z54" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5" t="s">
+      <c r="AC54" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
       <c r="AI54" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="55" spans="26:35">
-      <c r="Z55" s="5" t="s">
+      <c r="Z55" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5" t="s">
+      <c r="AC55" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
       <c r="AI55" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="56" spans="26:35">
-      <c r="Z56" s="5" t="s">
+      <c r="Z56" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5" t="s">
+      <c r="AC56" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
       <c r="AI56" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="57" spans="26:35">
-      <c r="Z57" s="5" t="s">
+      <c r="Z57" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5" t="s">
+      <c r="AC57" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
       <c r="AI57" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="58" spans="26:35">
-      <c r="Z58" s="5" t="s">
+      <c r="Z58" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5" t="s">
+      <c r="AC58" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
       <c r="AI58" s="1" t="s">
         <v>1064</v>
       </c>
@@ -19031,6 +19218,391 @@
     <row r="68" spans="26:26">
       <c r="Z68" s="1" t="s">
         <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AU60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="AA61" sqref="AA61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1031" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1032" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="4:37">
+      <c r="D3"/>
+      <c r="Z3" s="2"/>
+      <c r="AB3" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AE3" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AK3" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="4:37">
+      <c r="D4"/>
+      <c r="AB4" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AE4" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AK4" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="28:37">
+      <c r="AB5" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AE5" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AK5" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="6" spans="28:37">
+      <c r="AB6" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AE6" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AK6" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="7" spans="28:37">
+      <c r="AB7" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AE7" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AK7" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="8" spans="27:37">
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AE8" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AK8" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="28:37">
+      <c r="AB9" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AE9" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AK9" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="11" spans="28:28">
+      <c r="AB11" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="12" spans="20:28">
+      <c r="T12" s="2"/>
+      <c r="AB12" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="13" spans="28:28">
+      <c r="AB13" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="20:20">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="20:20">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" ht="14.4" spans="3:36">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="AB28" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AJ28" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="29" spans="28:36">
+      <c r="AB29" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AJ29" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="30" spans="28:36">
+      <c r="AB30" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AJ30" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="31" spans="28:36">
+      <c r="AB31" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AJ31" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="28:36">
+      <c r="AB32" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AJ32" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="33" spans="28:36">
+      <c r="AB33" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AJ33" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="34" spans="32:34">
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="28:28">
+      <c r="AB35" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="36" spans="28:28">
+      <c r="AB36" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="37" spans="28:28">
+      <c r="AB37" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1"/>
+    <row r="48" spans="47:47">
+      <c r="AU48" s="8"/>
+    </row>
+    <row r="52" ht="14.4" spans="3:37">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="AB52" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AF52" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AK52" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="53" spans="28:37">
+      <c r="AB53" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AC53" s="1"/>
+      <c r="AF53" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="7"/>
+      <c r="AK53" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="54" spans="28:37">
+      <c r="AB54" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AC54" s="1"/>
+      <c r="AF54" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AK54" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="55" spans="28:37">
+      <c r="AB55" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AC55" s="1"/>
+      <c r="AF55" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="7"/>
+      <c r="AK55" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="56" spans="28:37">
+      <c r="AB56" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AC56" s="1"/>
+      <c r="AF56" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AK56" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="58" spans="28:28">
+      <c r="AB58" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="59" spans="28:28">
+      <c r="AB59" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="60" spans="28:28">
+      <c r="AB60" s="1" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -19072,18 +19644,18 @@
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -19091,7 +19663,7 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="W7" s="1" t="s">
         <v>86</v>
       </c>
@@ -19123,25 +19695,25 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10"/>
-      <c r="W13" s="18"/>
+      <c r="D13" s="5"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="W14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:24">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -19160,7 +19732,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -19168,25 +19740,25 @@
       <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="21"/>
       <c r="W19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="10"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="5"/>
       <c r="W22" s="1" t="s">
         <v>105</v>
       </c>
@@ -19200,24 +19772,24 @@
       <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="5"/>
       <c r="W25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -19257,24 +19829,24 @@
       <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
@@ -19298,17 +19870,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="V13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -19319,7 +19891,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -19335,7 +19907,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19343,13 +19915,13 @@
       <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="21"/>
       <c r="V19" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="10"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>130</v>
       </c>
@@ -19358,12 +19930,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19384,7 +19956,7 @@
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>138</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -19392,7 +19964,7 @@
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5" t="s">
         <v>140</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -19400,7 +19972,7 @@
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -19408,13 +19980,13 @@
       <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
       <c r="V28" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -19488,24 +20060,24 @@
       <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="AA4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="AA7" s="1" t="s">
         <v>159</v>
       </c>
@@ -19532,30 +20104,30 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>166</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="AA14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>170</v>
       </c>
     </row>
@@ -19573,16 +20145,16 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="23"/>
-      <c r="W19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="3:27">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AA20" s="1" t="s">
@@ -19590,12 +20162,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="3:27">
       <c r="C23" s="1" t="s">
@@ -19611,7 +20183,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -19619,26 +20191,26 @@
       <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5"/>
       <c r="AA26" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AA27" s="25" t="s">
+      <c r="AA27" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -20707,12 +21279,12 @@
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="3:26">
       <c r="C6" s="1" t="s">
@@ -20731,7 +21303,7 @@
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -20744,7 +21316,7 @@
       </c>
     </row>
     <row r="10" spans="4:27">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>198</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -20778,7 +21350,7 @@
       <c r="C15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="5"/>
       <c r="Z15" s="1" t="s">
         <v>206</v>
       </c>
@@ -20787,16 +21359,16 @@
       <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W16" s="18"/>
+      <c r="W16" s="16"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="18"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="5"/>
       <c r="Z18" s="1" t="s">
         <v>209</v>
       </c>
@@ -20813,31 +21385,31 @@
       <c r="C21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="20"/>
       <c r="Z21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="W22" s="18"/>
+      <c r="W22" s="16"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="10"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="5"/>
       <c r="Z24" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21885,12 +22457,12 @@
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -21898,13 +22470,13 @@
       <c r="C31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="5"/>
       <c r="Z31" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -21946,18 +22518,18 @@
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21965,7 +22537,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="W7" s="1" t="s">
         <v>51</v>
       </c>
@@ -21992,27 +22564,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="W14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -22026,18 +22598,18 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -22045,12 +22617,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -22068,7 +22640,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -22076,24 +22648,24 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5"/>
       <c r="W26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="W29" s="1" t="s">
         <v>78</v>
       </c>
@@ -22147,24 +22719,24 @@
       <c r="C4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
       <c r="T4" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="T7" s="1" t="s">
         <v>234</v>
       </c>
@@ -22188,17 +22760,17 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="T13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="4:21">
       <c r="D14" s="1" t="s">
@@ -22209,7 +22781,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -22228,7 +22800,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>247</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -22236,13 +22808,13 @@
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="16"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="10"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
         <v>250</v>
       </c>
@@ -22251,13 +22823,13 @@
       <c r="C21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="5"/>
       <c r="T21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22275,7 +22847,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -22283,21 +22855,21 @@
       <c r="C26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5"/>
       <c r="T26" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22337,24 +22909,24 @@
       <c r="B4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="12"/>
       <c r="S4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="10"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
       <c r="S7" s="1" t="s">
         <v>266</v>
       </c>
@@ -22383,17 +22955,17 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="10"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="5"/>
       <c r="S13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="18"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -22401,7 +22973,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="10"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
@@ -22418,34 +22990,34 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="22"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="21"/>
       <c r="S19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="V19" s="18"/>
+      <c r="V19" s="16"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="10"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>283</v>
       </c>
     </row>
@@ -22463,19 +23035,19 @@
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="10"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="10"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="10"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="10"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="15"/>
+      <c r="C29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
